--- a/BaremeJavaBaseTest1_KL16.xlsx
+++ b/BaremeJavaBaseTest1_KL16.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441D193A-FB67-43F8-8614-32BFE79A4193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793572F0-1DB4-4F9E-A3F2-5019E13B039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,739 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="AH10" authorId="0" shapeId="0" xr:uid="{FE2F5B0F-C25F-4ECD-8E39-1623B67E807C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque le collections.unmodifiable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI10" authorId="0" shapeId="0" xr:uid="{E3631B41-7934-4062-A3D5-7321444BE0E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les appels au setters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO10" authorId="0" shapeId="0" xr:uid="{99D0572C-BA21-4D37-81A0-8449E0B37541}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les appels au setters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG12" authorId="0" shapeId="0" xr:uid="{FF553973-DC84-4FA4-A2E4-06C147BFDE8F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'initialisation de la liste</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH12" authorId="0" shapeId="0" xr:uid="{CFE8860B-7378-447A-85DA-6880C02C7ABB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque le collections.unmodifiable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG13" authorId="0" shapeId="0" xr:uid="{12251215-4C9D-468A-88FE-F1BB3F830EF9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'initialisation de la liste</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH13" authorId="0" shapeId="0" xr:uid="{A0285551-1483-4F4D-A794-1681C3A51F4A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque le collections.unmodifiable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH14" authorId="0" shapeId="0" xr:uid="{078638C3-96C4-4ED6-959C-F8F34384F1D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque le collections.unmodifiable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ14" authorId="0" shapeId="0" xr:uid="{578484B4-CD28-437E-87E1-BF3FC79B01B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+il existe la méthode contains</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0" shapeId="0" xr:uid="{FBB24AA2-2052-4A83-A446-B24FD116CEAE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les appels au setters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO15" authorId="0" shapeId="0" xr:uid="{8407A1A2-E27C-498A-9B3B-5EEC9A68908C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les appels au setters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH17" authorId="0" shapeId="0" xr:uid="{86184437-DAD4-4A82-9A5B-F0F8C161B414}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque le collections.unmodifiable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH18" authorId="0" shapeId="0" xr:uid="{D9A59001-BF18-4018-879E-C5715D5FB42E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les isBlank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG20" authorId="0" shapeId="0" xr:uid="{9C4C377D-E33B-4482-9C00-22B56D92242E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'initialisation de la liste</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH20" authorId="0" shapeId="0" xr:uid="{D27C60F7-EFBE-416B-A9D4-0C84243102D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les isNull
+manque les isBlank
+manque le collections.unmodifiable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI20" authorId="0" shapeId="0" xr:uid="{3EE19A44-934E-41EC-B3B9-C5A0725C319B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les appels au setters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO20" authorId="0" shapeId="0" xr:uid="{88BB88F3-6D7D-40C5-8AFD-C91A2AE711BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les appels au setters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG22" authorId="0" shapeId="0" xr:uid="{B7DABE02-D8CD-4DFB-889B-B68C9CA9D327}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'initialisation de la liste</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH22" authorId="0" shapeId="0" xr:uid="{0145D534-FE90-45AF-8966-009AD7498DCD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les isBlank
+manque le collections.unmodifiable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI22" authorId="0" shapeId="0" xr:uid="{76B542DF-F700-4A74-8BDD-29BA75CF46C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'exception de la classe mère</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO22" authorId="0" shapeId="0" xr:uid="{62911505-FB72-4540-90D9-F655EABC324A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'exception de la classe mère</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI23" authorId="0" shapeId="0" xr:uid="{A9313058-7EC2-4E07-A070-C3E3609E82ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les appels au setters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ23" authorId="0" shapeId="0" xr:uid="{2217829E-FE19-43FD-B858-AB583E1F9C4A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+il existe la méthode contains</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG24" authorId="0" shapeId="0" xr:uid="{3C03F96A-4558-4A14-AF75-C9F5F24D103E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'initialisation de la liste</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI24" authorId="0" shapeId="0" xr:uid="{E4125D08-54B3-4ACD-8167-F1A6D22E20B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les appels au setters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO24" authorId="0" shapeId="0" xr:uid="{76C1EFAD-CF6B-4D01-BBEF-DF34CD01329A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les appels au setters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG26" authorId="0" shapeId="0" xr:uid="{BE5BA2FC-2481-4986-B621-DE6EF2FA4989}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'initialisation de la liste</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH26" authorId="0" shapeId="0" xr:uid="{67640C85-CAEF-4EC7-A766-3F2C649622AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque le collections.unmodifiable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI26" authorId="0" shapeId="0" xr:uid="{795C2FE5-8131-420D-9115-28139A3F14B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'exception de la classe mère</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO26" authorId="0" shapeId="0" xr:uid="{6696B17C-B700-4825-8B2F-F7E93DE8AAF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'exception de la classe mère</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -103,9 +836,6 @@
   </si>
   <si>
     <t>Environnement du code</t>
-  </si>
-  <si>
-    <t>Pattern</t>
   </si>
   <si>
     <t>Client</t>
@@ -407,12 +1137,15 @@
   <si>
     <t>listerPieceByFamille()</t>
   </si>
+  <si>
+    <t>Constantes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +1172,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1533,7 +2279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1863,6 +2609,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3485,15 +4234,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1545" ySplit="3975" topLeftCell="O8" activePane="bottomRight"/>
+      <pane xSplit="1545" ySplit="3975" topLeftCell="AE8" activePane="bottomRight"/>
       <selection activeCell="B1" sqref="B1:C1048576"/>
-      <selection pane="topRight" activeCell="C1" sqref="B1:C1048576"/>
+      <selection pane="topRight" activeCell="AX6" sqref="AX6"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
-      <selection pane="bottomRight" activeCell="AC14" sqref="AC14"/>
+      <selection pane="bottomRight" activeCell="AX27" sqref="AX27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3506,11 +4255,11 @@
     <col min="6" max="6" width="8.140625" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="4.140625" style="58" customWidth="1"/>
-    <col min="9" max="10" width="4.140625" style="171" customWidth="1"/>
+    <col min="9" max="10" width="4.140625" style="172" customWidth="1"/>
     <col min="11" max="11" width="4.140625" style="58" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="171" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="172" customWidth="1"/>
     <col min="13" max="48" width="4.140625" style="58" customWidth="1"/>
-    <col min="49" max="49" width="4.140625" style="171" customWidth="1"/>
+    <col min="49" max="49" width="4.140625" style="172" customWidth="1"/>
     <col min="50" max="60" width="4.140625" style="58" customWidth="1"/>
     <col min="61" max="61" width="9.140625" style="58"/>
     <col min="62" max="16384" width="9.140625" style="2"/>
@@ -3534,65 +4283,65 @@
       <c r="M1" s="82"/>
       <c r="N1" s="82"/>
       <c r="O1" s="82"/>
-      <c r="P1" s="113" t="s">
+      <c r="P1" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="116" t="s">
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="116"/>
+      <c r="AB1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="117"/>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="118"/>
-      <c r="AO1" s="118"/>
-      <c r="AP1" s="118"/>
-      <c r="AQ1" s="119"/>
-      <c r="AR1" s="120"/>
-      <c r="AS1" s="121"/>
-      <c r="AT1" s="121"/>
-      <c r="AU1" s="121"/>
-      <c r="AV1" s="121"/>
-      <c r="AW1" s="122" t="s">
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="119"/>
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="119"/>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="119"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="119"/>
+      <c r="AM1" s="119"/>
+      <c r="AN1" s="119"/>
+      <c r="AO1" s="119"/>
+      <c r="AP1" s="119"/>
+      <c r="AQ1" s="120"/>
+      <c r="AR1" s="121"/>
+      <c r="AS1" s="122"/>
+      <c r="AT1" s="122"/>
+      <c r="AU1" s="122"/>
+      <c r="AV1" s="122"/>
+      <c r="AW1" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="AX1" s="118"/>
-      <c r="AY1" s="123" t="s">
+      <c r="AX1" s="119"/>
+      <c r="AY1" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="AZ1" s="113" t="s">
+      <c r="AZ1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="BA1" s="114"/>
-      <c r="BB1" s="114"/>
-      <c r="BC1" s="114"/>
-      <c r="BD1" s="114"/>
-      <c r="BE1" s="114"/>
-      <c r="BF1" s="114"/>
-      <c r="BG1" s="115"/>
+      <c r="BA1" s="115"/>
+      <c r="BB1" s="115"/>
+      <c r="BC1" s="115"/>
+      <c r="BD1" s="115"/>
+      <c r="BE1" s="115"/>
+      <c r="BF1" s="115"/>
+      <c r="BG1" s="116"/>
       <c r="BH1" s="61" t="s">
         <v>15</v>
       </c>
       <c r="BI1" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3603,31 +4352,31 @@
       <c r="E2" s="40"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="166" t="s">
+      <c r="J2" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="124" t="s">
+      <c r="K2" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="172" t="s">
+      <c r="L2" s="173" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="81" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O2" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="125"/>
+      <c r="P2" s="126"/>
       <c r="Q2" s="85"/>
       <c r="R2" s="85"/>
       <c r="S2" s="85"/>
@@ -3638,16 +4387,16 @@
       <c r="X2" s="85"/>
       <c r="Y2" s="85"/>
       <c r="Z2" s="85"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="127" t="s">
-        <v>99</v>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="128" t="s">
+        <v>98</v>
       </c>
       <c r="AC2" s="66"/>
       <c r="AD2" s="66"/>
       <c r="AE2" s="66"/>
       <c r="AF2" s="66"/>
       <c r="AG2" s="77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH2" s="78"/>
       <c r="AI2" s="79"/>
@@ -3655,13 +4404,13 @@
       <c r="AK2" s="79"/>
       <c r="AL2" s="79"/>
       <c r="AM2" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AN2" s="66"/>
       <c r="AO2" s="66"/>
       <c r="AP2" s="66"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="127" t="s">
+      <c r="AQ2" s="129"/>
+      <c r="AR2" s="128" t="s">
         <v>6</v>
       </c>
       <c r="AS2" s="66"/>
@@ -3670,13 +4419,13 @@
       <c r="AV2" s="66"/>
       <c r="AW2" s="67"/>
       <c r="AX2" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY2" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY2" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="AZ2" s="130" t="s">
-        <v>74</v>
+      <c r="AZ2" s="131" t="s">
+        <v>73</v>
       </c>
       <c r="BA2" s="79"/>
       <c r="BB2" s="79"/>
@@ -3684,9 +4433,9 @@
       <c r="BD2" s="79"/>
       <c r="BE2" s="79"/>
       <c r="BF2" s="79"/>
-      <c r="BG2" s="131"/>
-      <c r="BH2" s="132" t="s">
-        <v>101</v>
+      <c r="BG2" s="132"/>
+      <c r="BH2" s="133" t="s">
+        <v>100</v>
       </c>
       <c r="BI2" s="85"/>
     </row>
@@ -3702,66 +4451,66 @@
       </c>
       <c r="D3" s="10" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G5,")")</f>
-        <v>Note/20 ( sur 151)</v>
+        <v>Note/20 ( sur 156)</v>
       </c>
       <c r="E3" s="11" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 42)</v>
+        <v>Note/20 ( sur 43)</v>
       </c>
       <c r="F3" s="6" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/42</v>
+        <v>Note/43</v>
       </c>
       <c r="G3" s="6" t="str">
         <f>CONCATENATE("Note/",G5)</f>
-        <v>Note/151</v>
-      </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="173"/>
+        <v>Note/156</v>
+      </c>
+      <c r="H3" s="134"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="174"/>
       <c r="M3" s="83"/>
       <c r="N3" s="69"/>
       <c r="O3" s="83"/>
-      <c r="P3" s="134" t="s">
+      <c r="P3" s="135" t="s">
         <v>18</v>
       </c>
       <c r="Q3" s="60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R3" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S3" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T3" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U3" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="V3" s="135" t="s">
-        <v>102</v>
-      </c>
-      <c r="W3" s="136" t="s">
-        <v>102</v>
-      </c>
-      <c r="X3" s="137" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y3" s="135" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z3" s="136" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA3" s="138" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB3" s="139" t="s">
-        <v>55</v>
+        <v>101</v>
+      </c>
+      <c r="V3" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="W3" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" s="138" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y3" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z3" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA3" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB3" s="140" t="s">
+        <v>54</v>
       </c>
       <c r="AC3" s="75" t="s">
         <v>12</v>
@@ -3770,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="AE3" s="76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF3" s="80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG3" s="73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH3" s="75" t="s">
         <v>12</v>
@@ -3785,16 +4534,16 @@
         <v>13</v>
       </c>
       <c r="AJ3" s="76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK3" s="76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AL3" s="80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM3" s="73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AN3" s="75" t="s">
         <v>12</v>
@@ -3803,52 +4552,52 @@
         <v>13</v>
       </c>
       <c r="AP3" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ3" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="AR3" s="141" t="s">
+      <c r="AQ3" s="141" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR3" s="142" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS3" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="AS3" s="70" t="s">
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="112"/>
+      <c r="AV3" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="111"/>
-      <c r="AV3" s="142" t="s">
+      <c r="AW3" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="AW3" s="176" t="s">
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="144"/>
+      <c r="AZ3" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="141" t="s">
+      <c r="BA3" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="BA3" s="80" t="s">
+      <c r="BB3" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="BB3" s="80" t="s">
+      <c r="BC3" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="BC3" s="80" t="s">
+      <c r="BD3" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="BD3" s="80" t="s">
+      <c r="BE3" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="BE3" s="80" t="s">
+      <c r="BF3" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="BF3" s="80" t="s">
+      <c r="BG3" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="BG3" s="140" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH3" s="144"/>
+      <c r="BH3" s="145"/>
       <c r="BI3" s="85"/>
     </row>
     <row r="4" spans="1:61" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3859,89 +4608,89 @@
       <c r="E4" s="11"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="174"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="175"/>
       <c r="M4" s="74"/>
       <c r="N4" s="72"/>
-      <c r="O4" s="146"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="148" t="s">
-        <v>111</v>
-      </c>
-      <c r="R4" s="149" t="s">
+      <c r="O4" s="147"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="149" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" s="150" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="149" t="s">
+      <c r="T4" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="T4" s="149" t="s">
+      <c r="U4" s="150" t="s">
+        <v>102</v>
+      </c>
+      <c r="V4" s="151" t="s">
         <v>118</v>
       </c>
-      <c r="U4" s="149" t="s">
-        <v>103</v>
-      </c>
-      <c r="V4" s="150" t="s">
+      <c r="W4" s="152" t="s">
+        <v>114</v>
+      </c>
+      <c r="X4" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="W4" s="151" t="s">
-        <v>115</v>
-      </c>
-      <c r="X4" s="152" t="s">
+      <c r="Y4" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="Y4" s="150" t="s">
+      <c r="Z4" s="152" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA4" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="Z4" s="151" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA4" s="153" t="s">
+      <c r="AB4" s="155"/>
+      <c r="AC4" s="156"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="157"/>
+      <c r="AG4" s="159"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="156"/>
+      <c r="AJ4" s="158"/>
+      <c r="AK4" s="158"/>
+      <c r="AL4" s="157"/>
+      <c r="AM4" s="159"/>
+      <c r="AN4" s="156"/>
+      <c r="AO4" s="156"/>
+      <c r="AP4" s="157"/>
+      <c r="AQ4" s="160"/>
+      <c r="AR4" s="161"/>
+      <c r="AS4" s="152" t="s">
         <v>122</v>
       </c>
-      <c r="AB4" s="154"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="156"/>
-      <c r="AE4" s="157"/>
-      <c r="AF4" s="156"/>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="155"/>
-      <c r="AI4" s="155"/>
-      <c r="AJ4" s="157"/>
-      <c r="AK4" s="157"/>
-      <c r="AL4" s="156"/>
-      <c r="AM4" s="158"/>
-      <c r="AN4" s="155"/>
-      <c r="AO4" s="155"/>
-      <c r="AP4" s="156"/>
-      <c r="AQ4" s="159"/>
-      <c r="AR4" s="160"/>
-      <c r="AS4" s="151" t="s">
+      <c r="AT4" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="AT4" s="151" t="s">
+      <c r="AU4" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="AU4" s="151" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV4" s="151" t="s">
-        <v>123</v>
-      </c>
-      <c r="AW4" s="177"/>
-      <c r="AX4" s="161"/>
-      <c r="AY4" s="162"/>
-      <c r="AZ4" s="160"/>
-      <c r="BA4" s="156"/>
-      <c r="BB4" s="156"/>
-      <c r="BC4" s="156"/>
-      <c r="BD4" s="156"/>
-      <c r="BE4" s="156"/>
-      <c r="BF4" s="156"/>
-      <c r="BG4" s="159"/>
-      <c r="BH4" s="163"/>
+      <c r="AV4" s="152" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW4" s="178"/>
+      <c r="AX4" s="162"/>
+      <c r="AY4" s="163"/>
+      <c r="AZ4" s="161"/>
+      <c r="BA4" s="157"/>
+      <c r="BB4" s="157"/>
+      <c r="BC4" s="157"/>
+      <c r="BD4" s="157"/>
+      <c r="BE4" s="157"/>
+      <c r="BF4" s="157"/>
+      <c r="BG4" s="160"/>
+      <c r="BH4" s="164"/>
       <c r="BI4" s="85"/>
     </row>
     <row r="5" spans="1:61" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3953,15 +4702,15 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6">
         <f>SUM(H5:BB5)</f>
-        <v>151</v>
-      </c>
-      <c r="H5" s="164">
-        <v>1</v>
-      </c>
-      <c r="I5" s="169">
-        <v>0</v>
-      </c>
-      <c r="J5" s="169">
+        <v>156</v>
+      </c>
+      <c r="H5" s="165">
+        <v>1</v>
+      </c>
+      <c r="I5" s="170">
+        <v>0</v>
+      </c>
+      <c r="J5" s="170">
         <v>0</v>
       </c>
       <c r="K5" s="59">
@@ -4018,7 +4767,7 @@
       <c r="AB5" s="9">
         <v>2</v>
       </c>
-      <c r="AC5" s="165">
+      <c r="AC5" s="166">
         <v>6</v>
       </c>
       <c r="AD5" s="54">
@@ -4033,7 +4782,7 @@
       <c r="AG5" s="9">
         <v>2</v>
       </c>
-      <c r="AH5" s="165">
+      <c r="AH5" s="166">
         <v>4</v>
       </c>
       <c r="AI5" s="54">
@@ -4051,7 +4800,7 @@
       <c r="AM5" s="9">
         <v>1</v>
       </c>
-      <c r="AN5" s="165">
+      <c r="AN5" s="166">
         <v>2</v>
       </c>
       <c r="AO5" s="54">
@@ -4078,11 +4827,11 @@
       <c r="AV5" s="9">
         <v>2</v>
       </c>
-      <c r="AW5" s="112">
+      <c r="AW5" s="113">
         <v>0</v>
       </c>
       <c r="AX5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY5" s="9">
         <v>6</v>
@@ -4127,21 +4876,21 @@
       <c r="F6" s="11"/>
       <c r="G6" s="6">
         <f>SUM(H6:BB6)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" s="44">
         <v>1</v>
       </c>
-      <c r="I6" s="170">
-        <v>0</v>
-      </c>
-      <c r="J6" s="170">
+      <c r="I6" s="171">
+        <v>0</v>
+      </c>
+      <c r="J6" s="171">
         <v>0</v>
       </c>
       <c r="K6" s="42">
         <v>1</v>
       </c>
-      <c r="L6" s="175">
+      <c r="L6" s="176">
         <v>0</v>
       </c>
       <c r="M6" s="42">
@@ -4252,11 +5001,11 @@
       <c r="AV6" s="42">
         <v>1</v>
       </c>
-      <c r="AW6" s="175">
+      <c r="AW6" s="176">
         <v>0</v>
       </c>
       <c r="AX6" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="42">
         <v>1</v>
@@ -4300,9 +5049,9 @@
       <c r="E7" s="11"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
       <c r="K7" s="59"/>
       <c r="L7" s="49"/>
       <c r="M7" s="59"/>
@@ -4355,7 +5104,7 @@
       <c r="AV7" s="56"/>
       <c r="AW7" s="70">
         <f>SUM(AW5:AX5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX7" s="84"/>
       <c r="AY7" s="55">
@@ -4401,7 +5150,7 @@
     </row>
     <row r="8" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -4409,19 +5158,19 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" ref="D8:D24" si="1">G8/$G$5*20+BC8*$BC$5</f>
-        <v>2.5165562913907285</v>
+        <v>4.7435897435897436</v>
       </c>
       <c r="E8" s="15">
         <f t="shared" ref="E8:E24" si="2">F8/$G$6*20+BC8*$BC$6</f>
-        <v>3.333333333333333</v>
+        <v>8.3720930232558146</v>
       </c>
       <c r="F8" s="8">
         <f>G65</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G8" s="8">
         <f>G39</f>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H8" s="59">
         <v>1</v>
@@ -4468,17 +5217,39 @@
       <c r="AF8" s="51">
         <v>1</v>
       </c>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="52"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="51"/>
+      <c r="AG8" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="52">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="51">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="51">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="51">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="51">
+        <v>1</v>
+      </c>
       <c r="AR8" s="59"/>
       <c r="AS8" s="59"/>
       <c r="AT8" s="59"/>
@@ -4487,9 +5258,7 @@
       <c r="AW8" s="49">
         <v>99</v>
       </c>
-      <c r="AX8" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX8" s="111"/>
       <c r="AY8" s="59"/>
       <c r="AZ8" s="59"/>
       <c r="BA8" s="59"/>
@@ -4505,7 +5274,7 @@
     </row>
     <row r="9" spans="1:61" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
@@ -4513,11 +5282,11 @@
       </c>
       <c r="D9" s="15">
         <f t="shared" ref="D9:D32" si="3">G9/$G$5*20+BC9*$BC$5</f>
-        <v>0.13245033112582782</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="E9" s="15">
         <f t="shared" ref="E9:E32" si="4">F9/$G$6*20+BC9*$BC$6</f>
-        <v>0.47619047619047616</v>
+        <v>0.46511627906976744</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9:F32" si="5">G66</f>
@@ -4579,9 +5348,7 @@
       <c r="AW9" s="49">
         <v>99</v>
       </c>
-      <c r="AX9" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX9" s="111"/>
       <c r="AY9" s="59"/>
       <c r="AZ9" s="59"/>
       <c r="BA9" s="59"/>
@@ -4597,7 +5364,7 @@
     </row>
     <row r="10" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="109"/>
       <c r="C10" s="109" t="s">
@@ -4605,19 +5372,19 @@
       </c>
       <c r="D10" s="15">
         <f t="shared" si="3"/>
-        <v>2.2185430463576159</v>
+        <v>3.8141025641025639</v>
       </c>
       <c r="E10" s="15">
         <f t="shared" si="4"/>
-        <v>2.7380952380952381</v>
+        <v>6.279069767441861</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="5"/>
-        <v>5.75</v>
+        <v>13.5</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="6"/>
-        <v>16.75</v>
+        <v>29.75</v>
       </c>
       <c r="H10" s="59">
         <v>1</v>
@@ -4664,17 +5431,39 @@
       <c r="AF10" s="51">
         <v>0</v>
       </c>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="52"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
+      <c r="AG10" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="AI10" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="AJ10" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="AP10" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="51">
+        <v>1</v>
+      </c>
       <c r="AR10" s="59"/>
       <c r="AS10" s="59"/>
       <c r="AT10" s="59"/>
@@ -4683,9 +5472,7 @@
       <c r="AW10" s="49">
         <v>99</v>
       </c>
-      <c r="AX10" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX10" s="111"/>
       <c r="AY10" s="59"/>
       <c r="AZ10" s="59"/>
       <c r="BA10" s="59"/>
@@ -4701,7 +5488,7 @@
     </row>
     <row r="11" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -4709,19 +5496,19 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" si="3"/>
-        <v>1.7218543046357615</v>
+        <v>3.7179487179487181</v>
       </c>
       <c r="E11" s="15">
         <f t="shared" si="4"/>
-        <v>2.3809523809523809</v>
+        <v>6.5116279069767451</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H11" s="59">
         <v>1</v>
@@ -4766,17 +5553,39 @@
       <c r="AF11" s="51">
         <v>0</v>
       </c>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="51"/>
-      <c r="AK11" s="51"/>
-      <c r="AL11" s="51"/>
-      <c r="AM11" s="59"/>
-      <c r="AN11" s="52"/>
-      <c r="AO11" s="51"/>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="51"/>
+      <c r="AG11" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="52">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="51">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="51">
+        <v>1</v>
+      </c>
       <c r="AR11" s="59"/>
       <c r="AS11" s="59"/>
       <c r="AT11" s="59"/>
@@ -4785,9 +5594,7 @@
       <c r="AW11" s="49">
         <v>99</v>
       </c>
-      <c r="AX11" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX11" s="111"/>
       <c r="AY11" s="59"/>
       <c r="AZ11" s="59"/>
       <c r="BA11" s="59"/>
@@ -4803,7 +5610,7 @@
     </row>
     <row r="12" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -4811,19 +5618,19 @@
       </c>
       <c r="D12" s="15">
         <f t="shared" si="3"/>
-        <v>1.7218543046357615</v>
+        <v>3.525641025641026</v>
       </c>
       <c r="E12" s="15">
         <f t="shared" si="4"/>
-        <v>2.3809523809523809</v>
+        <v>6.279069767441861</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>27.5</v>
       </c>
       <c r="H12" s="59">
         <v>1</v>
@@ -4868,17 +5675,39 @@
       <c r="AF12" s="51">
         <v>0</v>
       </c>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="52"/>
-      <c r="AO12" s="51"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
+      <c r="AG12" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="AH12" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="AI12" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="51">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="51">
+        <v>1</v>
+      </c>
       <c r="AR12" s="59"/>
       <c r="AS12" s="59"/>
       <c r="AT12" s="59"/>
@@ -4887,9 +5716,7 @@
       <c r="AW12" s="49">
         <v>99</v>
       </c>
-      <c r="AX12" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX12" s="111"/>
       <c r="AY12" s="59"/>
       <c r="AZ12" s="59"/>
       <c r="BA12" s="59"/>
@@ -4905,7 +5732,7 @@
     </row>
     <row r="13" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="109"/>
       <c r="C13" s="109" t="s">
@@ -4913,19 +5740,19 @@
       </c>
       <c r="D13" s="15">
         <f t="shared" si="3"/>
-        <v>1.1920529801324502</v>
+        <v>3.0128205128205128</v>
       </c>
       <c r="E13" s="15">
         <f t="shared" si="4"/>
-        <v>1.6666666666666665</v>
+        <v>5.5813953488372094</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>23.5</v>
       </c>
       <c r="H13" s="59">
         <v>0</v>
@@ -4970,17 +5797,39 @@
       <c r="AF13" s="51">
         <v>0</v>
       </c>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="52"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
+      <c r="AG13" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="AH13" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="AI13" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="51">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="51">
+        <v>1</v>
+      </c>
       <c r="AR13" s="59"/>
       <c r="AS13" s="59"/>
       <c r="AT13" s="59"/>
@@ -4989,9 +5838,7 @@
       <c r="AW13" s="49">
         <v>99</v>
       </c>
-      <c r="AX13" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX13" s="111"/>
       <c r="AY13" s="59"/>
       <c r="AZ13" s="59"/>
       <c r="BA13" s="59"/>
@@ -5007,7 +5854,7 @@
     </row>
     <row r="14" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -5015,19 +5862,19 @@
       </c>
       <c r="D14" s="15">
         <f t="shared" si="3"/>
-        <v>1.7218543046357615</v>
+        <v>3.5737179487179489</v>
       </c>
       <c r="E14" s="15">
         <f t="shared" si="4"/>
-        <v>2.3809523809523809</v>
+        <v>6.3372093023255811</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>13.625</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>27.875</v>
       </c>
       <c r="H14" s="59">
         <v>1</v>
@@ -5072,17 +5919,39 @@
       <c r="AF14" s="51">
         <v>0</v>
       </c>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="59"/>
-      <c r="AN14" s="52"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
+      <c r="AG14" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="AI14" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="51">
+        <v>0.875</v>
+      </c>
+      <c r="AK14" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="51">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="51">
+        <v>1</v>
+      </c>
       <c r="AR14" s="59"/>
       <c r="AS14" s="59"/>
       <c r="AT14" s="59"/>
@@ -5091,9 +5960,7 @@
       <c r="AW14" s="49">
         <v>99</v>
       </c>
-      <c r="AX14" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX14" s="111"/>
       <c r="AY14" s="59"/>
       <c r="AZ14" s="59"/>
       <c r="BA14" s="59"/>
@@ -5109,25 +5976,25 @@
     </row>
     <row r="15" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="15">
         <f t="shared" si="3"/>
-        <v>3.5099337748344372</v>
+        <v>5.1923076923076925</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="4"/>
-        <v>2.6190476190476191</v>
+        <v>6.279069767441861</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>13.5</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="6"/>
-        <v>26.5</v>
+        <v>40.5</v>
       </c>
       <c r="H15" s="59">
         <v>1</v>
@@ -5174,17 +6041,39 @@
       <c r="AF15" s="51">
         <v>0</v>
       </c>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="59"/>
-      <c r="AN15" s="52"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
+      <c r="AG15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="52">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="AJ15" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="AP15" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="51">
+        <v>1</v>
+      </c>
       <c r="AR15" s="59"/>
       <c r="AS15" s="59"/>
       <c r="AT15" s="59"/>
@@ -5193,9 +6082,7 @@
       <c r="AW15" s="49">
         <v>99</v>
       </c>
-      <c r="AX15" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX15" s="111"/>
       <c r="AY15" s="59"/>
       <c r="AZ15" s="59"/>
       <c r="BA15" s="59"/>
@@ -5211,25 +6098,25 @@
     </row>
     <row r="16" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="15">
         <f t="shared" si="3"/>
-        <v>1.7218543046357615</v>
+        <v>3.7179487179487181</v>
       </c>
       <c r="E16" s="15">
         <f t="shared" si="4"/>
-        <v>2.3809523809523809</v>
+        <v>6.5116279069767451</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H16" s="59">
         <v>1</v>
@@ -5274,17 +6161,39 @@
       <c r="AF16" s="51">
         <v>0</v>
       </c>
-      <c r="AG16" s="59"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="59"/>
-      <c r="AN16" s="52"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
+      <c r="AG16" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="52">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="51">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="51">
+        <v>1</v>
+      </c>
       <c r="AR16" s="59"/>
       <c r="AS16" s="59"/>
       <c r="AT16" s="59"/>
@@ -5293,9 +6202,7 @@
       <c r="AW16" s="49">
         <v>99</v>
       </c>
-      <c r="AX16" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX16" s="111"/>
       <c r="AY16" s="59"/>
       <c r="AZ16" s="59"/>
       <c r="BA16" s="59"/>
@@ -5311,25 +6218,25 @@
     </row>
     <row r="17" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="15">
         <f t="shared" si="3"/>
-        <v>1.5894039735099339</v>
+        <v>3.4615384615384617</v>
       </c>
       <c r="E17" s="15">
         <f t="shared" si="4"/>
-        <v>1.9047619047619047</v>
+        <v>5.9302325581395356</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>12.75</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H17" s="59">
         <v>0</v>
@@ -5374,17 +6281,39 @@
       <c r="AF17" s="51">
         <v>0</v>
       </c>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="59"/>
-      <c r="AN17" s="52"/>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="51"/>
+      <c r="AG17" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="AI17" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="51">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="51">
+        <v>1</v>
+      </c>
       <c r="AR17" s="59"/>
       <c r="AS17" s="59"/>
       <c r="AT17" s="59"/>
@@ -5393,9 +6322,7 @@
       <c r="AW17" s="49">
         <v>99</v>
       </c>
-      <c r="AX17" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX17" s="111"/>
       <c r="AY17" s="59"/>
       <c r="AZ17" s="59"/>
       <c r="BA17" s="59"/>
@@ -5411,25 +6338,25 @@
     </row>
     <row r="18" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="15">
         <f t="shared" si="3"/>
-        <v>3.6423841059602644</v>
+        <v>5.448717948717948</v>
       </c>
       <c r="E18" s="15">
         <f t="shared" si="4"/>
-        <v>3.0952380952380953</v>
+        <v>7.0930232558139537</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>15.25</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="6"/>
-        <v>27.5</v>
+        <v>42.5</v>
       </c>
       <c r="H18" s="59">
         <v>1</v>
@@ -5476,17 +6403,39 @@
       <c r="AF18" s="51">
         <v>1</v>
       </c>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="52"/>
-      <c r="AO18" s="51"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="51"/>
+      <c r="AG18" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="AI18" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="51">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="51">
+        <v>1</v>
+      </c>
       <c r="AR18" s="59"/>
       <c r="AS18" s="59"/>
       <c r="AT18" s="59"/>
@@ -5495,9 +6444,7 @@
       <c r="AW18" s="49">
         <v>99</v>
       </c>
-      <c r="AX18" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX18" s="111"/>
       <c r="AY18" s="59"/>
       <c r="AZ18" s="59"/>
       <c r="BA18" s="59"/>
@@ -5513,17 +6460,17 @@
     </row>
     <row r="19" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="15">
         <f t="shared" si="3"/>
-        <v>2.1192052980132452</v>
+        <v>2.0512820512820511</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="4"/>
-        <v>4.2857142857142856</v>
+        <v>4.1860465116279073</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="5"/>
@@ -5608,10 +6555,10 @@
       <c r="AF19" s="51">
         <v>0</v>
       </c>
-      <c r="AG19" s="59">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="52">
+      <c r="AG19" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="51">
         <v>0.125</v>
       </c>
       <c r="AI19" s="51">
@@ -5659,9 +6606,7 @@
       <c r="AW19" s="49">
         <v>99</v>
       </c>
-      <c r="AX19" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX19" s="111"/>
       <c r="AY19" s="59">
         <v>0</v>
       </c>
@@ -5695,25 +6640,25 @@
     </row>
     <row r="20" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="15">
         <f t="shared" si="3"/>
-        <v>1.0927152317880795</v>
+        <v>2.3076923076923079</v>
       </c>
       <c r="E20" s="15">
         <f t="shared" si="4"/>
-        <v>1.7261904761904763</v>
+        <v>4.5930232558139537</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="5"/>
-        <v>3.625</v>
+        <v>9.875</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="6"/>
-        <v>8.25</v>
+        <v>18</v>
       </c>
       <c r="H20" s="59">
         <v>1</v>
@@ -5758,17 +6703,39 @@
       <c r="AF20" s="51">
         <v>0</v>
       </c>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="51"/>
-      <c r="AL20" s="51"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="52"/>
-      <c r="AO20" s="51"/>
-      <c r="AP20" s="51"/>
-      <c r="AQ20" s="51"/>
+      <c r="AG20" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="AH20" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="AI20" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="AJ20" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="AK20" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="AP20" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="51">
+        <v>1</v>
+      </c>
       <c r="AR20" s="59"/>
       <c r="AS20" s="59"/>
       <c r="AT20" s="59"/>
@@ -5777,9 +6744,7 @@
       <c r="AW20" s="49">
         <v>99</v>
       </c>
-      <c r="AX20" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX20" s="111"/>
       <c r="AY20" s="59"/>
       <c r="AZ20" s="59"/>
       <c r="BA20" s="59"/>
@@ -5795,25 +6760,25 @@
     </row>
     <row r="21" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="15">
         <f t="shared" si="3"/>
-        <v>1.3907284768211921</v>
+        <v>3.3974358974358978</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="4"/>
-        <v>1.7857142857142858</v>
+        <v>5.9302325581395356</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="5"/>
-        <v>3.75</v>
+        <v>12.75</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="6"/>
-        <v>10.5</v>
+        <v>26.5</v>
       </c>
       <c r="H21" s="59">
         <v>0</v>
@@ -5858,17 +6823,39 @@
       <c r="AF21" s="51">
         <v>0</v>
       </c>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="51"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="52"/>
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="51"/>
-      <c r="AQ21" s="51"/>
+      <c r="AG21" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="52">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="51">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="51">
+        <v>1</v>
+      </c>
       <c r="AR21" s="59"/>
       <c r="AS21" s="59"/>
       <c r="AT21" s="59"/>
@@ -5877,9 +6864,7 @@
       <c r="AW21" s="49">
         <v>99</v>
       </c>
-      <c r="AX21" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX21" s="111"/>
       <c r="AY21" s="59"/>
       <c r="AZ21" s="59"/>
       <c r="BA21" s="59"/>
@@ -5895,25 +6880,25 @@
     </row>
     <row r="22" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="15">
         <f t="shared" si="3"/>
-        <v>1.5231788079470199</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="4"/>
-        <v>2.2619047619047619</v>
+        <v>5.8139534883720936</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="5"/>
-        <v>4.75</v>
+        <v>12.5</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="6"/>
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="H22" s="59">
         <v>1</v>
@@ -5958,17 +6943,39 @@
       <c r="AF22" s="51">
         <v>0</v>
       </c>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="52"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
+      <c r="AG22" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="AH22" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="AI22" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="AJ22" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="AP22" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="51">
+        <v>1</v>
+      </c>
       <c r="AR22" s="59"/>
       <c r="AS22" s="59"/>
       <c r="AT22" s="59"/>
@@ -5977,9 +6984,7 @@
       <c r="AW22" s="49">
         <v>99</v>
       </c>
-      <c r="AX22" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX22" s="111"/>
       <c r="AY22" s="59"/>
       <c r="AZ22" s="59"/>
       <c r="BA22" s="59"/>
@@ -5995,25 +7000,25 @@
     </row>
     <row r="23" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="15">
         <f t="shared" si="3"/>
-        <v>1.3245033112582782</v>
+        <v>2.516025641025641</v>
       </c>
       <c r="E23" s="15">
         <f t="shared" si="4"/>
-        <v>2.1428571428571428</v>
+        <v>5.1744186046511631</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>11.125</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>19.625</v>
       </c>
       <c r="H23" s="59">
         <v>1</v>
@@ -6058,17 +7063,39 @@
       <c r="AF23" s="51">
         <v>0</v>
       </c>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="51"/>
-      <c r="AL23" s="51"/>
-      <c r="AM23" s="59"/>
-      <c r="AN23" s="52"/>
-      <c r="AO23" s="51"/>
-      <c r="AP23" s="51"/>
-      <c r="AQ23" s="51"/>
+      <c r="AG23" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="52">
+        <v>0.125</v>
+      </c>
+      <c r="AI23" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="AJ23" s="51">
+        <v>0.875</v>
+      </c>
+      <c r="AK23" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="52">
+        <v>0.125</v>
+      </c>
+      <c r="AO23" s="51">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="51">
+        <v>1</v>
+      </c>
       <c r="AR23" s="59"/>
       <c r="AS23" s="59"/>
       <c r="AT23" s="59"/>
@@ -6077,9 +7104,7 @@
       <c r="AW23" s="49">
         <v>99</v>
       </c>
-      <c r="AX23" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX23" s="111"/>
       <c r="AY23" s="59"/>
       <c r="AZ23" s="59"/>
       <c r="BA23" s="59"/>
@@ -6095,25 +7120,25 @@
     </row>
     <row r="24" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="15">
         <f t="shared" si="3"/>
-        <v>0.79470198675496695</v>
+        <v>1.7307692307692308</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" si="4"/>
-        <v>1.5476190476190477</v>
+        <v>3.9534883720930232</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" si="5"/>
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>13.5</v>
       </c>
       <c r="H24" s="59">
         <v>1</v>
@@ -6158,17 +7183,39 @@
       <c r="AF24" s="51">
         <v>0</v>
       </c>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="52"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="51"/>
-      <c r="AL24" s="51"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="52"/>
-      <c r="AO24" s="51"/>
-      <c r="AP24" s="51"/>
-      <c r="AQ24" s="51"/>
+      <c r="AG24" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="AH24" s="52">
+        <v>0.125</v>
+      </c>
+      <c r="AI24" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="AJ24" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="AK24" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="52">
+        <v>0.125</v>
+      </c>
+      <c r="AO24" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="AP24" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="51">
+        <v>1</v>
+      </c>
       <c r="AR24" s="59"/>
       <c r="AS24" s="59"/>
       <c r="AT24" s="59"/>
@@ -6177,9 +7224,7 @@
       <c r="AW24" s="49">
         <v>99</v>
       </c>
-      <c r="AX24" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX24" s="111"/>
       <c r="AY24" s="59"/>
       <c r="AZ24" s="59"/>
       <c r="BA24" s="59"/>
@@ -6195,25 +7240,25 @@
     </row>
     <row r="25" spans="1:60" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="15">
         <f t="shared" si="3"/>
-        <v>1.3907284768211921</v>
+        <v>2.8515384615384614</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="4"/>
-        <v>1.7857142857142858</v>
+        <v>5.1734883720930238</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="5"/>
-        <v>3.75</v>
+        <v>11.123000000000001</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="6"/>
-        <v>10.5</v>
+        <v>22.242000000000001</v>
       </c>
       <c r="H25" s="59">
         <v>0</v>
@@ -6258,17 +7303,39 @@
       <c r="AF25" s="51">
         <v>0</v>
       </c>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="51"/>
-      <c r="AL25" s="51"/>
-      <c r="AM25" s="59"/>
-      <c r="AN25" s="52"/>
-      <c r="AO25" s="51"/>
-      <c r="AP25" s="51"/>
-      <c r="AQ25" s="51"/>
+      <c r="AG25" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="52">
+        <v>0.123</v>
+      </c>
+      <c r="AI25" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="AK25" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="51">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="51">
+        <v>1</v>
+      </c>
       <c r="AR25" s="59"/>
       <c r="AS25" s="59"/>
       <c r="AT25" s="59"/>
@@ -6277,9 +7344,7 @@
       <c r="AW25" s="49">
         <v>99</v>
       </c>
-      <c r="AX25" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX25" s="111"/>
       <c r="AY25" s="59"/>
       <c r="AZ25" s="59"/>
       <c r="BA25" s="59"/>
@@ -6295,25 +7360,25 @@
     </row>
     <row r="26" spans="1:60" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="15">
         <f t="shared" si="3"/>
-        <v>1.7218543046357615</v>
+        <v>3.2692307692307692</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="4"/>
-        <v>2.3809523809523809</v>
+        <v>5.5813953488372094</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>25.5</v>
       </c>
       <c r="H26" s="59">
         <v>1</v>
@@ -6358,17 +7423,39 @@
       <c r="AF26" s="51">
         <v>0</v>
       </c>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="52"/>
-      <c r="AO26" s="51"/>
-      <c r="AP26" s="51"/>
-      <c r="AQ26" s="51"/>
+      <c r="AG26" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="AH26" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="AI26" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="AJ26" s="51">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="AP26" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="51">
+        <v>1</v>
+      </c>
       <c r="AR26" s="59"/>
       <c r="AS26" s="59"/>
       <c r="AT26" s="59"/>
@@ -6377,9 +7464,7 @@
       <c r="AW26" s="49">
         <v>99</v>
       </c>
-      <c r="AX26" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX26" s="111"/>
       <c r="AY26" s="59"/>
       <c r="AZ26" s="59"/>
       <c r="BA26" s="59"/>
@@ -6395,25 +7480,25 @@
     </row>
     <row r="27" spans="1:60" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="15">
         <f t="shared" si="3"/>
-        <v>1.5231788079470199</v>
+        <v>3.525641025641026</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="4"/>
-        <v>2.2619047619047619</v>
+        <v>6.395348837209303</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" si="5"/>
-        <v>4.75</v>
+        <v>13.75</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="6"/>
-        <v>11.5</v>
+        <v>27.5</v>
       </c>
       <c r="H27" s="59">
         <v>1</v>
@@ -6458,17 +7543,39 @@
       <c r="AF27" s="51">
         <v>0</v>
       </c>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="52"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
-      <c r="AK27" s="51"/>
-      <c r="AL27" s="51"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="52"/>
-      <c r="AO27" s="51"/>
-      <c r="AP27" s="51"/>
-      <c r="AQ27" s="51"/>
+      <c r="AG27" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="52">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="51">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="51">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="51">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="51">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="51">
+        <v>1</v>
+      </c>
       <c r="AR27" s="59"/>
       <c r="AS27" s="59"/>
       <c r="AT27" s="59"/>
@@ -6477,9 +7584,7 @@
       <c r="AW27" s="49">
         <v>99</v>
       </c>
-      <c r="AX27" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX27" s="111"/>
       <c r="AY27" s="59"/>
       <c r="AZ27" s="59"/>
       <c r="BA27" s="59"/>
@@ -6563,9 +7668,7 @@
       <c r="AW28" s="49">
         <v>99</v>
       </c>
-      <c r="AX28" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX28" s="111"/>
       <c r="AY28" s="59"/>
       <c r="AZ28" s="59"/>
       <c r="BA28" s="59"/>
@@ -6649,9 +7752,7 @@
       <c r="AW29" s="49">
         <v>99</v>
       </c>
-      <c r="AX29" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX29" s="111"/>
       <c r="AY29" s="59"/>
       <c r="AZ29" s="59"/>
       <c r="BA29" s="59"/>
@@ -6735,9 +7836,7 @@
       <c r="AW30" s="49">
         <v>99</v>
       </c>
-      <c r="AX30" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX30" s="111"/>
       <c r="AY30" s="59"/>
       <c r="AZ30" s="59"/>
       <c r="BA30" s="59"/>
@@ -6821,9 +7920,7 @@
       <c r="AW31" s="49">
         <v>99</v>
       </c>
-      <c r="AX31" s="49">
-        <v>99</v>
-      </c>
+      <c r="AX31" s="111"/>
       <c r="AY31" s="59"/>
       <c r="AZ31" s="59"/>
       <c r="BA31" s="59"/>
@@ -6843,19 +7940,19 @@
       <c r="C32" s="5"/>
       <c r="D32" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>63.46153846153846</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>46.04651162790698</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="H32" s="59"/>
       <c r="I32" s="49">
@@ -6935,11 +8032,11 @@
         <f>AVERAGE(H8:H24)</f>
         <v>0.82352941176470584</v>
       </c>
-      <c r="I33" s="171">
+      <c r="I33" s="172">
         <f>AVERAGE(I8:I24)</f>
         <v>99</v>
       </c>
-      <c r="J33" s="171">
+      <c r="J33" s="172">
         <f>AVERAGE(J8:J24)</f>
         <v>99</v>
       </c>
@@ -6947,7 +8044,7 @@
         <f>AVERAGE(K8:K24)</f>
         <v>0.125</v>
       </c>
-      <c r="L33" s="171">
+      <c r="L33" s="172">
         <f>AVERAGE(L8:L24)</f>
         <v>99</v>
       </c>
@@ -7032,48 +8129,48 @@
         <v>0.10526315789473684</v>
       </c>
       <c r="AG33" s="58">
-        <f>AVERAGE(AG8:AG24)</f>
-        <v>1</v>
+        <f>AVERAGE(AG8:AG25)</f>
+        <v>0.92647058823529416</v>
       </c>
       <c r="AH33" s="58">
-        <f>AVERAGE(AH8:AH24)</f>
-        <v>0.125</v>
+        <f>AVERAGE(AH8:AH25)</f>
+        <v>0.63223529411764701</v>
       </c>
       <c r="AI33" s="58">
-        <f>AVERAGE(AI8:AI24)</f>
-        <v>0.125</v>
+        <f>AVERAGE(AI8:AI25)</f>
+        <v>0.78676470588235292</v>
       </c>
       <c r="AJ33" s="58">
-        <f>AVERAGE(AJ8:AJ24)</f>
-        <v>0</v>
+        <f>AVERAGE(AJ8:AJ27)</f>
+        <v>0.76315789473684215</v>
       </c>
       <c r="AK33" s="58">
-        <f>AVERAGE(AK8:AK24)</f>
-        <v>0</v>
+        <f>AVERAGE(AK8:AK27)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="AL33" s="58">
-        <f>AVERAGE(AL8:AL24)</f>
-        <v>0</v>
+        <f>AVERAGE(AL8:AL27)</f>
+        <v>0.94736842105263153</v>
       </c>
       <c r="AM33" s="58">
-        <f>AVERAGE(AM8:AM24)</f>
+        <f>AVERAGE(AM8:AM27)</f>
         <v>1</v>
       </c>
       <c r="AN33" s="58">
-        <f>AVERAGE(AN8:AN24)</f>
-        <v>0.125</v>
+        <f>AVERAGE(AN8:AN27)</f>
+        <v>0.86184210526315785</v>
       </c>
       <c r="AO33" s="58">
-        <f>AVERAGE(AO8:AO24)</f>
-        <v>0.125</v>
+        <f>AVERAGE(AO8:AO25)</f>
+        <v>0.81617647058823528</v>
       </c>
       <c r="AP33" s="58">
-        <f>AVERAGE(AP8:AP24)</f>
-        <v>0</v>
+        <f>AVERAGE(AP8:AP27)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="AQ33" s="58">
-        <f>AVERAGE(AQ8:AQ24)</f>
-        <v>0</v>
+        <f>AVERAGE(AQ8:AQ27)</f>
+        <v>0.94736842105263153</v>
       </c>
       <c r="AR33" s="58">
         <f>AVERAGE(AR8:AR24)</f>
@@ -7095,13 +8192,13 @@
         <f>AVERAGE(AV8:AV24)</f>
         <v>1</v>
       </c>
-      <c r="AW33" s="171">
+      <c r="AW33" s="172">
         <f>AVERAGE(AW8:AW24)</f>
         <v>99</v>
       </c>
-      <c r="AX33" s="58">
+      <c r="AX33" s="58" t="e">
         <f>AVERAGE(AX8:AX24)</f>
-        <v>99</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AY33" s="58">
         <f>AVERAGE(AY8:AY24)</f>
@@ -7156,10 +8253,10 @@
       <c r="E34" s="12"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
-      <c r="L34" s="171"/>
-      <c r="AW34" s="171"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
+      <c r="L34" s="172"/>
+      <c r="AW34" s="172"/>
     </row>
     <row r="35" spans="1:61" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
@@ -7168,10 +8265,10 @@
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="2"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
-      <c r="L35" s="171"/>
-      <c r="AW35" s="171"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
+      <c r="L35" s="172"/>
+      <c r="AW35" s="172"/>
     </row>
     <row r="36" spans="1:61" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -7180,18 +8277,18 @@
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="2"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
-      <c r="L36" s="171"/>
-      <c r="AW36" s="171"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
+      <c r="L36" s="172"/>
+      <c r="AW36" s="172"/>
     </row>
     <row r="37" spans="1:61" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
-      <c r="L37" s="171"/>
-      <c r="AW37" s="171"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
+      <c r="L37" s="172"/>
+      <c r="AW37" s="172"/>
     </row>
     <row r="38" spans="1:61" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -7201,25 +8298,25 @@
       <c r="E38" s="12"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
-      <c r="L38" s="171"/>
-      <c r="AW38" s="171"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
+      <c r="L38" s="172"/>
+      <c r="AW38" s="172"/>
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G39" s="2">
         <f>+SUM(H39:BI39)</f>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H39" s="58">
         <f>H8*H$5</f>
         <v>1</v>
       </c>
-      <c r="I39" s="171">
+      <c r="I39" s="172">
         <f>I8*I$5</f>
         <v>0</v>
       </c>
-      <c r="J39" s="171">
+      <c r="J39" s="172">
         <f>J8*J$5</f>
         <v>0</v>
       </c>
@@ -7227,7 +8324,7 @@
         <f>K8*K$5</f>
         <v>0</v>
       </c>
-      <c r="L39" s="171">
+      <c r="L39" s="172">
         <f>L8*L$5</f>
         <v>0</v>
       </c>
@@ -7313,47 +8410,47 @@
       </c>
       <c r="AG39" s="58">
         <f>AG8*AG$5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH39" s="58">
         <f>AH8*AH$5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI39" s="58">
         <f>AI8*AI$5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ39" s="58">
         <f>AJ8*AJ$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39" s="58">
         <f>AK8*AK$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="58">
         <f>AL8*AL$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39" s="58">
         <f>AM8*AM$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN39" s="58">
         <f>AN8*AN$5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO39" s="58">
         <f>AO8*AO$5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP39" s="58">
         <f>AP8*AP$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ39" s="58">
         <f>AQ8*AQ$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR39" s="58">
         <f>AR8*AR$5</f>
@@ -7375,7 +8472,7 @@
         <f>AV8*AV$5</f>
         <v>0</v>
       </c>
-      <c r="AW39" s="171">
+      <c r="AW39" s="172">
         <f>AW8*AW$5</f>
         <v>0</v>
       </c>
@@ -7437,11 +8534,11 @@
         <f t="shared" ref="H40:BI40" si="8">H9*H$5</f>
         <v>1</v>
       </c>
-      <c r="I40" s="171">
+      <c r="I40" s="172">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J40" s="171">
+      <c r="J40" s="172">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -7449,7 +8546,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L40" s="171">
+      <c r="L40" s="172">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -7597,7 +8694,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AW40" s="171">
+      <c r="AW40" s="172">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -7653,17 +8750,17 @@
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G41" s="58">
         <f t="shared" si="7"/>
-        <v>16.75</v>
+        <v>29.75</v>
       </c>
       <c r="H41" s="58">
         <f t="shared" ref="H41:BI41" si="9">H10*H$5</f>
         <v>1</v>
       </c>
-      <c r="I41" s="171">
+      <c r="I41" s="172">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J41" s="171">
+      <c r="J41" s="172">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -7671,7 +8768,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L41" s="171">
+      <c r="L41" s="172">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -7757,19 +8854,19 @@
       </c>
       <c r="AG41" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH41" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI41" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ41" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK41" s="58">
         <f t="shared" si="9"/>
@@ -7777,19 +8874,19 @@
       </c>
       <c r="AL41" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN41" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO41" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41" s="58">
         <f t="shared" si="9"/>
@@ -7797,7 +8894,7 @@
       </c>
       <c r="AQ41" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR41" s="58">
         <f t="shared" si="9"/>
@@ -7819,7 +8916,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AW41" s="171">
+      <c r="AW41" s="172">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -7875,17 +8972,17 @@
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G42" s="58">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H42" s="58">
         <f t="shared" ref="H42:BI42" si="10">H11*H$5</f>
         <v>1</v>
       </c>
-      <c r="I42" s="171">
+      <c r="I42" s="172">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J42" s="171">
+      <c r="J42" s="172">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7893,7 +8990,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L42" s="171">
+      <c r="L42" s="172">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7979,19 +9076,19 @@
       </c>
       <c r="AG42" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH42" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI42" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ42" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="58">
         <f t="shared" si="10"/>
@@ -7999,19 +9096,19 @@
       </c>
       <c r="AL42" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM42" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN42" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO42" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP42" s="58">
         <f t="shared" si="10"/>
@@ -8019,7 +9116,7 @@
       </c>
       <c r="AQ42" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR42" s="58">
         <f t="shared" si="10"/>
@@ -8041,7 +9138,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW42" s="171">
+      <c r="AW42" s="172">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8097,17 +9194,17 @@
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G43" s="58">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>27.5</v>
       </c>
       <c r="H43" s="58">
         <f t="shared" ref="H43:BI43" si="11">H12*H$5</f>
         <v>1</v>
       </c>
-      <c r="I43" s="171">
+      <c r="I43" s="172">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J43" s="171">
+      <c r="J43" s="172">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -8115,7 +9212,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L43" s="171">
+      <c r="L43" s="172">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -8201,19 +9298,19 @@
       </c>
       <c r="AG43" s="58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH43" s="58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI43" s="58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ43" s="58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="58">
         <f t="shared" si="11"/>
@@ -8221,19 +9318,19 @@
       </c>
       <c r="AL43" s="58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM43" s="58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN43" s="58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO43" s="58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP43" s="58">
         <f t="shared" si="11"/>
@@ -8241,7 +9338,7 @@
       </c>
       <c r="AQ43" s="58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR43" s="58">
         <f t="shared" si="11"/>
@@ -8263,7 +9360,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AW43" s="171">
+      <c r="AW43" s="172">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -8325,17 +9422,17 @@
       <c r="F44" s="2"/>
       <c r="G44" s="58">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>23.5</v>
       </c>
       <c r="H44" s="58">
         <f t="shared" ref="H44:BI44" si="12">H13*H$5</f>
         <v>0</v>
       </c>
-      <c r="I44" s="171">
+      <c r="I44" s="172">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J44" s="171">
+      <c r="J44" s="172">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -8343,7 +9440,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L44" s="171">
+      <c r="L44" s="172">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -8429,19 +9526,19 @@
       </c>
       <c r="AG44" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH44" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI44" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ44" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK44" s="58">
         <f t="shared" si="12"/>
@@ -8449,19 +9546,19 @@
       </c>
       <c r="AL44" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM44" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN44" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO44" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP44" s="58">
         <f t="shared" si="12"/>
@@ -8469,7 +9566,7 @@
       </c>
       <c r="AQ44" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR44" s="58">
         <f t="shared" si="12"/>
@@ -8491,7 +9588,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AW44" s="171">
+      <c r="AW44" s="172">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -8547,17 +9644,17 @@
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G45" s="58">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>27.875</v>
       </c>
       <c r="H45" s="58">
         <f t="shared" ref="H45:BI45" si="13">H14*H$5</f>
         <v>1</v>
       </c>
-      <c r="I45" s="171">
+      <c r="I45" s="172">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J45" s="171">
+      <c r="J45" s="172">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -8565,7 +9662,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L45" s="171">
+      <c r="L45" s="172">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -8651,19 +9748,19 @@
       </c>
       <c r="AG45" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH45" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI45" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ45" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AK45" s="58">
         <f t="shared" si="13"/>
@@ -8671,19 +9768,19 @@
       </c>
       <c r="AL45" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM45" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN45" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO45" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP45" s="58">
         <f t="shared" si="13"/>
@@ -8691,7 +9788,7 @@
       </c>
       <c r="AQ45" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR45" s="58">
         <f t="shared" si="13"/>
@@ -8713,7 +9810,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AW45" s="171">
+      <c r="AW45" s="172">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -8769,17 +9866,17 @@
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G46" s="58">
         <f t="shared" si="7"/>
-        <v>26.5</v>
+        <v>40.5</v>
       </c>
       <c r="H46" s="58">
         <f t="shared" ref="H46:BI46" si="14">H15*H$5</f>
         <v>1</v>
       </c>
-      <c r="I46" s="171">
+      <c r="I46" s="172">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J46" s="171">
+      <c r="J46" s="172">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -8787,7 +9884,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L46" s="171">
+      <c r="L46" s="172">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -8873,19 +9970,19 @@
       </c>
       <c r="AG46" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH46" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI46" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK46" s="58">
         <f t="shared" si="14"/>
@@ -8893,19 +9990,19 @@
       </c>
       <c r="AL46" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM46" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN46" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO46" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP46" s="58">
         <f t="shared" si="14"/>
@@ -8913,7 +10010,7 @@
       </c>
       <c r="AQ46" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR46" s="58">
         <f t="shared" si="14"/>
@@ -8935,7 +10032,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW46" s="171">
+      <c r="AW46" s="172">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -8991,17 +10088,17 @@
     <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G47" s="58">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H47" s="58">
         <f t="shared" ref="H47:BI47" si="15">H16*H$5</f>
         <v>1</v>
       </c>
-      <c r="I47" s="171">
+      <c r="I47" s="172">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J47" s="171">
+      <c r="J47" s="172">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -9009,7 +10106,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L47" s="171">
+      <c r="L47" s="172">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -9095,19 +10192,19 @@
       </c>
       <c r="AG47" s="58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH47" s="58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI47" s="58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ47" s="58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK47" s="58">
         <f t="shared" si="15"/>
@@ -9115,19 +10212,19 @@
       </c>
       <c r="AL47" s="58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47" s="58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN47" s="58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO47" s="58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP47" s="58">
         <f t="shared" si="15"/>
@@ -9135,7 +10232,7 @@
       </c>
       <c r="AQ47" s="58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR47" s="58">
         <f t="shared" si="15"/>
@@ -9157,7 +10254,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AW47" s="171">
+      <c r="AW47" s="172">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -9213,17 +10310,17 @@
     <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G48" s="58">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H48" s="58">
         <f t="shared" ref="H48:BI48" si="16">H17*H$5</f>
         <v>0</v>
       </c>
-      <c r="I48" s="171">
+      <c r="I48" s="172">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J48" s="171">
+      <c r="J48" s="172">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -9231,7 +10328,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L48" s="171">
+      <c r="L48" s="172">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -9317,19 +10414,19 @@
       </c>
       <c r="AG48" s="58">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH48" s="58">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI48" s="58">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ48" s="58">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK48" s="58">
         <f t="shared" si="16"/>
@@ -9337,19 +10434,19 @@
       </c>
       <c r="AL48" s="58">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM48" s="58">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN48" s="58">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO48" s="58">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP48" s="58">
         <f t="shared" si="16"/>
@@ -9357,7 +10454,7 @@
       </c>
       <c r="AQ48" s="58">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR48" s="58">
         <f t="shared" si="16"/>
@@ -9379,7 +10476,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AW48" s="171">
+      <c r="AW48" s="172">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -9435,17 +10532,17 @@
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G49" s="58">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>42.5</v>
       </c>
       <c r="H49" s="58">
         <f t="shared" ref="H49:BI49" si="17">H18*H$5</f>
         <v>1</v>
       </c>
-      <c r="I49" s="171">
+      <c r="I49" s="172">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J49" s="171">
+      <c r="J49" s="172">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -9453,7 +10550,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L49" s="171">
+      <c r="L49" s="172">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -9539,19 +10636,19 @@
       </c>
       <c r="AG49" s="58">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH49" s="58">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI49" s="58">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ49" s="58">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK49" s="58">
         <f t="shared" si="17"/>
@@ -9559,19 +10656,19 @@
       </c>
       <c r="AL49" s="58">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM49" s="58">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN49" s="58">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO49" s="58">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP49" s="58">
         <f t="shared" si="17"/>
@@ -9579,7 +10676,7 @@
       </c>
       <c r="AQ49" s="58">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR49" s="58">
         <f t="shared" si="17"/>
@@ -9601,7 +10698,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AW49" s="171">
+      <c r="AW49" s="172">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -9663,11 +10760,11 @@
         <f t="shared" ref="H50:BI50" si="18">H19*H$5</f>
         <v>1</v>
       </c>
-      <c r="I50" s="171">
+      <c r="I50" s="172">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J50" s="171">
+      <c r="J50" s="172">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -9675,7 +10772,7 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="L50" s="171">
+      <c r="L50" s="172">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -9823,7 +10920,7 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="AW50" s="171">
+      <c r="AW50" s="172">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -9883,17 +10980,17 @@
       <c r="F51" s="46"/>
       <c r="G51" s="58">
         <f t="shared" si="7"/>
-        <v>8.25</v>
+        <v>18</v>
       </c>
       <c r="H51" s="58">
         <f t="shared" ref="H51:BI51" si="19">H20*H$5</f>
         <v>1</v>
       </c>
-      <c r="I51" s="171">
+      <c r="I51" s="172">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J51" s="171">
+      <c r="J51" s="172">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -9901,7 +10998,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L51" s="171">
+      <c r="L51" s="172">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -9987,19 +11084,19 @@
       </c>
       <c r="AG51" s="58">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH51" s="58">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51" s="58">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ51" s="58">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AK51" s="58">
         <f t="shared" si="19"/>
@@ -10007,19 +11104,19 @@
       </c>
       <c r="AL51" s="58">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51" s="58">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN51" s="58">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO51" s="58">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP51" s="58">
         <f t="shared" si="19"/>
@@ -10027,7 +11124,7 @@
       </c>
       <c r="AQ51" s="58">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR51" s="58">
         <f t="shared" si="19"/>
@@ -10049,7 +11146,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW51" s="171">
+      <c r="AW51" s="172">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -10109,17 +11206,17 @@
       <c r="F52" s="46"/>
       <c r="G52" s="58">
         <f t="shared" si="7"/>
-        <v>10.5</v>
+        <v>26.5</v>
       </c>
       <c r="H52" s="58">
         <f t="shared" ref="H52:BI52" si="20">H21*H$5</f>
         <v>0</v>
       </c>
-      <c r="I52" s="171">
+      <c r="I52" s="172">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J52" s="171">
+      <c r="J52" s="172">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -10127,7 +11224,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L52" s="171">
+      <c r="L52" s="172">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -10213,19 +11310,19 @@
       </c>
       <c r="AG52" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH52" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI52" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ52" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK52" s="58">
         <f t="shared" si="20"/>
@@ -10233,19 +11330,19 @@
       </c>
       <c r="AL52" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM52" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN52" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO52" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP52" s="58">
         <f t="shared" si="20"/>
@@ -10253,7 +11350,7 @@
       </c>
       <c r="AQ52" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR52" s="58">
         <f t="shared" si="20"/>
@@ -10275,7 +11372,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AW52" s="171">
+      <c r="AW52" s="172">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -10335,17 +11432,17 @@
       <c r="F53" s="46"/>
       <c r="G53" s="58">
         <f t="shared" si="7"/>
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="H53" s="58">
         <f t="shared" ref="H53:BI53" si="21">H22*H$5</f>
         <v>1</v>
       </c>
-      <c r="I53" s="171">
+      <c r="I53" s="172">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="J53" s="171">
+      <c r="J53" s="172">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -10353,7 +11450,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="L53" s="171">
+      <c r="L53" s="172">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -10439,19 +11536,19 @@
       </c>
       <c r="AG53" s="58">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH53" s="58">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI53" s="58">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AJ53" s="58">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK53" s="58">
         <f t="shared" si="21"/>
@@ -10459,19 +11556,19 @@
       </c>
       <c r="AL53" s="58">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM53" s="58">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN53" s="58">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO53" s="58">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP53" s="58">
         <f t="shared" si="21"/>
@@ -10479,7 +11576,7 @@
       </c>
       <c r="AQ53" s="58">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR53" s="58">
         <f t="shared" si="21"/>
@@ -10501,7 +11598,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AW53" s="171">
+      <c r="AW53" s="172">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -10561,17 +11658,17 @@
       <c r="F54" s="58"/>
       <c r="G54" s="58">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>19.625</v>
       </c>
       <c r="H54" s="58">
         <f t="shared" ref="H54:BI54" si="22">H23*H$5</f>
         <v>1</v>
       </c>
-      <c r="I54" s="171">
+      <c r="I54" s="172">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J54" s="171">
+      <c r="J54" s="172">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -10579,7 +11676,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="L54" s="171">
+      <c r="L54" s="172">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -10665,19 +11762,19 @@
       </c>
       <c r="AG54" s="58">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH54" s="58">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI54" s="58">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ54" s="58">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AK54" s="58">
         <f t="shared" si="22"/>
@@ -10685,19 +11782,19 @@
       </c>
       <c r="AL54" s="58">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM54" s="58">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN54" s="58">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO54" s="58">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP54" s="58">
         <f t="shared" si="22"/>
@@ -10705,7 +11802,7 @@
       </c>
       <c r="AQ54" s="58">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR54" s="58">
         <f t="shared" si="22"/>
@@ -10727,7 +11824,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AW54" s="171">
+      <c r="AW54" s="172">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -10787,17 +11884,17 @@
       <c r="F55" s="58"/>
       <c r="G55" s="58">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>13.5</v>
       </c>
       <c r="H55" s="58">
         <f t="shared" ref="H55:BI55" si="23">H24*H$5</f>
         <v>1</v>
       </c>
-      <c r="I55" s="171">
+      <c r="I55" s="172">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J55" s="171">
+      <c r="J55" s="172">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -10805,7 +11902,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L55" s="171">
+      <c r="L55" s="172">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -10891,19 +11988,19 @@
       </c>
       <c r="AG55" s="58">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH55" s="58">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI55" s="58">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ55" s="58">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AK55" s="58">
         <f t="shared" si="23"/>
@@ -10911,19 +12008,19 @@
       </c>
       <c r="AL55" s="58">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM55" s="58">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN55" s="58">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO55" s="58">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP55" s="58">
         <f t="shared" si="23"/>
@@ -10931,7 +12028,7 @@
       </c>
       <c r="AQ55" s="58">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55" s="58">
         <f t="shared" si="23"/>
@@ -10953,7 +12050,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AW55" s="171">
+      <c r="AW55" s="172">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -11013,17 +12110,17 @@
       <c r="F56" s="58"/>
       <c r="G56" s="58">
         <f t="shared" si="7"/>
-        <v>10.5</v>
+        <v>22.242000000000001</v>
       </c>
       <c r="H56" s="58">
         <f t="shared" ref="H56:BI56" si="24">H25*H$5</f>
         <v>0</v>
       </c>
-      <c r="I56" s="171">
+      <c r="I56" s="172">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J56" s="171">
+      <c r="J56" s="172">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -11031,7 +12128,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L56" s="171">
+      <c r="L56" s="172">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -11117,19 +12214,19 @@
       </c>
       <c r="AG56" s="58">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH56" s="58">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="AI56" s="58">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ56" s="58">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AK56" s="58">
         <f t="shared" si="24"/>
@@ -11137,19 +12234,19 @@
       </c>
       <c r="AL56" s="58">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM56" s="58">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN56" s="58">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO56" s="58">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP56" s="58">
         <f t="shared" si="24"/>
@@ -11157,7 +12254,7 @@
       </c>
       <c r="AQ56" s="58">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR56" s="58">
         <f t="shared" si="24"/>
@@ -11179,7 +12276,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AW56" s="171">
+      <c r="AW56" s="172">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -11237,17 +12334,17 @@
       <c r="E57" s="12"/>
       <c r="G57" s="58">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>25.5</v>
       </c>
       <c r="H57" s="58">
         <f t="shared" ref="H57:BI57" si="25">H26*H$5</f>
         <v>1</v>
       </c>
-      <c r="I57" s="171">
+      <c r="I57" s="172">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J57" s="171">
+      <c r="J57" s="172">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
@@ -11255,7 +12352,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L57" s="171">
+      <c r="L57" s="172">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
@@ -11341,15 +12438,15 @@
       </c>
       <c r="AG57" s="58">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH57" s="58">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI57" s="58">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AJ57" s="58">
         <f t="shared" si="25"/>
@@ -11361,19 +12458,19 @@
       </c>
       <c r="AL57" s="58">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM57" s="58">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN57" s="58">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO57" s="58">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP57" s="58">
         <f t="shared" si="25"/>
@@ -11381,7 +12478,7 @@
       </c>
       <c r="AQ57" s="58">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR57" s="58">
         <f t="shared" si="25"/>
@@ -11403,7 +12500,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW57" s="171">
+      <c r="AW57" s="172">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
@@ -11461,17 +12558,17 @@
       <c r="E58" s="12"/>
       <c r="G58" s="58">
         <f t="shared" si="7"/>
-        <v>11.5</v>
+        <v>27.5</v>
       </c>
       <c r="H58" s="58">
         <f t="shared" ref="H58:BI58" si="26">H27*H$5</f>
         <v>1</v>
       </c>
-      <c r="I58" s="171">
+      <c r="I58" s="172">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="J58" s="171">
+      <c r="J58" s="172">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
@@ -11479,7 +12576,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="L58" s="171">
+      <c r="L58" s="172">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
@@ -11565,19 +12662,19 @@
       </c>
       <c r="AG58" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH58" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI58" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ58" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK58" s="58">
         <f t="shared" si="26"/>
@@ -11585,19 +12682,19 @@
       </c>
       <c r="AL58" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM58" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN58" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO58" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP58" s="58">
         <f t="shared" si="26"/>
@@ -11605,7 +12702,7 @@
       </c>
       <c r="AQ58" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR58" s="58">
         <f t="shared" si="26"/>
@@ -11627,7 +12724,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AW58" s="171">
+      <c r="AW58" s="172">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
@@ -11691,11 +12788,11 @@
         <f t="shared" ref="H59:BI59" si="27">H28*H$5</f>
         <v>0</v>
       </c>
-      <c r="I59" s="171">
+      <c r="I59" s="172">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J59" s="171">
+      <c r="J59" s="172">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -11703,7 +12800,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="L59" s="171">
+      <c r="L59" s="172">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -11851,7 +12948,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AW59" s="171">
+      <c r="AW59" s="172">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -11915,11 +13012,11 @@
         <f t="shared" ref="H60:BI60" si="28">H29*H$5</f>
         <v>0</v>
       </c>
-      <c r="I60" s="171">
+      <c r="I60" s="172">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="J60" s="171">
+      <c r="J60" s="172">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -11927,7 +13024,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="L60" s="171">
+      <c r="L60" s="172">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -12075,7 +13172,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AW60" s="171">
+      <c r="AW60" s="172">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -12141,11 +13238,11 @@
         <f t="shared" ref="H61:BI61" si="29">H30*H$5</f>
         <v>0</v>
       </c>
-      <c r="I61" s="171">
+      <c r="I61" s="172">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J61" s="171">
+      <c r="J61" s="172">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12153,7 +13250,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="L61" s="171">
+      <c r="L61" s="172">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12301,7 +13398,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AW61" s="171">
+      <c r="AW61" s="172">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12369,11 +13466,11 @@
         <f t="shared" ref="H62:BI62" si="30">H31*H$5</f>
         <v>0</v>
       </c>
-      <c r="I62" s="171">
+      <c r="I62" s="172">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="J62" s="171">
+      <c r="J62" s="172">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
@@ -12381,7 +13478,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="L62" s="171">
+      <c r="L62" s="172">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
@@ -12529,7 +13626,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AW62" s="171">
+      <c r="AW62" s="172">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
@@ -12587,17 +13684,17 @@
       <c r="E63" s="12"/>
       <c r="G63" s="58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="H63" s="58">
         <f t="shared" ref="H63:BI63" si="31">H32*H$5</f>
         <v>0</v>
       </c>
-      <c r="I63" s="171">
+      <c r="I63" s="172">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J63" s="171">
+      <c r="J63" s="172">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
@@ -12605,7 +13702,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L63" s="171">
+      <c r="L63" s="172">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
@@ -12753,13 +13850,13 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AW63" s="171">
+      <c r="AW63" s="172">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AX63" s="58">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="AY63" s="58">
         <f t="shared" si="31"/>
@@ -12811,10 +13908,10 @@
       <c r="E64" s="12"/>
       <c r="G64" s="58"/>
       <c r="H64" s="58"/>
-      <c r="I64" s="171"/>
-      <c r="J64" s="171"/>
+      <c r="I64" s="172"/>
+      <c r="J64" s="172"/>
       <c r="K64" s="58"/>
-      <c r="L64" s="171"/>
+      <c r="L64" s="172"/>
       <c r="M64" s="58"/>
       <c r="N64" s="58"/>
       <c r="O64" s="58"/>
@@ -12851,7 +13948,7 @@
       <c r="AT64" s="58"/>
       <c r="AU64" s="58"/>
       <c r="AV64" s="58"/>
-      <c r="AW64" s="171"/>
+      <c r="AW64" s="172"/>
       <c r="AX64" s="58"/>
       <c r="AY64" s="58"/>
       <c r="AZ64" s="58"/>
@@ -12874,17 +13971,17 @@
       <c r="F65" s="46"/>
       <c r="G65" s="58">
         <f t="shared" ref="G65" si="32">+SUM(H65:BI65)</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H65" s="58">
         <f>H8*H$6</f>
         <v>1</v>
       </c>
-      <c r="I65" s="171">
+      <c r="I65" s="172">
         <f>I8*I$6</f>
         <v>0</v>
       </c>
-      <c r="J65" s="171">
+      <c r="J65" s="172">
         <f>J8*J$6</f>
         <v>0</v>
       </c>
@@ -12892,7 +13989,7 @@
         <f>K8*K$6</f>
         <v>0</v>
       </c>
-      <c r="L65" s="171">
+      <c r="L65" s="172">
         <f>L8*L$6</f>
         <v>0</v>
       </c>
@@ -12978,47 +14075,47 @@
       </c>
       <c r="AG65" s="58">
         <f>AG8*AG$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH65" s="58">
         <f>AH8*AH$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI65" s="58">
         <f>AI8*AI$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ65" s="58">
         <f>AJ8*AJ$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK65" s="58">
         <f>AK8*AK$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="58">
         <f>AL8*AL$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM65" s="58">
         <f>AM8*AM$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN65" s="58">
         <f>AN8*AN$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO65" s="58">
         <f>AO8*AO$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP65" s="58">
         <f>AP8*AP$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ65" s="58">
         <f>AQ8*AQ$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR65" s="58">
         <f>AR8*AR$6</f>
@@ -13040,7 +14137,7 @@
         <f>AV8*AV$6</f>
         <v>0</v>
       </c>
-      <c r="AW65" s="171">
+      <c r="AW65" s="172">
         <f>AW8*AW$6</f>
         <v>0</v>
       </c>
@@ -13108,11 +14205,11 @@
         <f t="shared" ref="H66:BI66" si="34">H9*H$6</f>
         <v>1</v>
       </c>
-      <c r="I66" s="171">
+      <c r="I66" s="172">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="J66" s="171">
+      <c r="J66" s="172">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13120,7 +14217,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="L66" s="171">
+      <c r="L66" s="172">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13268,7 +14365,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AW66" s="171">
+      <c r="AW66" s="172">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13330,17 +14427,17 @@
       <c r="F67" s="2"/>
       <c r="G67" s="58">
         <f t="shared" si="33"/>
-        <v>5.75</v>
+        <v>13.5</v>
       </c>
       <c r="H67" s="58">
         <f t="shared" ref="H67:BI67" si="35">H10*H$6</f>
         <v>1</v>
       </c>
-      <c r="I67" s="171">
+      <c r="I67" s="172">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J67" s="171">
+      <c r="J67" s="172">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -13348,7 +14445,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="L67" s="171">
+      <c r="L67" s="172">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -13434,19 +14531,19 @@
       </c>
       <c r="AG67" s="58">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH67" s="58">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AI67" s="58">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ67" s="58">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK67" s="58">
         <f t="shared" si="35"/>
@@ -13454,19 +14551,19 @@
       </c>
       <c r="AL67" s="58">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM67" s="58">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN67" s="58">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO67" s="58">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP67" s="58">
         <f t="shared" si="35"/>
@@ -13474,7 +14571,7 @@
       </c>
       <c r="AQ67" s="58">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR67" s="58">
         <f t="shared" si="35"/>
@@ -13496,7 +14593,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AW67" s="171">
+      <c r="AW67" s="172">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -13558,17 +14655,17 @@
       <c r="F68" s="2"/>
       <c r="G68" s="58">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H68" s="58">
         <f t="shared" ref="H68:BI68" si="36">H11*H$6</f>
         <v>1</v>
       </c>
-      <c r="I68" s="171">
+      <c r="I68" s="172">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J68" s="171">
+      <c r="J68" s="172">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13576,7 +14673,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="L68" s="171">
+      <c r="L68" s="172">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13662,19 +14759,19 @@
       </c>
       <c r="AG68" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH68" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI68" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ68" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK68" s="58">
         <f t="shared" si="36"/>
@@ -13682,19 +14779,19 @@
       </c>
       <c r="AL68" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM68" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN68" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO68" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP68" s="58">
         <f t="shared" si="36"/>
@@ -13702,7 +14799,7 @@
       </c>
       <c r="AQ68" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR68" s="58">
         <f t="shared" si="36"/>
@@ -13724,7 +14821,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AW68" s="171">
+      <c r="AW68" s="172">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13782,17 +14879,17 @@
       <c r="E69" s="12"/>
       <c r="G69" s="58">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="H69" s="58">
         <f t="shared" ref="H69:BI69" si="37">H12*H$6</f>
         <v>1</v>
       </c>
-      <c r="I69" s="171">
+      <c r="I69" s="172">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="J69" s="171">
+      <c r="J69" s="172">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -13800,7 +14897,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="L69" s="171">
+      <c r="L69" s="172">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -13886,19 +14983,19 @@
       </c>
       <c r="AG69" s="58">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AH69" s="58">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AI69" s="58">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ69" s="58">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK69" s="58">
         <f t="shared" si="37"/>
@@ -13906,19 +15003,19 @@
       </c>
       <c r="AL69" s="58">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM69" s="58">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN69" s="58">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO69" s="58">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP69" s="58">
         <f t="shared" si="37"/>
@@ -13926,7 +15023,7 @@
       </c>
       <c r="AQ69" s="58">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR69" s="58">
         <f t="shared" si="37"/>
@@ -13948,7 +15045,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AW69" s="171">
+      <c r="AW69" s="172">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -14010,17 +15107,17 @@
       <c r="F70" s="2"/>
       <c r="G70" s="58">
         <f t="shared" si="33"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="H70" s="58">
         <f t="shared" ref="H70:BI70" si="38">H13*H$6</f>
         <v>0</v>
       </c>
-      <c r="I70" s="171">
+      <c r="I70" s="172">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J70" s="171">
+      <c r="J70" s="172">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
@@ -14028,7 +15125,7 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="L70" s="171">
+      <c r="L70" s="172">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
@@ -14114,19 +15211,19 @@
       </c>
       <c r="AG70" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AH70" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AI70" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ70" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK70" s="58">
         <f t="shared" si="38"/>
@@ -14134,19 +15231,19 @@
       </c>
       <c r="AL70" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM70" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN70" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO70" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP70" s="58">
         <f t="shared" si="38"/>
@@ -14154,7 +15251,7 @@
       </c>
       <c r="AQ70" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR70" s="58">
         <f t="shared" si="38"/>
@@ -14176,7 +15273,7 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AW70" s="171">
+      <c r="AW70" s="172">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
@@ -14238,17 +15335,17 @@
       <c r="F71" s="2"/>
       <c r="G71" s="58">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>13.625</v>
       </c>
       <c r="H71" s="58">
         <f t="shared" ref="H71:BI71" si="39">H14*H$6</f>
         <v>1</v>
       </c>
-      <c r="I71" s="171">
+      <c r="I71" s="172">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J71" s="171">
+      <c r="J71" s="172">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14256,7 +15353,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L71" s="171">
+      <c r="L71" s="172">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14342,19 +15439,19 @@
       </c>
       <c r="AG71" s="58">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH71" s="58">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AI71" s="58">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ71" s="58">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AK71" s="58">
         <f t="shared" si="39"/>
@@ -14362,19 +15459,19 @@
       </c>
       <c r="AL71" s="58">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM71" s="58">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN71" s="58">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO71" s="58">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP71" s="58">
         <f t="shared" si="39"/>
@@ -14382,7 +15479,7 @@
       </c>
       <c r="AQ71" s="58">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR71" s="58">
         <f t="shared" si="39"/>
@@ -14404,7 +15501,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AW71" s="171">
+      <c r="AW71" s="172">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14466,17 +15563,17 @@
       <c r="F72" s="2"/>
       <c r="G72" s="58">
         <f t="shared" si="33"/>
-        <v>5.5</v>
+        <v>13.5</v>
       </c>
       <c r="H72" s="58">
         <f t="shared" ref="H72:BI72" si="40">H15*H$6</f>
         <v>1</v>
       </c>
-      <c r="I72" s="171">
+      <c r="I72" s="172">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="J72" s="171">
+      <c r="J72" s="172">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14484,7 +15581,7 @@
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="L72" s="171">
+      <c r="L72" s="172">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14570,19 +15667,19 @@
       </c>
       <c r="AG72" s="58">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH72" s="58">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI72" s="58">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ72" s="58">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK72" s="58">
         <f t="shared" si="40"/>
@@ -14590,19 +15687,19 @@
       </c>
       <c r="AL72" s="58">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM72" s="58">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN72" s="58">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO72" s="58">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP72" s="58">
         <f t="shared" si="40"/>
@@ -14610,7 +15707,7 @@
       </c>
       <c r="AQ72" s="58">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR72" s="58">
         <f t="shared" si="40"/>
@@ -14632,7 +15729,7 @@
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AW72" s="171">
+      <c r="AW72" s="172">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14688,17 +15785,17 @@
     <row r="73" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G73" s="58">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H73" s="58">
         <f t="shared" ref="H73:BI73" si="41">H16*H$6</f>
         <v>1</v>
       </c>
-      <c r="I73" s="171">
+      <c r="I73" s="172">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J73" s="171">
+      <c r="J73" s="172">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -14706,7 +15803,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="L73" s="171">
+      <c r="L73" s="172">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -14792,19 +15889,19 @@
       </c>
       <c r="AG73" s="58">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH73" s="58">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI73" s="58">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ73" s="58">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK73" s="58">
         <f t="shared" si="41"/>
@@ -14812,19 +15909,19 @@
       </c>
       <c r="AL73" s="58">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM73" s="58">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN73" s="58">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO73" s="58">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP73" s="58">
         <f t="shared" si="41"/>
@@ -14832,7 +15929,7 @@
       </c>
       <c r="AQ73" s="58">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR73" s="58">
         <f t="shared" si="41"/>
@@ -14854,7 +15951,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AW73" s="171">
+      <c r="AW73" s="172">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -14910,17 +16007,17 @@
     <row r="74" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G74" s="58">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>12.75</v>
       </c>
       <c r="H74" s="58">
         <f t="shared" ref="H74:BI74" si="42">H17*H$6</f>
         <v>0</v>
       </c>
-      <c r="I74" s="171">
+      <c r="I74" s="172">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="J74" s="171">
+      <c r="J74" s="172">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
@@ -14928,7 +16025,7 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="L74" s="171">
+      <c r="L74" s="172">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
@@ -15014,19 +16111,19 @@
       </c>
       <c r="AG74" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH74" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AI74" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ74" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK74" s="58">
         <f t="shared" si="42"/>
@@ -15034,19 +16131,19 @@
       </c>
       <c r="AL74" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM74" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN74" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO74" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP74" s="58">
         <f t="shared" si="42"/>
@@ -15054,7 +16151,7 @@
       </c>
       <c r="AQ74" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR74" s="58">
         <f t="shared" si="42"/>
@@ -15076,7 +16173,7 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AW74" s="171">
+      <c r="AW74" s="172">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
@@ -15132,17 +16229,17 @@
     <row r="75" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G75" s="58">
         <f t="shared" si="33"/>
-        <v>6.5</v>
+        <v>15.25</v>
       </c>
       <c r="H75" s="58">
         <f t="shared" ref="H75:BI75" si="43">H18*H$6</f>
         <v>1</v>
       </c>
-      <c r="I75" s="171">
+      <c r="I75" s="172">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J75" s="171">
+      <c r="J75" s="172">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -15150,7 +16247,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="L75" s="171">
+      <c r="L75" s="172">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -15236,19 +16333,19 @@
       </c>
       <c r="AG75" s="58">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH75" s="58">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AI75" s="58">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ75" s="58">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK75" s="58">
         <f t="shared" si="43"/>
@@ -15256,19 +16353,19 @@
       </c>
       <c r="AL75" s="58">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM75" s="58">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN75" s="58">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO75" s="58">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP75" s="58">
         <f t="shared" si="43"/>
@@ -15276,7 +16373,7 @@
       </c>
       <c r="AQ75" s="58">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR75" s="58">
         <f t="shared" si="43"/>
@@ -15298,7 +16395,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AW75" s="171">
+      <c r="AW75" s="172">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -15366,11 +16463,11 @@
         <f t="shared" ref="H76:BI76" si="44">H19*H$6</f>
         <v>1</v>
       </c>
-      <c r="I76" s="171">
+      <c r="I76" s="172">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="J76" s="171">
+      <c r="J76" s="172">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -15378,7 +16475,7 @@
         <f t="shared" si="44"/>
         <v>0.125</v>
       </c>
-      <c r="L76" s="171">
+      <c r="L76" s="172">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -15526,7 +16623,7 @@
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="AW76" s="171">
+      <c r="AW76" s="172">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -15582,17 +16679,17 @@
     <row r="77" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G77" s="58">
         <f t="shared" si="33"/>
-        <v>3.625</v>
+        <v>9.875</v>
       </c>
       <c r="H77" s="58">
         <f t="shared" ref="H77:BI77" si="45">H20*H$6</f>
         <v>1</v>
       </c>
-      <c r="I77" s="171">
+      <c r="I77" s="172">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="J77" s="171">
+      <c r="J77" s="172">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15600,7 +16697,7 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="L77" s="171">
+      <c r="L77" s="172">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15686,19 +16783,19 @@
       </c>
       <c r="AG77" s="58">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AH77" s="58">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AI77" s="58">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ77" s="58">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AK77" s="58">
         <f t="shared" si="45"/>
@@ -15706,19 +16803,19 @@
       </c>
       <c r="AL77" s="58">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM77" s="58">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN77" s="58">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO77" s="58">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP77" s="58">
         <f t="shared" si="45"/>
@@ -15726,7 +16823,7 @@
       </c>
       <c r="AQ77" s="58">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR77" s="58">
         <f t="shared" si="45"/>
@@ -15748,7 +16845,7 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AW77" s="171">
+      <c r="AW77" s="172">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15804,17 +16901,17 @@
     <row r="78" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G78" s="58">
         <f t="shared" si="33"/>
-        <v>3.75</v>
+        <v>12.75</v>
       </c>
       <c r="H78" s="58">
         <f t="shared" ref="H78:BI78" si="46">H21*H$6</f>
         <v>0</v>
       </c>
-      <c r="I78" s="171">
+      <c r="I78" s="172">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="J78" s="171">
+      <c r="J78" s="172">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -15822,7 +16919,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="L78" s="171">
+      <c r="L78" s="172">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -15908,19 +17005,19 @@
       </c>
       <c r="AG78" s="58">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH78" s="58">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI78" s="58">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ78" s="58">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK78" s="58">
         <f t="shared" si="46"/>
@@ -15928,19 +17025,19 @@
       </c>
       <c r="AL78" s="58">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM78" s="58">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN78" s="58">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO78" s="58">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP78" s="58">
         <f t="shared" si="46"/>
@@ -15948,7 +17045,7 @@
       </c>
       <c r="AQ78" s="58">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR78" s="58">
         <f t="shared" si="46"/>
@@ -15970,7 +17067,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AW78" s="171">
+      <c r="AW78" s="172">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16026,17 +17123,17 @@
     <row r="79" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G79" s="58">
         <f t="shared" si="33"/>
-        <v>4.75</v>
+        <v>12.5</v>
       </c>
       <c r="H79" s="58">
         <f t="shared" ref="H79:BI79" si="47">H22*H$6</f>
         <v>1</v>
       </c>
-      <c r="I79" s="171">
+      <c r="I79" s="172">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="J79" s="171">
+      <c r="J79" s="172">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
@@ -16044,7 +17141,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L79" s="171">
+      <c r="L79" s="172">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
@@ -16130,19 +17227,19 @@
       </c>
       <c r="AG79" s="58">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AH79" s="58">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI79" s="58">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AJ79" s="58">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK79" s="58">
         <f t="shared" si="47"/>
@@ -16150,19 +17247,19 @@
       </c>
       <c r="AL79" s="58">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM79" s="58">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN79" s="58">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO79" s="58">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP79" s="58">
         <f t="shared" si="47"/>
@@ -16170,7 +17267,7 @@
       </c>
       <c r="AQ79" s="58">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR79" s="58">
         <f t="shared" si="47"/>
@@ -16192,7 +17289,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AW79" s="171">
+      <c r="AW79" s="172">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
@@ -16248,17 +17345,17 @@
     <row r="80" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G80" s="58">
         <f t="shared" si="33"/>
-        <v>4.5</v>
+        <v>11.125</v>
       </c>
       <c r="H80" s="58">
         <f t="shared" ref="H80:BI80" si="48">H23*H$6</f>
         <v>1</v>
       </c>
-      <c r="I80" s="171">
+      <c r="I80" s="172">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="J80" s="171">
+      <c r="J80" s="172">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -16266,7 +17363,7 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="L80" s="171">
+      <c r="L80" s="172">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -16352,19 +17449,19 @@
       </c>
       <c r="AG80" s="58">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH80" s="58">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AI80" s="58">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ80" s="58">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AK80" s="58">
         <f t="shared" si="48"/>
@@ -16372,19 +17469,19 @@
       </c>
       <c r="AL80" s="58">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM80" s="58">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN80" s="58">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AO80" s="58">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP80" s="58">
         <f t="shared" si="48"/>
@@ -16392,7 +17489,7 @@
       </c>
       <c r="AQ80" s="58">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR80" s="58">
         <f t="shared" si="48"/>
@@ -16414,7 +17511,7 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AW80" s="171">
+      <c r="AW80" s="172">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -16470,17 +17567,17 @@
     <row r="81" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G81" s="58">
         <f t="shared" si="33"/>
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="H81" s="58">
         <f t="shared" ref="H81:BI81" si="49">H24*H$6</f>
         <v>1</v>
       </c>
-      <c r="I81" s="171">
+      <c r="I81" s="172">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J81" s="171">
+      <c r="J81" s="172">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
@@ -16488,7 +17585,7 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="L81" s="171">
+      <c r="L81" s="172">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
@@ -16574,19 +17671,19 @@
       </c>
       <c r="AG81" s="58">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AH81" s="58">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AI81" s="58">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ81" s="58">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AK81" s="58">
         <f t="shared" si="49"/>
@@ -16594,19 +17691,19 @@
       </c>
       <c r="AL81" s="58">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM81" s="58">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN81" s="58">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AO81" s="58">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP81" s="58">
         <f t="shared" si="49"/>
@@ -16614,7 +17711,7 @@
       </c>
       <c r="AQ81" s="58">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR81" s="58">
         <f t="shared" si="49"/>
@@ -16636,7 +17733,7 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AW81" s="171">
+      <c r="AW81" s="172">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
@@ -16692,17 +17789,17 @@
     <row r="82" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G82" s="58">
         <f t="shared" si="33"/>
-        <v>3.75</v>
+        <v>11.123000000000001</v>
       </c>
       <c r="H82" s="58">
         <f t="shared" ref="H82:BI82" si="50">H25*H$6</f>
         <v>0</v>
       </c>
-      <c r="I82" s="171">
+      <c r="I82" s="172">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="J82" s="171">
+      <c r="J82" s="172">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -16710,7 +17807,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="L82" s="171">
+      <c r="L82" s="172">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -16796,19 +17893,19 @@
       </c>
       <c r="AG82" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH82" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="AI82" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ82" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AK82" s="58">
         <f t="shared" si="50"/>
@@ -16816,19 +17913,19 @@
       </c>
       <c r="AL82" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM82" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN82" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO82" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP82" s="58">
         <f t="shared" si="50"/>
@@ -16836,7 +17933,7 @@
       </c>
       <c r="AQ82" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR82" s="58">
         <f t="shared" si="50"/>
@@ -16858,7 +17955,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AW82" s="171">
+      <c r="AW82" s="172">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -16914,17 +18011,17 @@
     <row r="83" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G83" s="58">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H83" s="58">
         <f t="shared" ref="H83:BI83" si="51">H26*H$6</f>
         <v>1</v>
       </c>
-      <c r="I83" s="171">
+      <c r="I83" s="172">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="J83" s="171">
+      <c r="J83" s="172">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -16932,7 +18029,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="L83" s="171">
+      <c r="L83" s="172">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -17018,15 +18115,15 @@
       </c>
       <c r="AG83" s="58">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AH83" s="58">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AI83" s="58">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AJ83" s="58">
         <f t="shared" si="51"/>
@@ -17038,19 +18135,19 @@
       </c>
       <c r="AL83" s="58">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM83" s="58">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN83" s="58">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO83" s="58">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP83" s="58">
         <f t="shared" si="51"/>
@@ -17058,7 +18155,7 @@
       </c>
       <c r="AQ83" s="58">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR83" s="58">
         <f t="shared" si="51"/>
@@ -17080,7 +18177,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="AW83" s="171">
+      <c r="AW83" s="172">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -17136,17 +18233,17 @@
     <row r="84" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G84" s="58">
         <f t="shared" si="33"/>
-        <v>4.75</v>
+        <v>13.75</v>
       </c>
       <c r="H84" s="58">
         <f t="shared" ref="H84:BI84" si="52">H27*H$6</f>
         <v>1</v>
       </c>
-      <c r="I84" s="171">
+      <c r="I84" s="172">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="J84" s="171">
+      <c r="J84" s="172">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
@@ -17154,7 +18251,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="L84" s="171">
+      <c r="L84" s="172">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
@@ -17240,19 +18337,19 @@
       </c>
       <c r="AG84" s="58">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH84" s="58">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI84" s="58">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ84" s="58">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK84" s="58">
         <f t="shared" si="52"/>
@@ -17260,19 +18357,19 @@
       </c>
       <c r="AL84" s="58">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM84" s="58">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN84" s="58">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO84" s="58">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP84" s="58">
         <f t="shared" si="52"/>
@@ -17280,7 +18377,7 @@
       </c>
       <c r="AQ84" s="58">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR84" s="58">
         <f t="shared" si="52"/>
@@ -17302,7 +18399,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="AW84" s="171">
+      <c r="AW84" s="172">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
@@ -17364,11 +18461,11 @@
         <f t="shared" ref="H85:BI85" si="53">H28*H$6</f>
         <v>0</v>
       </c>
-      <c r="I85" s="171">
+      <c r="I85" s="172">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="J85" s="171">
+      <c r="J85" s="172">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -17376,7 +18473,7 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="L85" s="171">
+      <c r="L85" s="172">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -17524,7 +18621,7 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="AW85" s="171">
+      <c r="AW85" s="172">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
@@ -17590,11 +18687,11 @@
         <f t="shared" ref="H86:BI86" si="54">H29*H$6</f>
         <v>0</v>
       </c>
-      <c r="I86" s="171">
+      <c r="I86" s="172">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="J86" s="171">
+      <c r="J86" s="172">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
@@ -17602,7 +18699,7 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="L86" s="171">
+      <c r="L86" s="172">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
@@ -17750,7 +18847,7 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AW86" s="171">
+      <c r="AW86" s="172">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
@@ -17816,11 +18913,11 @@
         <f t="shared" ref="H87:BI87" si="55">H30*H$6</f>
         <v>0</v>
       </c>
-      <c r="I87" s="171">
+      <c r="I87" s="172">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="J87" s="171">
+      <c r="J87" s="172">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
@@ -17828,7 +18925,7 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="L87" s="171">
+      <c r="L87" s="172">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
@@ -17976,7 +19073,7 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AW87" s="171">
+      <c r="AW87" s="172">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
@@ -18042,11 +19139,11 @@
         <f t="shared" ref="H88:BI88" si="56">H31*H$6</f>
         <v>0</v>
       </c>
-      <c r="I88" s="171">
+      <c r="I88" s="172">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="J88" s="171">
+      <c r="J88" s="172">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
@@ -18054,7 +19151,7 @@
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="L88" s="171">
+      <c r="L88" s="172">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
@@ -18202,7 +19299,7 @@
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AW88" s="171">
+      <c r="AW88" s="172">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
@@ -18262,17 +19359,17 @@
       <c r="F89" s="58"/>
       <c r="G89" s="58">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="H89" s="58">
         <f t="shared" ref="H89:BI89" si="57">H32*H$6</f>
         <v>0</v>
       </c>
-      <c r="I89" s="171">
+      <c r="I89" s="172">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="J89" s="171">
+      <c r="J89" s="172">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
@@ -18280,7 +19377,7 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="L89" s="171">
+      <c r="L89" s="172">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
@@ -18428,13 +19525,13 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="AW89" s="171">
+      <c r="AW89" s="172">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AX89" s="58">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY89" s="58">
         <f t="shared" si="57"/>
@@ -18501,10 +19598,10 @@
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="2"/>
-      <c r="I93" s="171"/>
-      <c r="J93" s="171"/>
-      <c r="L93" s="171"/>
-      <c r="AW93" s="171"/>
+      <c r="I93" s="172"/>
+      <c r="J93" s="172"/>
+      <c r="L93" s="172"/>
+      <c r="AW93" s="172"/>
     </row>
     <row r="94" spans="1:61" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
@@ -18513,10 +19610,10 @@
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="2"/>
-      <c r="I94" s="171"/>
-      <c r="J94" s="171"/>
-      <c r="L94" s="171"/>
-      <c r="AW94" s="171"/>
+      <c r="I94" s="172"/>
+      <c r="J94" s="172"/>
+      <c r="L94" s="172"/>
+      <c r="AW94" s="172"/>
     </row>
     <row r="95" spans="1:61" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
@@ -18526,10 +19623,10 @@
       <c r="E95" s="12"/>
       <c r="F95" s="2"/>
       <c r="G95" s="46"/>
-      <c r="I95" s="171"/>
-      <c r="J95" s="171"/>
-      <c r="L95" s="171"/>
-      <c r="AW95" s="171"/>
+      <c r="I95" s="172"/>
+      <c r="J95" s="172"/>
+      <c r="L95" s="172"/>
+      <c r="AW95" s="172"/>
     </row>
     <row r="96" spans="1:61" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
@@ -18539,10 +19636,10 @@
       <c r="E96" s="12"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="I96" s="171"/>
-      <c r="J96" s="171"/>
-      <c r="L96" s="171"/>
-      <c r="AW96" s="171"/>
+      <c r="I96" s="172"/>
+      <c r="J96" s="172"/>
+      <c r="L96" s="172"/>
+      <c r="AW96" s="172"/>
     </row>
     <row r="97" spans="1:49" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
@@ -18552,10 +19649,10 @@
       <c r="E97" s="12"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="I97" s="171"/>
-      <c r="J97" s="171"/>
-      <c r="L97" s="171"/>
-      <c r="AW97" s="171"/>
+      <c r="I97" s="172"/>
+      <c r="J97" s="172"/>
+      <c r="L97" s="172"/>
+      <c r="AW97" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -18623,7 +19720,7 @@
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK8:AQ32 I8:V32 AB8:AI32 AW8:AZ32 BG8:BI32">
+  <conditionalFormatting sqref="I8:V32 AW8:AZ32 BG8:BI32 AB8:AI32 AK8:AQ32">
     <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -18872,6 +19969,7 @@
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18923,14 +20021,14 @@
     <row r="1" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="20"/>
       <c r="C1" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="87"/>
       <c r="F1" s="86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="96"/>
       <c r="H1" s="96"/>
@@ -18963,7 +20061,7 @@
       <c r="AI1" s="97"/>
       <c r="AJ1" s="98"/>
       <c r="AK1" s="93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL1" s="94"/>
       <c r="AM1" s="94"/>
@@ -18972,7 +20070,7 @@
       <c r="AP1" s="94"/>
       <c r="AQ1" s="95"/>
       <c r="AR1" s="86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AS1" s="87"/>
     </row>
@@ -19007,7 +20105,7 @@
       <c r="AA2" s="106"/>
       <c r="AB2" s="106"/>
       <c r="AC2" s="103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD2" s="107"/>
       <c r="AE2" s="103" t="s">
@@ -19015,7 +20113,7 @@
       </c>
       <c r="AF2" s="107"/>
       <c r="AG2" s="103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH2" s="104"/>
       <c r="AI2" s="107"/>
@@ -19023,7 +20121,7 @@
         <v>7</v>
       </c>
       <c r="AK2" s="103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL2" s="104"/>
       <c r="AM2" s="107"/>
@@ -19032,10 +20130,10 @@
       <c r="AP2" s="23"/>
       <c r="AQ2" s="35"/>
       <c r="AR2" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS2" s="101" t="s">
         <v>51</v>
-      </c>
-      <c r="AS2" s="101" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
@@ -19047,10 +20145,10 @@
         <v>17</v>
       </c>
       <c r="E3" s="89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="96"/>
       <c r="H3" s="96"/>
@@ -19058,22 +20156,22 @@
       <c r="J3" s="96"/>
       <c r="K3" s="87"/>
       <c r="L3" s="86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="96"/>
       <c r="N3" s="96"/>
       <c r="O3" s="87"/>
       <c r="P3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="23" t="s">
-        <v>31</v>
-      </c>
       <c r="R3" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S3" s="103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T3" s="104"/>
       <c r="U3" s="104"/>
@@ -19081,25 +20179,25 @@
       <c r="W3" s="104"/>
       <c r="X3" s="107"/>
       <c r="Y3" s="103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z3" s="104"/>
       <c r="AA3" s="104"/>
       <c r="AB3" s="104"/>
       <c r="AC3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AD3" s="28" t="s">
-        <v>41</v>
-      </c>
       <c r="AE3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="28" t="s">
-        <v>34</v>
-      </c>
       <c r="AG3" s="92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH3" s="90"/>
       <c r="AI3" s="89"/>
@@ -19107,22 +20205,22 @@
         <v>8</v>
       </c>
       <c r="AK3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AL3" s="18" t="s">
+      <c r="AM3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AM3" s="28" t="s">
-        <v>45</v>
-      </c>
       <c r="AN3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO3" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="AO3" s="24" t="s">
+      <c r="AP3" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="AP3" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="AQ3" s="37" t="s">
         <v>9</v>
@@ -19136,82 +20234,82 @@
       <c r="D4" s="92"/>
       <c r="E4" s="89"/>
       <c r="F4" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="90" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="J4" s="90" t="s">
         <v>57</v>
-      </c>
-      <c r="J4" s="90" t="s">
-        <v>58</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4" s="90" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="89" t="s">
-        <v>57</v>
-      </c>
       <c r="P4" s="88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R4" s="88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S4" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T4" s="90" t="s">
         <v>12</v>
       </c>
       <c r="U4" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="W4" s="108" t="s">
         <v>57</v>
-      </c>
-      <c r="W4" s="108" t="s">
-        <v>58</v>
       </c>
       <c r="X4" s="89"/>
       <c r="Y4" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z4" s="90" t="s">
         <v>12</v>
       </c>
       <c r="AA4" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB4" s="91" t="s">
         <v>56</v>
-      </c>
-      <c r="AB4" s="91" t="s">
-        <v>57</v>
       </c>
       <c r="AC4" s="27"/>
       <c r="AD4" s="28"/>
       <c r="AE4" s="27"/>
       <c r="AF4" s="28"/>
       <c r="AG4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AH4" s="18" t="s">
+      <c r="AI4" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="AI4" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="AJ4" s="24"/>
       <c r="AK4" s="27"/>
@@ -19234,10 +20332,10 @@
       <c r="H5" s="90"/>
       <c r="I5" s="90"/>
       <c r="J5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>61</v>
       </c>
       <c r="L5" s="92"/>
       <c r="M5" s="90"/>
@@ -19251,10 +20349,10 @@
       <c r="U5" s="90"/>
       <c r="V5" s="90"/>
       <c r="W5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" s="28" t="s">
         <v>62</v>
-      </c>
-      <c r="X5" s="28" t="s">
-        <v>63</v>
       </c>
       <c r="Y5" s="92"/>
       <c r="Z5" s="90"/>
@@ -19372,7 +20470,7 @@
     </row>
     <row r="8" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="29"/>
@@ -19420,7 +20518,7 @@
     </row>
     <row r="9" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="29"/>
@@ -19468,7 +20566,7 @@
     </row>
     <row r="10" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="29"/>
@@ -19516,7 +20614,7 @@
     </row>
     <row r="11" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="29"/>
@@ -19564,7 +20662,7 @@
     </row>
     <row r="12" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="29"/>
@@ -19612,7 +20710,7 @@
     </row>
     <row r="13" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="29"/>

--- a/BaremeJavaBaseTest1_KL16.xlsx
+++ b/BaremeJavaBaseTest1_KL16.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793572F0-1DB4-4F9E-A3F2-5019E13B039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D9D766-A221-455B-BB8C-669C9267ACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BaremeJavaBaseTest1_KL16.xlsx
+++ b/BaremeJavaBaseTest1_KL16.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D9D766-A221-455B-BB8C-669C9267ACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515C721E-4BE8-4DE4-AE2D-23AF8FDA4CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4238,11 +4238,11 @@
   <dimension ref="A1:BI97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1545" ySplit="3975" topLeftCell="AE8" activePane="bottomRight"/>
+      <pane xSplit="1545" ySplit="3975" topLeftCell="AB8" activePane="bottomRight"/>
       <selection activeCell="B1" sqref="B1:C1048576"/>
       <selection pane="topRight" activeCell="AX6" sqref="AX6"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
-      <selection pane="bottomRight" activeCell="AX27" sqref="AX27"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="bottomRight" activeCell="AU27" sqref="AU27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -5158,19 +5158,19 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" ref="D8:D24" si="1">G8/$G$5*20+BC8*$BC$5</f>
-        <v>4.7435897435897436</v>
+        <v>5.9294871794871797</v>
       </c>
       <c r="E8" s="15">
         <f t="shared" ref="E8:E24" si="2">F8/$G$6*20+BC8*$BC$6</f>
-        <v>8.3720930232558146</v>
+        <v>10.290697674418606</v>
       </c>
       <c r="F8" s="8">
         <f>G65</f>
-        <v>18</v>
+        <v>22.125</v>
       </c>
       <c r="G8" s="8">
         <f>G39</f>
-        <v>37</v>
+        <v>46.25</v>
       </c>
       <c r="H8" s="59">
         <v>1</v>
@@ -5250,11 +5250,21 @@
       <c r="AQ8" s="51">
         <v>1</v>
       </c>
-      <c r="AR8" s="59"/>
-      <c r="AS8" s="59"/>
-      <c r="AT8" s="59"/>
-      <c r="AU8" s="52"/>
-      <c r="AV8" s="59"/>
+      <c r="AR8" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="59">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="AU8" s="52">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="59">
+        <v>1</v>
+      </c>
       <c r="AW8" s="49">
         <v>99</v>
       </c>
@@ -5372,19 +5382,19 @@
       </c>
       <c r="D10" s="15">
         <f t="shared" si="3"/>
-        <v>3.8141025641025639</v>
+        <v>4.1025641025641022</v>
       </c>
       <c r="E10" s="15">
         <f t="shared" si="4"/>
-        <v>6.279069767441861</v>
+        <v>6.9767441860465116</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="5"/>
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="6"/>
-        <v>29.75</v>
+        <v>32</v>
       </c>
       <c r="H10" s="59">
         <v>1</v>
@@ -5464,11 +5474,21 @@
       <c r="AQ10" s="51">
         <v>1</v>
       </c>
-      <c r="AR10" s="59"/>
-      <c r="AS10" s="59"/>
-      <c r="AT10" s="59"/>
-      <c r="AU10" s="52"/>
-      <c r="AV10" s="59"/>
+      <c r="AR10" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="AT10" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="AU10" s="52">
+        <v>0.125</v>
+      </c>
+      <c r="AV10" s="59">
+        <v>0.125</v>
+      </c>
       <c r="AW10" s="49">
         <v>99</v>
       </c>
@@ -5496,19 +5516,19 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" si="3"/>
-        <v>3.7179487179487181</v>
+        <v>5.1282051282051277</v>
       </c>
       <c r="E11" s="15">
         <f t="shared" si="4"/>
-        <v>6.5116279069767451</v>
+        <v>8.8372093023255811</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H11" s="59">
         <v>1</v>
@@ -5586,11 +5606,21 @@
       <c r="AQ11" s="51">
         <v>1</v>
       </c>
-      <c r="AR11" s="59"/>
-      <c r="AS11" s="59"/>
-      <c r="AT11" s="59"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="59"/>
+      <c r="AR11" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="59">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="59">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="52">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="59">
+        <v>1</v>
+      </c>
       <c r="AW11" s="49">
         <v>99</v>
       </c>
@@ -5618,19 +5648,19 @@
       </c>
       <c r="D12" s="15">
         <f t="shared" si="3"/>
-        <v>3.525641025641026</v>
+        <v>5.0641025641025639</v>
       </c>
       <c r="E12" s="15">
         <f t="shared" si="4"/>
-        <v>6.279069767441861</v>
+        <v>8.720930232558139</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="5"/>
-        <v>13.5</v>
+        <v>18.75</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="6"/>
-        <v>27.5</v>
+        <v>39.5</v>
       </c>
       <c r="H12" s="59">
         <v>1</v>
@@ -5708,11 +5738,21 @@
       <c r="AQ12" s="51">
         <v>1</v>
       </c>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="59"/>
+      <c r="AR12" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="59">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="59">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="52">
+        <v>1.25</v>
+      </c>
+      <c r="AV12" s="59">
+        <v>1</v>
+      </c>
       <c r="AW12" s="49">
         <v>99</v>
       </c>
@@ -5740,19 +5780,19 @@
       </c>
       <c r="D13" s="15">
         <f t="shared" si="3"/>
-        <v>3.0128205128205128</v>
+        <v>4.1346153846153841</v>
       </c>
       <c r="E13" s="15">
         <f t="shared" si="4"/>
-        <v>5.5813953488372094</v>
+        <v>7.3837209302325579</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>15.875</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="6"/>
-        <v>23.5</v>
+        <v>32.25</v>
       </c>
       <c r="H13" s="59">
         <v>0</v>
@@ -5830,11 +5870,21 @@
       <c r="AQ13" s="51">
         <v>1</v>
       </c>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="59"/>
+      <c r="AR13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="AU13" s="52">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="59">
+        <v>0.75</v>
+      </c>
       <c r="AW13" s="49">
         <v>99</v>
       </c>
@@ -5862,19 +5912,19 @@
       </c>
       <c r="D14" s="15">
         <f t="shared" si="3"/>
-        <v>3.5737179487179489</v>
+        <v>4.9839743589743595</v>
       </c>
       <c r="E14" s="15">
         <f t="shared" si="4"/>
-        <v>6.3372093023255811</v>
+        <v>8.6627906976744189</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="5"/>
-        <v>13.625</v>
+        <v>18.625</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="6"/>
-        <v>27.875</v>
+        <v>38.875</v>
       </c>
       <c r="H14" s="59">
         <v>1</v>
@@ -5952,11 +6002,21 @@
       <c r="AQ14" s="51">
         <v>1</v>
       </c>
-      <c r="AR14" s="59"/>
-      <c r="AS14" s="59"/>
-      <c r="AT14" s="59"/>
-      <c r="AU14" s="52"/>
-      <c r="AV14" s="59"/>
+      <c r="AR14" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="59">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="59">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="52">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="59">
+        <v>1</v>
+      </c>
       <c r="AW14" s="49">
         <v>99</v>
       </c>
@@ -5982,19 +6042,19 @@
       <c r="C15" s="4"/>
       <c r="D15" s="15">
         <f t="shared" si="3"/>
-        <v>5.1923076923076925</v>
+        <v>5.5448717948717956</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="4"/>
-        <v>6.279069767441861</v>
+        <v>7.1511627906976747</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="5"/>
-        <v>13.5</v>
+        <v>15.375</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="6"/>
-        <v>40.5</v>
+        <v>43.25</v>
       </c>
       <c r="H15" s="59">
         <v>1</v>
@@ -6074,11 +6134,21 @@
       <c r="AQ15" s="51">
         <v>1</v>
       </c>
-      <c r="AR15" s="59"/>
-      <c r="AS15" s="59"/>
-      <c r="AT15" s="59"/>
-      <c r="AU15" s="52"/>
-      <c r="AV15" s="59"/>
+      <c r="AR15" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="AT15" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="AU15" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="59">
+        <v>0</v>
+      </c>
       <c r="AW15" s="49">
         <v>99</v>
       </c>
@@ -6104,19 +6174,19 @@
       <c r="C16" s="5"/>
       <c r="D16" s="15">
         <f t="shared" si="3"/>
-        <v>3.7179487179487181</v>
+        <v>4.6794871794871797</v>
       </c>
       <c r="E16" s="15">
         <f t="shared" si="4"/>
-        <v>6.5116279069767451</v>
+        <v>8.0232558139534884</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>17.25</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>36.5</v>
       </c>
       <c r="H16" s="59">
         <v>1</v>
@@ -6194,11 +6264,21 @@
       <c r="AQ16" s="51">
         <v>1</v>
       </c>
-      <c r="AR16" s="59"/>
-      <c r="AS16" s="59"/>
-      <c r="AT16" s="59"/>
-      <c r="AU16" s="52"/>
-      <c r="AV16" s="59"/>
+      <c r="AR16" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="AT16" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="AU16" s="52">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="59">
+        <v>1</v>
+      </c>
       <c r="AW16" s="49">
         <v>99</v>
       </c>
@@ -6224,19 +6304,19 @@
       <c r="C17" s="4"/>
       <c r="D17" s="15">
         <f t="shared" si="3"/>
-        <v>3.4615384615384617</v>
+        <v>4.8717948717948714</v>
       </c>
       <c r="E17" s="15">
         <f t="shared" si="4"/>
-        <v>5.9302325581395356</v>
+        <v>8.2558139534883725</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="5"/>
-        <v>12.75</v>
+        <v>17.75</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H17" s="59">
         <v>0</v>
@@ -6314,11 +6394,21 @@
       <c r="AQ17" s="51">
         <v>1</v>
       </c>
-      <c r="AR17" s="59"/>
-      <c r="AS17" s="59"/>
-      <c r="AT17" s="59"/>
-      <c r="AU17" s="52"/>
-      <c r="AV17" s="59"/>
+      <c r="AR17" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="59">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="59">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="52">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="59">
+        <v>1</v>
+      </c>
       <c r="AW17" s="49">
         <v>99</v>
       </c>
@@ -6344,19 +6434,19 @@
       <c r="C18" s="4"/>
       <c r="D18" s="15">
         <f t="shared" si="3"/>
-        <v>5.448717948717948</v>
+        <v>6.6346153846153841</v>
       </c>
       <c r="E18" s="15">
         <f t="shared" si="4"/>
-        <v>7.0930232558139537</v>
+        <v>9.0116279069767451</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="5"/>
-        <v>15.25</v>
+        <v>19.375</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="6"/>
-        <v>42.5</v>
+        <v>51.75</v>
       </c>
       <c r="H18" s="59">
         <v>1</v>
@@ -6436,11 +6526,21 @@
       <c r="AQ18" s="51">
         <v>1</v>
       </c>
-      <c r="AR18" s="59"/>
-      <c r="AS18" s="59"/>
-      <c r="AT18" s="59"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="59"/>
+      <c r="AR18" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="59">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="AU18" s="52">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="59">
+        <v>1</v>
+      </c>
       <c r="AW18" s="49">
         <v>99</v>
       </c>
@@ -6646,19 +6746,19 @@
       <c r="C20" s="4"/>
       <c r="D20" s="15">
         <f t="shared" si="3"/>
-        <v>2.3076923076923079</v>
+        <v>3.4935897435897436</v>
       </c>
       <c r="E20" s="15">
         <f t="shared" si="4"/>
-        <v>4.5930232558139537</v>
+        <v>6.5116279069767451</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="5"/>
-        <v>9.875</v>
+        <v>14</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>27.25</v>
       </c>
       <c r="H20" s="59">
         <v>1</v>
@@ -6736,11 +6836,21 @@
       <c r="AQ20" s="51">
         <v>1</v>
       </c>
-      <c r="AR20" s="59"/>
-      <c r="AS20" s="59"/>
-      <c r="AT20" s="59"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="59"/>
+      <c r="AR20" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="59">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="AU20" s="52">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="59">
+        <v>1</v>
+      </c>
       <c r="AW20" s="49">
         <v>99</v>
       </c>
@@ -6766,19 +6876,19 @@
       <c r="C21" s="5"/>
       <c r="D21" s="15">
         <f t="shared" si="3"/>
-        <v>3.3974358974358978</v>
+        <v>4.8076923076923075</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="4"/>
-        <v>5.9302325581395356</v>
+        <v>8.2558139534883725</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="5"/>
-        <v>12.75</v>
+        <v>17.75</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="6"/>
-        <v>26.5</v>
+        <v>37.5</v>
       </c>
       <c r="H21" s="59">
         <v>0</v>
@@ -6856,11 +6966,21 @@
       <c r="AQ21" s="51">
         <v>1</v>
       </c>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="59"/>
+      <c r="AR21" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="59">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="59">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="52">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="59">
+        <v>1</v>
+      </c>
       <c r="AW21" s="49">
         <v>99</v>
       </c>
@@ -6886,19 +7006,19 @@
       <c r="C22" s="4"/>
       <c r="D22" s="15">
         <f t="shared" si="3"/>
-        <v>3.0769230769230771</v>
+        <v>3.5897435897435899</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="4"/>
-        <v>5.8139534883720936</v>
+        <v>6.9767441860465116</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="5"/>
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H22" s="59">
         <v>1</v>
@@ -6976,11 +7096,21 @@
       <c r="AQ22" s="51">
         <v>1</v>
       </c>
-      <c r="AR22" s="59"/>
-      <c r="AS22" s="59"/>
-      <c r="AT22" s="59"/>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="59"/>
+      <c r="AR22" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="AT22" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="59">
+        <v>0.75</v>
+      </c>
       <c r="AW22" s="49">
         <v>99</v>
       </c>
@@ -7006,19 +7136,19 @@
       <c r="C23" s="4"/>
       <c r="D23" s="15">
         <f t="shared" si="3"/>
-        <v>2.516025641025641</v>
+        <v>3.9262820512820511</v>
       </c>
       <c r="E23" s="15">
         <f t="shared" si="4"/>
-        <v>5.1744186046511631</v>
+        <v>7.5</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="5"/>
-        <v>11.125</v>
+        <v>16.125</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="6"/>
-        <v>19.625</v>
+        <v>30.625</v>
       </c>
       <c r="H23" s="59">
         <v>1</v>
@@ -7096,11 +7226,21 @@
       <c r="AQ23" s="51">
         <v>1</v>
       </c>
-      <c r="AR23" s="59"/>
-      <c r="AS23" s="59"/>
-      <c r="AT23" s="59"/>
-      <c r="AU23" s="52"/>
-      <c r="AV23" s="59"/>
+      <c r="AR23" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="59">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="59">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="52">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="59">
+        <v>1</v>
+      </c>
       <c r="AW23" s="49">
         <v>99</v>
       </c>
@@ -7126,19 +7266,19 @@
       <c r="C24" s="4"/>
       <c r="D24" s="15">
         <f t="shared" si="3"/>
-        <v>1.7307692307692308</v>
+        <v>2.2756410256410255</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" si="4"/>
-        <v>3.9534883720930232</v>
+        <v>5.1744186046511631</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" si="5"/>
-        <v>8.5</v>
+        <v>11.125</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="6"/>
-        <v>13.5</v>
+        <v>17.75</v>
       </c>
       <c r="H24" s="59">
         <v>1</v>
@@ -7216,11 +7356,21 @@
       <c r="AQ24" s="51">
         <v>1</v>
       </c>
-      <c r="AR24" s="59"/>
-      <c r="AS24" s="59"/>
-      <c r="AT24" s="59"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="59"/>
+      <c r="AR24" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="AT24" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="AU24" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="59">
+        <v>0.75</v>
+      </c>
       <c r="AW24" s="49">
         <v>99</v>
       </c>
@@ -7246,19 +7396,19 @@
       <c r="C25" s="5"/>
       <c r="D25" s="15">
         <f t="shared" si="3"/>
-        <v>2.8515384615384614</v>
+        <v>4.1656410256410261</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="4"/>
-        <v>5.1734883720930238</v>
+        <v>7.2083720930232564</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="5"/>
-        <v>11.123000000000001</v>
+        <v>15.498000000000001</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="6"/>
-        <v>22.242000000000001</v>
+        <v>32.492000000000004</v>
       </c>
       <c r="H25" s="59">
         <v>0</v>
@@ -7336,11 +7486,21 @@
       <c r="AQ25" s="51">
         <v>1</v>
       </c>
-      <c r="AR25" s="59"/>
-      <c r="AS25" s="59"/>
-      <c r="AT25" s="59"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="59"/>
+      <c r="AR25" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="59">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="AU25" s="52">
+        <v>1.25</v>
+      </c>
+      <c r="AV25" s="59">
+        <v>1</v>
+      </c>
       <c r="AW25" s="49">
         <v>99</v>
       </c>
@@ -7366,19 +7526,19 @@
       <c r="C26" s="5"/>
       <c r="D26" s="15">
         <f t="shared" si="3"/>
-        <v>3.2692307692307692</v>
+        <v>3.4615384615384617</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="4"/>
-        <v>5.5813953488372094</v>
+        <v>6.1627906976744189</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>13.25</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="6"/>
-        <v>25.5</v>
+        <v>27</v>
       </c>
       <c r="H26" s="59">
         <v>1</v>
@@ -7456,11 +7616,21 @@
       <c r="AQ26" s="51">
         <v>1</v>
       </c>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="59"/>
-      <c r="AU26" s="52"/>
-      <c r="AV26" s="59"/>
+      <c r="AR26" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="AT26" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="AU26" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="59">
+        <v>0</v>
+      </c>
       <c r="AW26" s="49">
         <v>99</v>
       </c>
@@ -7486,19 +7656,19 @@
       <c r="C27" s="5"/>
       <c r="D27" s="15">
         <f t="shared" si="3"/>
-        <v>3.525641025641026</v>
+        <v>4.0705128205128203</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="4"/>
-        <v>6.395348837209303</v>
+        <v>7.6162790697674421</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" si="5"/>
-        <v>13.75</v>
+        <v>16.375</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="6"/>
-        <v>27.5</v>
+        <v>31.75</v>
       </c>
       <c r="H27" s="59">
         <v>1</v>
@@ -7576,11 +7746,21 @@
       <c r="AQ27" s="51">
         <v>1</v>
       </c>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="59"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="59"/>
+      <c r="AR27" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS27" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="AT27" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="AU27" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="59">
+        <v>0.75</v>
+      </c>
       <c r="AW27" s="49">
         <v>99</v>
       </c>
@@ -8173,24 +8353,24 @@
         <v>0.94736842105263153</v>
       </c>
       <c r="AR33" s="58">
-        <f>AVERAGE(AR8:AR24)</f>
-        <v>0.5</v>
+        <f>AVERAGE(AR8:AR27)</f>
+        <v>0.97368421052631582</v>
       </c>
       <c r="AS33" s="58">
-        <f>AVERAGE(AS8:AS24)</f>
-        <v>1</v>
+        <f>AVERAGE(AS8:AS27)</f>
+        <v>0.80921052631578949</v>
       </c>
       <c r="AT33" s="58">
-        <f>AVERAGE(AT8:AT24)</f>
-        <v>0.125</v>
+        <f>AVERAGE(AT8:AT27)</f>
+        <v>0.39473684210526316</v>
       </c>
       <c r="AU33" s="58">
-        <f>AVERAGE(AU8:AU24)</f>
-        <v>0</v>
+        <f>AVERAGE(AU8:AU27)</f>
+        <v>0.66447368421052633</v>
       </c>
       <c r="AV33" s="58">
-        <f>AVERAGE(AV8:AV24)</f>
-        <v>1</v>
+        <f>AVERAGE(AV8:AV27)</f>
+        <v>0.79605263157894735</v>
       </c>
       <c r="AW33" s="172">
         <f>AVERAGE(AW8:AW24)</f>
@@ -8306,7 +8486,7 @@
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G39" s="2">
         <f>+SUM(H39:BI39)</f>
-        <v>37</v>
+        <v>46.25</v>
       </c>
       <c r="H39" s="58">
         <f>H8*H$5</f>
@@ -8454,23 +8634,23 @@
       </c>
       <c r="AR39" s="58">
         <f>AR8*AR$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS39" s="58">
         <f>AS8*AS$5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT39" s="58">
         <f>AT8*AT$5</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU39" s="58">
         <f>AU8*AU$5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV39" s="58">
         <f>AV8*AV$5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW39" s="172">
         <f>AW8*AW$5</f>
@@ -8750,7 +8930,7 @@
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G41" s="58">
         <f t="shared" si="7"/>
-        <v>29.75</v>
+        <v>32</v>
       </c>
       <c r="H41" s="58">
         <f t="shared" ref="H41:BI41" si="9">H10*H$5</f>
@@ -8898,23 +9078,23 @@
       </c>
       <c r="AR41" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS41" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT41" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU41" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AV41" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AW41" s="172">
         <f t="shared" si="9"/>
@@ -8972,7 +9152,7 @@
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G42" s="58">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H42" s="58">
         <f t="shared" ref="H42:BI42" si="10">H11*H$5</f>
@@ -9120,23 +9300,23 @@
       </c>
       <c r="AR42" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS42" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT42" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU42" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV42" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW42" s="172">
         <f t="shared" si="10"/>
@@ -9194,7 +9374,7 @@
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G43" s="58">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>39.5</v>
       </c>
       <c r="H43" s="58">
         <f t="shared" ref="H43:BI43" si="11">H12*H$5</f>
@@ -9342,23 +9522,23 @@
       </c>
       <c r="AR43" s="58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS43" s="58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT43" s="58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU43" s="58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV43" s="58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW43" s="172">
         <f t="shared" si="11"/>
@@ -9422,7 +9602,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="58">
         <f t="shared" si="7"/>
-        <v>23.5</v>
+        <v>32.25</v>
       </c>
       <c r="H44" s="58">
         <f t="shared" ref="H44:BI44" si="12">H13*H$5</f>
@@ -9570,23 +9750,23 @@
       </c>
       <c r="AR44" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS44" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT44" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU44" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV44" s="58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AW44" s="172">
         <f t="shared" si="12"/>
@@ -9644,7 +9824,7 @@
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G45" s="58">
         <f t="shared" si="7"/>
-        <v>27.875</v>
+        <v>38.875</v>
       </c>
       <c r="H45" s="58">
         <f t="shared" ref="H45:BI45" si="13">H14*H$5</f>
@@ -9792,23 +9972,23 @@
       </c>
       <c r="AR45" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS45" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT45" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU45" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV45" s="58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW45" s="172">
         <f t="shared" si="13"/>
@@ -9866,7 +10046,7 @@
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G46" s="58">
         <f t="shared" si="7"/>
-        <v>40.5</v>
+        <v>43.25</v>
       </c>
       <c r="H46" s="58">
         <f t="shared" ref="H46:BI46" si="14">H15*H$5</f>
@@ -10014,15 +10194,15 @@
       </c>
       <c r="AR46" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS46" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT46" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU46" s="58">
         <f t="shared" si="14"/>
@@ -10088,7 +10268,7 @@
     <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G47" s="58">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>36.5</v>
       </c>
       <c r="H47" s="58">
         <f t="shared" ref="H47:BI47" si="15">H16*H$5</f>
@@ -10236,23 +10416,23 @@
       </c>
       <c r="AR47" s="58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS47" s="58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT47" s="58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU47" s="58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV47" s="58">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW47" s="172">
         <f t="shared" si="15"/>
@@ -10310,7 +10490,7 @@
     <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G48" s="58">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H48" s="58">
         <f t="shared" ref="H48:BI48" si="16">H17*H$5</f>
@@ -10458,23 +10638,23 @@
       </c>
       <c r="AR48" s="58">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS48" s="58">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT48" s="58">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU48" s="58">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV48" s="58">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW48" s="172">
         <f t="shared" si="16"/>
@@ -10532,7 +10712,7 @@
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G49" s="58">
         <f t="shared" si="7"/>
-        <v>42.5</v>
+        <v>51.75</v>
       </c>
       <c r="H49" s="58">
         <f t="shared" ref="H49:BI49" si="17">H18*H$5</f>
@@ -10680,23 +10860,23 @@
       </c>
       <c r="AR49" s="58">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS49" s="58">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT49" s="58">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU49" s="58">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV49" s="58">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW49" s="172">
         <f t="shared" si="17"/>
@@ -10980,7 +11160,7 @@
       <c r="F51" s="46"/>
       <c r="G51" s="58">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>27.25</v>
       </c>
       <c r="H51" s="58">
         <f t="shared" ref="H51:BI51" si="19">H20*H$5</f>
@@ -11128,23 +11308,23 @@
       </c>
       <c r="AR51" s="58">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS51" s="58">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT51" s="58">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU51" s="58">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV51" s="58">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW51" s="172">
         <f t="shared" si="19"/>
@@ -11206,7 +11386,7 @@
       <c r="F52" s="46"/>
       <c r="G52" s="58">
         <f t="shared" si="7"/>
-        <v>26.5</v>
+        <v>37.5</v>
       </c>
       <c r="H52" s="58">
         <f t="shared" ref="H52:BI52" si="20">H21*H$5</f>
@@ -11354,23 +11534,23 @@
       </c>
       <c r="AR52" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS52" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT52" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU52" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV52" s="58">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW52" s="172">
         <f t="shared" si="20"/>
@@ -11432,7 +11612,7 @@
       <c r="F53" s="46"/>
       <c r="G53" s="58">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H53" s="58">
         <f t="shared" ref="H53:BI53" si="21">H22*H$5</f>
@@ -11580,11 +11760,11 @@
       </c>
       <c r="AR53" s="58">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS53" s="58">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT53" s="58">
         <f t="shared" si="21"/>
@@ -11596,7 +11776,7 @@
       </c>
       <c r="AV53" s="58">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AW53" s="172">
         <f t="shared" si="21"/>
@@ -11658,7 +11838,7 @@
       <c r="F54" s="58"/>
       <c r="G54" s="58">
         <f t="shared" si="7"/>
-        <v>19.625</v>
+        <v>30.625</v>
       </c>
       <c r="H54" s="58">
         <f t="shared" ref="H54:BI54" si="22">H23*H$5</f>
@@ -11806,23 +11986,23 @@
       </c>
       <c r="AR54" s="58">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS54" s="58">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT54" s="58">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU54" s="58">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV54" s="58">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW54" s="172">
         <f t="shared" si="22"/>
@@ -11884,7 +12064,7 @@
       <c r="F55" s="58"/>
       <c r="G55" s="58">
         <f t="shared" si="7"/>
-        <v>13.5</v>
+        <v>17.75</v>
       </c>
       <c r="H55" s="58">
         <f t="shared" ref="H55:BI55" si="23">H24*H$5</f>
@@ -12032,15 +12212,15 @@
       </c>
       <c r="AR55" s="58">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS55" s="58">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT55" s="58">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU55" s="58">
         <f t="shared" si="23"/>
@@ -12048,7 +12228,7 @@
       </c>
       <c r="AV55" s="58">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AW55" s="172">
         <f t="shared" si="23"/>
@@ -12110,7 +12290,7 @@
       <c r="F56" s="58"/>
       <c r="G56" s="58">
         <f t="shared" si="7"/>
-        <v>22.242000000000001</v>
+        <v>32.492000000000004</v>
       </c>
       <c r="H56" s="58">
         <f t="shared" ref="H56:BI56" si="24">H25*H$5</f>
@@ -12258,23 +12438,23 @@
       </c>
       <c r="AR56" s="58">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS56" s="58">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT56" s="58">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU56" s="58">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV56" s="58">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW56" s="172">
         <f t="shared" si="24"/>
@@ -12334,7 +12514,7 @@
       <c r="E57" s="12"/>
       <c r="G57" s="58">
         <f t="shared" si="7"/>
-        <v>25.5</v>
+        <v>27</v>
       </c>
       <c r="H57" s="58">
         <f t="shared" ref="H57:BI57" si="25">H26*H$5</f>
@@ -12482,15 +12662,15 @@
       </c>
       <c r="AR57" s="58">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS57" s="58">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT57" s="58">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU57" s="58">
         <f t="shared" si="25"/>
@@ -12558,7 +12738,7 @@
       <c r="E58" s="12"/>
       <c r="G58" s="58">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>31.75</v>
       </c>
       <c r="H58" s="58">
         <f t="shared" ref="H58:BI58" si="26">H27*H$5</f>
@@ -12706,15 +12886,15 @@
       </c>
       <c r="AR58" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS58" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT58" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU58" s="58">
         <f t="shared" si="26"/>
@@ -12722,7 +12902,7 @@
       </c>
       <c r="AV58" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AW58" s="172">
         <f t="shared" si="26"/>
@@ -13971,7 +14151,7 @@
       <c r="F65" s="46"/>
       <c r="G65" s="58">
         <f t="shared" ref="G65" si="32">+SUM(H65:BI65)</f>
-        <v>18</v>
+        <v>22.125</v>
       </c>
       <c r="H65" s="58">
         <f>H8*H$6</f>
@@ -14119,23 +14299,23 @@
       </c>
       <c r="AR65" s="58">
         <f>AR8*AR$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS65" s="58">
         <f>AS8*AS$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT65" s="58">
         <f>AT8*AT$6</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AU65" s="58">
         <f>AU8*AU$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV65" s="58">
         <f>AV8*AV$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW65" s="172">
         <f>AW8*AW$6</f>
@@ -14427,7 +14607,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="58">
         <f t="shared" si="33"/>
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="H67" s="58">
         <f t="shared" ref="H67:BI67" si="35">H10*H$6</f>
@@ -14575,23 +14755,23 @@
       </c>
       <c r="AR67" s="58">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS67" s="58">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AT67" s="58">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AU67" s="58">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AV67" s="58">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AW67" s="172">
         <f t="shared" si="35"/>
@@ -14655,7 +14835,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="58">
         <f t="shared" si="33"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H68" s="58">
         <f t="shared" ref="H68:BI68" si="36">H11*H$6</f>
@@ -14803,23 +14983,23 @@
       </c>
       <c r="AR68" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS68" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU68" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV68" s="58">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW68" s="172">
         <f t="shared" si="36"/>
@@ -14879,7 +15059,7 @@
       <c r="E69" s="12"/>
       <c r="G69" s="58">
         <f t="shared" si="33"/>
-        <v>13.5</v>
+        <v>18.75</v>
       </c>
       <c r="H69" s="58">
         <f t="shared" ref="H69:BI69" si="37">H12*H$6</f>
@@ -15027,23 +15207,23 @@
       </c>
       <c r="AR69" s="58">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS69" s="58">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT69" s="58">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU69" s="58">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AV69" s="58">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW69" s="172">
         <f t="shared" si="37"/>
@@ -15107,7 +15287,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="58">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>15.875</v>
       </c>
       <c r="H70" s="58">
         <f t="shared" ref="H70:BI70" si="38">H13*H$6</f>
@@ -15255,23 +15435,23 @@
       </c>
       <c r="AR70" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS70" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT70" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AU70" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV70" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AW70" s="172">
         <f t="shared" si="38"/>
@@ -15335,7 +15515,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="58">
         <f t="shared" si="33"/>
-        <v>13.625</v>
+        <v>18.625</v>
       </c>
       <c r="H71" s="58">
         <f t="shared" ref="H71:BI71" si="39">H14*H$6</f>
@@ -15483,23 +15663,23 @@
       </c>
       <c r="AR71" s="58">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS71" s="58">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="58">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU71" s="58">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV71" s="58">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW71" s="172">
         <f t="shared" si="39"/>
@@ -15563,7 +15743,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="58">
         <f t="shared" si="33"/>
-        <v>13.5</v>
+        <v>15.375</v>
       </c>
       <c r="H72" s="58">
         <f t="shared" ref="H72:BI72" si="40">H15*H$6</f>
@@ -15711,15 +15891,15 @@
       </c>
       <c r="AR72" s="58">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS72" s="58">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT72" s="58">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AU72" s="58">
         <f t="shared" si="40"/>
@@ -15785,7 +15965,7 @@
     <row r="73" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G73" s="58">
         <f t="shared" si="33"/>
-        <v>14</v>
+        <v>17.25</v>
       </c>
       <c r="H73" s="58">
         <f t="shared" ref="H73:BI73" si="41">H16*H$6</f>
@@ -15933,23 +16113,23 @@
       </c>
       <c r="AR73" s="58">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS73" s="58">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AT73" s="58">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AU73" s="58">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV73" s="58">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW73" s="172">
         <f t="shared" si="41"/>
@@ -16007,7 +16187,7 @@
     <row r="74" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G74" s="58">
         <f t="shared" si="33"/>
-        <v>12.75</v>
+        <v>17.75</v>
       </c>
       <c r="H74" s="58">
         <f t="shared" ref="H74:BI74" si="42">H17*H$6</f>
@@ -16155,23 +16335,23 @@
       </c>
       <c r="AR74" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS74" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT74" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU74" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV74" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW74" s="172">
         <f t="shared" si="42"/>
@@ -16229,7 +16409,7 @@
     <row r="75" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G75" s="58">
         <f t="shared" si="33"/>
-        <v>15.25</v>
+        <v>19.375</v>
       </c>
       <c r="H75" s="58">
         <f t="shared" ref="H75:BI75" si="43">H18*H$6</f>
@@ -16377,23 +16557,23 @@
       </c>
       <c r="AR75" s="58">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS75" s="58">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT75" s="58">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AU75" s="58">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV75" s="58">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW75" s="172">
         <f t="shared" si="43"/>
@@ -16679,7 +16859,7 @@
     <row r="77" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G77" s="58">
         <f t="shared" si="33"/>
-        <v>9.875</v>
+        <v>14</v>
       </c>
       <c r="H77" s="58">
         <f t="shared" ref="H77:BI77" si="45">H20*H$6</f>
@@ -16827,23 +17007,23 @@
       </c>
       <c r="AR77" s="58">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS77" s="58">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT77" s="58">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AU77" s="58">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV77" s="58">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW77" s="172">
         <f t="shared" si="45"/>
@@ -16901,7 +17081,7 @@
     <row r="78" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G78" s="58">
         <f t="shared" si="33"/>
-        <v>12.75</v>
+        <v>17.75</v>
       </c>
       <c r="H78" s="58">
         <f t="shared" ref="H78:BI78" si="46">H21*H$6</f>
@@ -17049,23 +17229,23 @@
       </c>
       <c r="AR78" s="58">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS78" s="58">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT78" s="58">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU78" s="58">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV78" s="58">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW78" s="172">
         <f t="shared" si="46"/>
@@ -17123,7 +17303,7 @@
     <row r="79" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G79" s="58">
         <f t="shared" si="33"/>
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="H79" s="58">
         <f t="shared" ref="H79:BI79" si="47">H22*H$6</f>
@@ -17271,11 +17451,11 @@
       </c>
       <c r="AR79" s="58">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS79" s="58">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT79" s="58">
         <f t="shared" si="47"/>
@@ -17287,7 +17467,7 @@
       </c>
       <c r="AV79" s="58">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AW79" s="172">
         <f t="shared" si="47"/>
@@ -17345,7 +17525,7 @@
     <row r="80" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G80" s="58">
         <f t="shared" si="33"/>
-        <v>11.125</v>
+        <v>16.125</v>
       </c>
       <c r="H80" s="58">
         <f t="shared" ref="H80:BI80" si="48">H23*H$6</f>
@@ -17493,23 +17673,23 @@
       </c>
       <c r="AR80" s="58">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS80" s="58">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT80" s="58">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU80" s="58">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV80" s="58">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW80" s="172">
         <f t="shared" si="48"/>
@@ -17567,7 +17747,7 @@
     <row r="81" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G81" s="58">
         <f t="shared" si="33"/>
-        <v>8.5</v>
+        <v>11.125</v>
       </c>
       <c r="H81" s="58">
         <f t="shared" ref="H81:BI81" si="49">H24*H$6</f>
@@ -17715,15 +17895,15 @@
       </c>
       <c r="AR81" s="58">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS81" s="58">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT81" s="58">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AU81" s="58">
         <f t="shared" si="49"/>
@@ -17731,7 +17911,7 @@
       </c>
       <c r="AV81" s="58">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AW81" s="172">
         <f t="shared" si="49"/>
@@ -17789,7 +17969,7 @@
     <row r="82" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G82" s="58">
         <f t="shared" si="33"/>
-        <v>11.123000000000001</v>
+        <v>15.498000000000001</v>
       </c>
       <c r="H82" s="58">
         <f t="shared" ref="H82:BI82" si="50">H25*H$6</f>
@@ -17937,23 +18117,23 @@
       </c>
       <c r="AR82" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS82" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT82" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AU82" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AV82" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW82" s="172">
         <f t="shared" si="50"/>
@@ -18011,7 +18191,7 @@
     <row r="83" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G83" s="58">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>13.25</v>
       </c>
       <c r="H83" s="58">
         <f t="shared" ref="H83:BI83" si="51">H26*H$6</f>
@@ -18159,15 +18339,15 @@
       </c>
       <c r="AR83" s="58">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS83" s="58">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AT83" s="58">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AU83" s="58">
         <f t="shared" si="51"/>
@@ -18233,7 +18413,7 @@
     <row r="84" spans="1:61" x14ac:dyDescent="0.25">
       <c r="G84" s="58">
         <f t="shared" si="33"/>
-        <v>13.75</v>
+        <v>16.375</v>
       </c>
       <c r="H84" s="58">
         <f t="shared" ref="H84:BI84" si="52">H27*H$6</f>
@@ -18381,15 +18561,15 @@
       </c>
       <c r="AR84" s="58">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS84" s="58">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT84" s="58">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AU84" s="58">
         <f t="shared" si="52"/>
@@ -18397,7 +18577,7 @@
       </c>
       <c r="AV84" s="58">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AW84" s="172">
         <f t="shared" si="52"/>

--- a/BaremeJavaBaseTest1_KL16.xlsx
+++ b/BaremeJavaBaseTest1_KL16.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1B3AB7-2C9A-421E-83AC-6D681F92B1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603A8C7B-3043-4720-AF2F-E4BEA3344BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,9 +817,6 @@
     <t>Presenter</t>
   </si>
   <si>
-    <t>main()</t>
-  </si>
-  <si>
     <t>Qualité du code (indentation), syntaxe</t>
   </si>
   <si>
@@ -1166,6 +1163,9 @@
   </si>
   <si>
     <t>implements</t>
+  </si>
+  <si>
+    <t>main()+executer</t>
   </si>
 </sst>
 </file>
@@ -3692,11 +3692,11 @@
   <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1545" ySplit="3975" topLeftCell="AQ8" activePane="bottomRight"/>
+      <pane xSplit="1545" ySplit="3975" topLeftCell="P8" activePane="bottomRight"/>
       <selection activeCell="B1" sqref="B1:C1048576"/>
-      <selection pane="topRight" activeCell="BH5" sqref="BH5"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
-      <selection pane="bottomRight" activeCell="BN27" sqref="BN27"/>
+      <selection pane="topRight" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3728,7 +3728,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="83"/>
       <c r="J1" s="83"/>
@@ -3802,7 +3802,7 @@
         <v>15</v>
       </c>
       <c r="BP1" s="86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:68" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3817,25 +3817,25 @@
         <v>4</v>
       </c>
       <c r="I2" s="161" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="161" t="s">
-        <v>23</v>
-      </c>
       <c r="K2" s="124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="167" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O2" s="82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P2" s="125"/>
       <c r="Q2" s="86"/>
@@ -3850,14 +3850,14 @@
       <c r="Z2" s="86"/>
       <c r="AA2" s="126"/>
       <c r="AB2" s="127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC2" s="65"/>
       <c r="AD2" s="65"/>
       <c r="AE2" s="65"/>
       <c r="AF2" s="65"/>
       <c r="AG2" s="78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH2" s="79"/>
       <c r="AI2" s="80"/>
@@ -3865,7 +3865,7 @@
       <c r="AK2" s="80"/>
       <c r="AL2" s="80"/>
       <c r="AM2" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AN2" s="65"/>
       <c r="AO2" s="65"/>
@@ -3880,21 +3880,21 @@
       <c r="AV2" s="65"/>
       <c r="AW2" s="66"/>
       <c r="AX2" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AY2" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AZ2" s="83"/>
       <c r="BA2" s="83"/>
       <c r="BB2" s="83"/>
       <c r="BC2" s="83"/>
       <c r="BD2" s="82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BE2" s="130"/>
       <c r="BF2" s="79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BG2" s="79"/>
       <c r="BH2" s="80"/>
@@ -3905,7 +3905,7 @@
       <c r="BM2" s="80"/>
       <c r="BN2" s="129"/>
       <c r="BO2" s="130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BP2" s="86"/>
     </row>
@@ -3944,43 +3944,43 @@
       <c r="N3" s="68"/>
       <c r="O3" s="84"/>
       <c r="P3" s="132" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="Q3" s="60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R3" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S3" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T3" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U3" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V3" s="133" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W3" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X3" s="135" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y3" s="133" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA3" s="136" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB3" s="137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC3" s="74" t="s">
         <v>12</v>
@@ -3989,13 +3989,13 @@
         <v>13</v>
       </c>
       <c r="AE3" s="77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF3" s="81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG3" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH3" s="74" t="s">
         <v>12</v>
@@ -4004,16 +4004,16 @@
         <v>13</v>
       </c>
       <c r="AJ3" s="77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK3" s="77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL3" s="81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM3" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AN3" s="74" t="s">
         <v>12</v>
@@ -4022,73 +4022,73 @@
         <v>13</v>
       </c>
       <c r="AP3" s="81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AQ3" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AR3" s="139" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS3" s="69" t="s">
         <v>103</v>
-      </c>
-      <c r="AS3" s="69" t="s">
-        <v>104</v>
       </c>
       <c r="AT3" s="70"/>
       <c r="AU3" s="112"/>
       <c r="AV3" s="140" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW3" s="171" t="s">
         <v>105</v>
-      </c>
-      <c r="AW3" s="171" t="s">
-        <v>106</v>
       </c>
       <c r="AX3" s="69"/>
       <c r="AY3" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ3" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AZ3" s="76" t="s">
+      <c r="BA3" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB3" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="BA3" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB3" s="76" t="s">
+      <c r="BC3" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="BC3" s="187" t="s">
-        <v>129</v>
-      </c>
       <c r="BD3" s="75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BE3" s="186" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF3" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="BF3" s="85" t="s">
-        <v>134</v>
-      </c>
       <c r="BG3" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH3" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="BH3" s="81" t="s">
+      <c r="BI3" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="BI3" s="81" t="s">
+      <c r="BJ3" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="BJ3" s="81" t="s">
+      <c r="BK3" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="BK3" s="81" t="s">
+      <c r="BL3" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="BL3" s="81" t="s">
+      <c r="BM3" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="BM3" s="81" t="s">
+      <c r="BN3" s="138" t="s">
         <v>113</v>
-      </c>
-      <c r="BN3" s="138" t="s">
-        <v>114</v>
       </c>
       <c r="BO3" s="141"/>
       <c r="BP3" s="86"/>
@@ -4111,37 +4111,37 @@
       <c r="O4" s="143"/>
       <c r="P4" s="144"/>
       <c r="Q4" s="145" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R4" s="146" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="S4" s="146" t="s">
+      <c r="T4" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="T4" s="146" t="s">
+      <c r="U4" s="146" t="s">
+        <v>101</v>
+      </c>
+      <c r="V4" s="147" t="s">
         <v>117</v>
       </c>
-      <c r="U4" s="146" t="s">
-        <v>102</v>
-      </c>
-      <c r="V4" s="147" t="s">
+      <c r="W4" s="148" t="s">
+        <v>113</v>
+      </c>
+      <c r="X4" s="149" t="s">
         <v>118</v>
       </c>
-      <c r="W4" s="148" t="s">
-        <v>114</v>
-      </c>
-      <c r="X4" s="149" t="s">
+      <c r="Y4" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="Y4" s="147" t="s">
+      <c r="Z4" s="148" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA4" s="150" t="s">
         <v>120</v>
-      </c>
-      <c r="Z4" s="148" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA4" s="150" t="s">
-        <v>121</v>
       </c>
       <c r="AB4" s="151"/>
       <c r="AC4" s="152"/>
@@ -4161,16 +4161,16 @@
       <c r="AQ4" s="156"/>
       <c r="AR4" s="157"/>
       <c r="AS4" s="148" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT4" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="AT4" s="148" t="s">
+      <c r="AU4" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="AU4" s="148" t="s">
-        <v>124</v>
-      </c>
       <c r="AV4" s="148" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AW4" s="172"/>
       <c r="AX4" s="173"/>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="8" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -4728,19 +4728,19 @@
       </c>
       <c r="D8" s="15">
         <f>G8/$G$5*20+BJ8*$BJ$5</f>
-        <v>16.317204301075272</v>
+        <v>23.010752688172044</v>
       </c>
       <c r="E8" s="15">
         <f>F8/$G$6*20+BJ8*$BJ$6</f>
-        <v>15.850000000000001</v>
+        <v>20.45</v>
       </c>
       <c r="F8" s="8">
         <f>G65</f>
-        <v>37.125</v>
+        <v>48.625</v>
       </c>
       <c r="G8" s="8">
         <f>G39</f>
-        <v>105.25</v>
+        <v>167.5</v>
       </c>
       <c r="H8" s="59">
         <v>1</v>
@@ -4762,18 +4762,42 @@
       <c r="O8" s="59">
         <v>1</v>
       </c>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
+      <c r="P8" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="59">
+        <v>1</v>
+      </c>
+      <c r="R8" s="59">
+        <v>1</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="U8" s="9">
+        <v>1</v>
+      </c>
+      <c r="V8" s="9">
+        <v>1</v>
+      </c>
+      <c r="W8" s="9">
+        <v>1</v>
+      </c>
+      <c r="X8" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>1</v>
+      </c>
       <c r="AB8" s="59">
         <v>1</v>
       </c>
@@ -4893,7 +4917,7 @@
     </row>
     <row r="9" spans="1:68" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
@@ -4992,7 +5016,7 @@
     </row>
     <row r="10" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="110"/>
       <c r="C10" s="110" t="s">
@@ -5000,19 +5024,19 @@
       </c>
       <c r="D10" s="15">
         <f>G10/$G$5*20+BJ10*$BJ$5</f>
-        <v>9.9327956989247319</v>
+        <v>12.526881720430108</v>
       </c>
       <c r="E10" s="15">
         <f>F10/$G$6*20+BJ10*$BJ$6</f>
-        <v>9.8500000000000014</v>
+        <v>11.45</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="4"/>
-        <v>23.375</v>
+        <v>27.375</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="5"/>
-        <v>69.125</v>
+        <v>93.25</v>
       </c>
       <c r="H10" s="59">
         <v>1</v>
@@ -5034,18 +5058,42 @@
       <c r="O10" s="59">
         <v>0.75</v>
       </c>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
+      <c r="P10" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="R10" s="59">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="X10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>0</v>
+      </c>
       <c r="AB10" s="59">
         <v>1</v>
       </c>
@@ -5163,7 +5211,7 @@
     </row>
     <row r="11" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -5171,19 +5219,19 @@
       </c>
       <c r="D11" s="15">
         <f>G11/$G$5*20+BJ11*$BJ$5</f>
-        <v>15.43010752688172</v>
+        <v>19.050537634408606</v>
       </c>
       <c r="E11" s="15">
         <f>F11/$G$6*20+BJ11*$BJ$6</f>
-        <v>14.100000000000001</v>
+        <v>17.096</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="4"/>
-        <v>32.75</v>
+        <v>40.24</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="5"/>
-        <v>97</v>
+        <v>130.67000000000002</v>
       </c>
       <c r="H11" s="59">
         <v>1</v>
@@ -5203,18 +5251,42 @@
       </c>
       <c r="N11" s="56"/>
       <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
+      <c r="P11" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="59">
+        <v>1</v>
+      </c>
+      <c r="R11" s="59">
+        <v>1</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="U11" s="9">
+        <v>1</v>
+      </c>
+      <c r="V11" s="9">
+        <v>1</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>0.5</v>
+      </c>
       <c r="AB11" s="59">
         <v>1</v>
       </c>
@@ -5334,7 +5406,7 @@
     </row>
     <row r="12" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -5342,19 +5414,19 @@
       </c>
       <c r="D12" s="15">
         <f>G12/$G$5*20+BJ12*$BJ$5</f>
-        <v>14.845430107526882</v>
+        <v>21.538978494623656</v>
       </c>
       <c r="E12" s="15">
         <f>F12/$G$6*20+BJ12*$BJ$6</f>
-        <v>14.275</v>
+        <v>18.875</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="4"/>
-        <v>33.5</v>
+        <v>45</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="5"/>
-        <v>97.375</v>
+        <v>159.625</v>
       </c>
       <c r="H12" s="59">
         <v>1</v>
@@ -5374,18 +5446,42 @@
       </c>
       <c r="N12" s="56"/>
       <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
+      <c r="P12" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="59">
+        <v>1</v>
+      </c>
+      <c r="R12" s="59">
+        <v>1</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="U12" s="9">
+        <v>1</v>
+      </c>
+      <c r="V12" s="9">
+        <v>1</v>
+      </c>
+      <c r="W12" s="9">
+        <v>1</v>
+      </c>
+      <c r="X12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>1</v>
+      </c>
       <c r="AB12" s="59">
         <v>1</v>
       </c>
@@ -5507,7 +5603,7 @@
     </row>
     <row r="13" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="110"/>
       <c r="C13" s="110" t="s">
@@ -5547,18 +5643,42 @@
       </c>
       <c r="N13" s="56"/>
       <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
+      <c r="P13" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="59">
+        <v>0</v>
+      </c>
+      <c r="R13" s="59">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>0</v>
+      </c>
       <c r="AB13" s="59">
         <v>1</v>
       </c>
@@ -5680,7 +5800,7 @@
     </row>
     <row r="14" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -5688,19 +5808,19 @@
       </c>
       <c r="D14" s="15">
         <f>G14/$G$5*20+BJ14*$BJ$5</f>
-        <v>14.778225806451612</v>
+        <v>21.364247311827956</v>
       </c>
       <c r="E14" s="15">
         <f>F14/$G$6*20+BJ14*$BJ$6</f>
-        <v>14.225</v>
+        <v>18.774999999999999</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="4"/>
-        <v>33.375</v>
+        <v>44.75</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="5"/>
-        <v>96.75</v>
+        <v>158</v>
       </c>
       <c r="H14" s="59">
         <v>1</v>
@@ -5720,18 +5840,42 @@
       </c>
       <c r="N14" s="56"/>
       <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
+      <c r="P14" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="59">
+        <v>1</v>
+      </c>
+      <c r="R14" s="59">
+        <v>1</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="U14" s="9">
+        <v>1</v>
+      </c>
+      <c r="V14" s="9">
+        <v>1</v>
+      </c>
+      <c r="W14" s="9">
+        <v>1</v>
+      </c>
+      <c r="X14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>0.875</v>
+      </c>
       <c r="AB14" s="59">
         <v>1</v>
       </c>
@@ -5853,25 +5997,25 @@
     </row>
     <row r="15" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="15">
         <f>G15/$G$5*20+BJ15*$BJ$5</f>
-        <v>7.9032258064516121</v>
+        <v>8.4677419354838719</v>
       </c>
       <c r="E15" s="15">
         <f>F15/$G$6*20+BJ15*$BJ$6</f>
-        <v>8.85</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="4"/>
-        <v>21.5</v>
+        <v>23.25</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="5"/>
-        <v>61.875</v>
+        <v>67.125</v>
       </c>
       <c r="H15" s="59">
         <v>1</v>
@@ -5893,18 +6037,42 @@
         <v>0.75</v>
       </c>
       <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
+      <c r="P15" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="R15" s="59">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="X15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>0.125</v>
+      </c>
       <c r="AB15" s="59">
         <v>1</v>
       </c>
@@ -6024,25 +6192,25 @@
     </row>
     <row r="16" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="15">
         <f>G16/$G$5*20+BJ16*$BJ$5</f>
-        <v>14.952956989247312</v>
+        <v>15.168010752688172</v>
       </c>
       <c r="E16" s="15">
         <f>F16/$G$6*20+BJ16*$BJ$6</f>
-        <v>14.324999999999999</v>
+        <v>15.125</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="4"/>
-        <v>33.625</v>
+        <v>35.625</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="5"/>
-        <v>98.375</v>
+        <v>100.375</v>
       </c>
       <c r="H16" s="59">
         <v>1</v>
@@ -6062,18 +6230,42 @@
       </c>
       <c r="N16" s="56"/>
       <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
+      <c r="P16" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="59">
+        <v>1</v>
+      </c>
+      <c r="R16" s="59">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>0</v>
+      </c>
       <c r="AB16" s="59">
         <v>1</v>
       </c>
@@ -6198,25 +6390,25 @@
     </row>
     <row r="17" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="15">
         <f>G17/$G$5*20+BJ17*$BJ$5</f>
-        <v>12.39247311827957</v>
+        <v>17.258064516129032</v>
       </c>
       <c r="E17" s="15">
         <f>F17/$G$6*20+BJ17*$BJ$6</f>
-        <v>13.149999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="4"/>
-        <v>31.625</v>
+        <v>40.25</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="5"/>
-        <v>92</v>
+        <v>137.25</v>
       </c>
       <c r="H17" s="59">
         <v>0</v>
@@ -6236,18 +6428,42 @@
       </c>
       <c r="N17" s="56"/>
       <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
+      <c r="P17" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="59">
+        <v>1</v>
+      </c>
+      <c r="R17" s="59">
+        <v>1</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="W17" s="9">
+        <v>1</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>0</v>
+      </c>
       <c r="AB17" s="59">
         <v>1</v>
       </c>
@@ -6367,25 +6583,25 @@
     </row>
     <row r="18" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="15">
         <f>G18/$G$5*20+BJ18*$BJ$5</f>
-        <v>14.495967741935484</v>
+        <v>15.51747311827957</v>
       </c>
       <c r="E18" s="15">
         <f>F18/$G$6*20+BJ18*$BJ$6</f>
-        <v>12.674999999999999</v>
+        <v>14.225</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="4"/>
-        <v>29.5</v>
+        <v>33.375</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="5"/>
-        <v>94.125</v>
+        <v>103.625</v>
       </c>
       <c r="H18" s="59">
         <v>1</v>
@@ -6407,18 +6623,42 @@
         <v>0.75</v>
       </c>
       <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
+      <c r="P18" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="59">
+        <v>1</v>
+      </c>
+      <c r="R18" s="59">
+        <v>1</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>0</v>
+      </c>
       <c r="AB18" s="59">
         <v>1</v>
       </c>
@@ -6538,7 +6778,7 @@
     </row>
     <row r="19" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6739,25 +6979,25 @@
     </row>
     <row r="20" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="15">
         <f>G20/$G$5*20+BJ20*$BJ$5</f>
-        <v>11.653225806451612</v>
+        <v>11.868279569892472</v>
       </c>
       <c r="E20" s="15">
         <f>F20/$G$6*20+BJ20*$BJ$6</f>
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="4"/>
-        <v>25.625</v>
+        <v>27.625</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="5"/>
-        <v>73.5</v>
+        <v>75.5</v>
       </c>
       <c r="H20" s="59">
         <v>1</v>
@@ -6777,18 +7017,42 @@
       </c>
       <c r="N20" s="56"/>
       <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
+      <c r="P20" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="59">
+        <v>1</v>
+      </c>
+      <c r="R20" s="59">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>0</v>
+      </c>
       <c r="AB20" s="59">
         <v>1</v>
       </c>
@@ -6908,25 +7172,25 @@
     </row>
     <row r="21" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="15">
         <f>G21/$G$5*20+BJ21*$BJ$5</f>
-        <v>15.698924731182796</v>
+        <v>22.446236559139784</v>
       </c>
       <c r="E21" s="15">
         <f>F21/$G$6*20+BJ21*$BJ$6</f>
-        <v>14.5</v>
+        <v>19.3</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="4"/>
-        <v>33.75</v>
+        <v>45.75</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="5"/>
-        <v>99.5</v>
+        <v>162.25</v>
       </c>
       <c r="H21" s="59">
         <v>0</v>
@@ -6946,18 +7210,42 @@
       </c>
       <c r="N21" s="56"/>
       <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
+      <c r="P21" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="59">
+        <v>1</v>
+      </c>
+      <c r="R21" s="59">
+        <v>1</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="U21" s="9">
+        <v>1</v>
+      </c>
+      <c r="V21" s="9">
+        <v>1</v>
+      </c>
+      <c r="W21" s="9">
+        <v>1</v>
+      </c>
+      <c r="X21" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>1</v>
+      </c>
       <c r="AB21" s="59">
         <v>1</v>
       </c>
@@ -7077,12 +7365,12 @@
         <v>99</v>
       </c>
       <c r="BP21" s="58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -7251,7 +7539,7 @@
     </row>
     <row r="23" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -7423,7 +7711,7 @@
     </row>
     <row r="24" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -7592,7 +7880,7 @@
     </row>
     <row r="25" spans="1:68" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -7761,7 +8049,7 @@
     </row>
     <row r="26" spans="1:68" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -7930,7 +8218,7 @@
     </row>
     <row r="27" spans="1:68" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -8606,51 +8894,51 @@
       </c>
       <c r="P33" s="58">
         <f>AVERAGE(P8:P24)</f>
-        <v>1</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="Q33" s="58">
         <f>AVERAGE(Q8:Q24)</f>
-        <v>0.125</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="R33" s="58">
         <f>AVERAGE(R8:R24)</f>
-        <v>0</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="S33" s="58">
         <f>AVERAGE(S8:S24)</f>
-        <v>0</v>
+        <v>0.34615384615384615</v>
       </c>
       <c r="T33" s="58">
         <f>AVERAGE(T8:T24)</f>
-        <v>0</v>
+        <v>0.40384615384615385</v>
       </c>
       <c r="U33" s="58">
         <f>AVERAGE(U8:U24)</f>
-        <v>0</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="V33" s="58">
         <f>AVERAGE(V8:V24)</f>
-        <v>0</v>
+        <v>0.45192307692307693</v>
       </c>
       <c r="W33" s="58">
         <f>AVERAGE(W8:W24)</f>
-        <v>0</v>
+        <v>0.47115384615384615</v>
       </c>
       <c r="X33" s="58">
         <f>AVERAGE(X8:X24)</f>
-        <v>0</v>
+        <v>0.45192307692307693</v>
       </c>
       <c r="Y33" s="58">
         <f>AVERAGE(Y8:Y24)</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="Z33" s="58">
         <f>AVERAGE(Z8:Z24)</f>
-        <v>0</v>
+        <v>0.51846153846153853</v>
       </c>
       <c r="AA33" s="58">
         <f>AVERAGE(AA8:AA24)</f>
-        <v>0</v>
+        <v>0.34615384615384615</v>
       </c>
       <c r="AB33" s="58">
         <f>AVERAGE(AB8:AB27)</f>
@@ -8814,7 +9102,7 @@
       </c>
       <c r="BP33" s="58">
         <f>AVERAGE(BP8:BP24)</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="34" spans="1:68" s="58" customFormat="1" x14ac:dyDescent="0.25">
@@ -8878,7 +9166,7 @@
     <row r="39" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G39" s="2">
         <f>+SUM(H39:BP39)</f>
-        <v>105.25</v>
+        <v>167.5</v>
       </c>
       <c r="H39" s="58">
         <f>H8*H$5</f>
@@ -8914,51 +9202,51 @@
       </c>
       <c r="P39" s="58">
         <f>P8*P$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="58">
         <f>Q8*Q$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="58">
         <f>R8*R$5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39" s="58">
         <f>S8*S$5</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T39" s="58">
         <f>T8*T$5</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="U39" s="58">
         <f>U8*U$5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V39" s="58">
         <f>V8*V$5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W39" s="58">
         <f>W8*W$5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X39" s="58">
         <f>X8*X$5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y39" s="58">
         <f>Y8*Y$5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z39" s="58">
         <f>Z8*Z$5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA39" s="58">
         <f>AA8*AA$5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB39" s="58">
         <f>AB8*AB$5</f>
@@ -9378,7 +9666,7 @@
     <row r="41" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G41" s="58">
         <f>+SUM(H41:BP41)</f>
-        <v>69.125</v>
+        <v>93.25</v>
       </c>
       <c r="H41" s="58">
         <f t="shared" ref="H41:BP41" si="10">H10*H$5</f>
@@ -9414,11 +9702,11 @@
       </c>
       <c r="P41" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="R41" s="58">
         <f t="shared" si="10"/>
@@ -9442,11 +9730,11 @@
       </c>
       <c r="W41" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X41" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y41" s="58">
         <f t="shared" si="10"/>
@@ -9454,7 +9742,7 @@
       </c>
       <c r="Z41" s="58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA41" s="58">
         <f t="shared" si="10"/>
@@ -9628,7 +9916,7 @@
     <row r="42" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G42" s="58">
         <f>+SUM(H42:BP42)</f>
-        <v>97</v>
+        <v>130.67000000000002</v>
       </c>
       <c r="H42" s="58">
         <f t="shared" ref="H42:BP42" si="14">H11*H$5</f>
@@ -9664,31 +9952,31 @@
       </c>
       <c r="P42" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q42" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S42" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T42" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="U42" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V42" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W42" s="58">
         <f t="shared" si="14"/>
@@ -9704,11 +9992,11 @@
       </c>
       <c r="Z42" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="AA42" s="58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB42" s="58">
         <f t="shared" si="14"/>
@@ -9878,7 +10166,7 @@
     <row r="43" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G43" s="58">
         <f>+SUM(H43:BP43)</f>
-        <v>97.375</v>
+        <v>159.625</v>
       </c>
       <c r="H43" s="58">
         <f t="shared" ref="H43:BP43" si="18">H12*H$5</f>
@@ -9914,51 +10202,51 @@
       </c>
       <c r="P43" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S43" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T43" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="U43" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V43" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W43" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X43" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y43" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z43" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA43" s="58">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB43" s="58">
         <f t="shared" si="18"/>
@@ -10384,7 +10672,7 @@
     <row r="45" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G45" s="58">
         <f>+SUM(H45:BP45)</f>
-        <v>96.75</v>
+        <v>158</v>
       </c>
       <c r="H45" s="58">
         <f t="shared" ref="H45:BP45" si="26">H14*H$5</f>
@@ -10420,51 +10708,51 @@
       </c>
       <c r="P45" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S45" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T45" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="U45" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V45" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W45" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X45" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y45" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z45" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA45" s="58">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB45" s="58">
         <f t="shared" si="26"/>
@@ -10634,7 +10922,7 @@
     <row r="46" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G46" s="58">
         <f>+SUM(H46:BP46)</f>
-        <v>61.875</v>
+        <v>67.125</v>
       </c>
       <c r="H46" s="58">
         <f t="shared" ref="H46:BP46" si="30">H15*H$5</f>
@@ -10670,11 +10958,11 @@
       </c>
       <c r="P46" s="58">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="58">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R46" s="58">
         <f t="shared" si="30"/>
@@ -10698,7 +10986,7 @@
       </c>
       <c r="W46" s="58">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" s="58">
         <f t="shared" si="30"/>
@@ -10710,11 +10998,11 @@
       </c>
       <c r="Z46" s="58">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA46" s="58">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46" s="58">
         <f t="shared" si="30"/>
@@ -10884,7 +11172,7 @@
     <row r="47" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G47" s="58">
         <f>+SUM(H47:BP47)</f>
-        <v>98.375</v>
+        <v>100.375</v>
       </c>
       <c r="H47" s="58">
         <f t="shared" ref="H47:BP47" si="34">H16*H$5</f>
@@ -10920,11 +11208,11 @@
       </c>
       <c r="P47" s="58">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="58">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="58">
         <f t="shared" si="34"/>
@@ -11134,7 +11422,7 @@
     <row r="48" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G48" s="58">
         <f>+SUM(H48:BP48)</f>
-        <v>92</v>
+        <v>137.25</v>
       </c>
       <c r="H48" s="58">
         <f t="shared" ref="H48:BP48" si="38">H17*H$5</f>
@@ -11170,23 +11458,23 @@
       </c>
       <c r="P48" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S48" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T48" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="U48" s="58">
         <f t="shared" si="38"/>
@@ -11194,23 +11482,23 @@
       </c>
       <c r="V48" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W48" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X48" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y48" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z48" s="58">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA48" s="58">
         <f t="shared" si="38"/>
@@ -11384,7 +11672,7 @@
     <row r="49" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G49" s="58">
         <f>+SUM(H49:BP49)</f>
-        <v>94.125</v>
+        <v>103.625</v>
       </c>
       <c r="H49" s="58">
         <f t="shared" ref="H49:BP49" si="42">H18*H$5</f>
@@ -11420,15 +11708,15 @@
       </c>
       <c r="P49" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S49" s="58">
         <f t="shared" si="42"/>
@@ -11436,7 +11724,7 @@
       </c>
       <c r="T49" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="U49" s="58">
         <f t="shared" si="42"/>
@@ -11448,7 +11736,7 @@
       </c>
       <c r="W49" s="58">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" s="58">
         <f t="shared" si="42"/>
@@ -11888,7 +12176,7 @@
       <c r="F51" s="46"/>
       <c r="G51" s="58">
         <f>+SUM(H51:BP51)</f>
-        <v>73.5</v>
+        <v>75.5</v>
       </c>
       <c r="H51" s="58">
         <f t="shared" ref="H51:BP51" si="50">H20*H$5</f>
@@ -11924,11 +12212,11 @@
       </c>
       <c r="P51" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="58">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="58">
         <f t="shared" si="50"/>
@@ -12142,7 +12430,7 @@
       <c r="F52" s="46"/>
       <c r="G52" s="58">
         <f>+SUM(H52:BP52)</f>
-        <v>99.5</v>
+        <v>162.25</v>
       </c>
       <c r="H52" s="58">
         <f t="shared" ref="H52:BP52" si="54">H21*H$5</f>
@@ -12178,51 +12466,51 @@
       </c>
       <c r="P52" s="58">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="58">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="58">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S52" s="58">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T52" s="58">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="U52" s="58">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V52" s="58">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W52" s="58">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X52" s="58">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y52" s="58">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z52" s="58">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA52" s="58">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB52" s="58">
         <f t="shared" si="54"/>
@@ -12386,7 +12674,7 @@
       </c>
       <c r="BP52" s="58">
         <f t="shared" si="54"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:68" x14ac:dyDescent="0.25">
@@ -15250,7 +15538,7 @@
       <c r="F65" s="46"/>
       <c r="G65" s="58">
         <f>+SUM(H65:BP65)</f>
-        <v>37.125</v>
+        <v>48.625</v>
       </c>
       <c r="H65" s="58">
         <f>H8*H$6</f>
@@ -15286,51 +15574,51 @@
       </c>
       <c r="P65" s="58">
         <f>P8*P$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="58">
         <f>Q8*Q$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="58">
         <f>R8*R$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="58">
         <f>S8*S$6</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T65" s="58">
         <f>T8*T$6</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="U65" s="58">
         <f>U8*U$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65" s="58">
         <f>V8*V$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W65" s="58">
         <f>W8*W$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" s="58">
         <f>X8*X$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y65" s="58">
         <f>Y8*Y$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z65" s="58">
         <f>Z8*Z$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA65" s="58">
         <f>AA8*AA$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB65" s="58">
         <f>AB8*AB$6</f>
@@ -15762,7 +16050,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="58">
         <f>+SUM(H67:BP67)</f>
-        <v>23.375</v>
+        <v>27.375</v>
       </c>
       <c r="H67" s="58">
         <f t="shared" ref="H67:BP67" si="106">H10*H$6</f>
@@ -15798,11 +16086,11 @@
       </c>
       <c r="P67" s="58">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="58">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="R67" s="58">
         <f t="shared" si="106"/>
@@ -15826,11 +16114,11 @@
       </c>
       <c r="W67" s="58">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="X67" s="58">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y67" s="58">
         <f t="shared" si="106"/>
@@ -15838,7 +16126,7 @@
       </c>
       <c r="Z67" s="58">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA67" s="58">
         <f t="shared" si="106"/>
@@ -16018,7 +16306,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="58">
         <f>+SUM(H68:BP68)</f>
-        <v>32.75</v>
+        <v>40.24</v>
       </c>
       <c r="H68" s="58">
         <f t="shared" ref="H68:BP68" si="110">H11*H$6</f>
@@ -16054,31 +16342,31 @@
       </c>
       <c r="P68" s="58">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q68" s="58">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="58">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" s="58">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T68" s="58">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="U68" s="58">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68" s="58">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W68" s="58">
         <f t="shared" si="110"/>
@@ -16094,11 +16382,11 @@
       </c>
       <c r="Z68" s="58">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA68" s="58">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB68" s="58">
         <f t="shared" si="110"/>
@@ -16270,7 +16558,7 @@
       <c r="E69" s="12"/>
       <c r="G69" s="58">
         <f>+SUM(H69:BP69)</f>
-        <v>33.5</v>
+        <v>45</v>
       </c>
       <c r="H69" s="58">
         <f t="shared" ref="H69:BP69" si="114">H12*H$6</f>
@@ -16306,51 +16594,51 @@
       </c>
       <c r="P69" s="58">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="58">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="58">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="58">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T69" s="58">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="U69" s="58">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69" s="58">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69" s="58">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X69" s="58">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69" s="58">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z69" s="58">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA69" s="58">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB69" s="58">
         <f t="shared" si="114"/>
@@ -16782,7 +17070,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="58">
         <f>+SUM(H71:BP71)</f>
-        <v>33.375</v>
+        <v>44.75</v>
       </c>
       <c r="H71" s="58">
         <f t="shared" ref="H71:BP71" si="122">H14*H$6</f>
@@ -16818,51 +17106,51 @@
       </c>
       <c r="P71" s="58">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="58">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="58">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" s="58">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T71" s="58">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="U71" s="58">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V71" s="58">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W71" s="58">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X71" s="58">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y71" s="58">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z71" s="58">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA71" s="58">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB71" s="58">
         <f t="shared" si="122"/>
@@ -17038,7 +17326,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="58">
         <f>+SUM(H72:BP72)</f>
-        <v>21.5</v>
+        <v>23.25</v>
       </c>
       <c r="H72" s="58">
         <f t="shared" ref="H72:BP72" si="126">H15*H$6</f>
@@ -17074,11 +17362,11 @@
       </c>
       <c r="P72" s="58">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="58">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R72" s="58">
         <f t="shared" si="126"/>
@@ -17102,7 +17390,7 @@
       </c>
       <c r="W72" s="58">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="X72" s="58">
         <f t="shared" si="126"/>
@@ -17114,11 +17402,11 @@
       </c>
       <c r="Z72" s="58">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AA72" s="58">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AB72" s="58">
         <f t="shared" si="126"/>
@@ -17288,7 +17576,7 @@
     <row r="73" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G73" s="58">
         <f>+SUM(H73:BP73)</f>
-        <v>33.625</v>
+        <v>35.625</v>
       </c>
       <c r="H73" s="58">
         <f t="shared" ref="H73:BP73" si="130">H16*H$6</f>
@@ -17324,11 +17612,11 @@
       </c>
       <c r="P73" s="58">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="58">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="58">
         <f t="shared" si="130"/>
@@ -17538,7 +17826,7 @@
     <row r="74" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G74" s="58">
         <f>+SUM(H74:BP74)</f>
-        <v>31.625</v>
+        <v>40.25</v>
       </c>
       <c r="H74" s="58">
         <f t="shared" ref="H74:BP74" si="134">H17*H$6</f>
@@ -17574,23 +17862,23 @@
       </c>
       <c r="P74" s="58">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="58">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="58">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74" s="58">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T74" s="58">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="U74" s="58">
         <f t="shared" si="134"/>
@@ -17598,23 +17886,23 @@
       </c>
       <c r="V74" s="58">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="W74" s="58">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74" s="58">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Y74" s="58">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z74" s="58">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA74" s="58">
         <f t="shared" si="134"/>
@@ -17788,7 +18076,7 @@
     <row r="75" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G75" s="58">
         <f>+SUM(H75:BP75)</f>
-        <v>29.5</v>
+        <v>33.375</v>
       </c>
       <c r="H75" s="58">
         <f t="shared" ref="H75:BP75" si="138">H18*H$6</f>
@@ -17824,15 +18112,15 @@
       </c>
       <c r="P75" s="58">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75" s="58">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="58">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="58">
         <f t="shared" si="138"/>
@@ -17840,7 +18128,7 @@
       </c>
       <c r="T75" s="58">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="U75" s="58">
         <f t="shared" si="138"/>
@@ -17852,7 +18140,7 @@
       </c>
       <c r="W75" s="58">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="X75" s="58">
         <f t="shared" si="138"/>
@@ -18294,7 +18582,7 @@
     <row r="77" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G77" s="58">
         <f>+SUM(H77:BP77)</f>
-        <v>25.625</v>
+        <v>27.625</v>
       </c>
       <c r="H77" s="58">
         <f t="shared" ref="H77:BP77" si="146">H20*H$6</f>
@@ -18330,11 +18618,11 @@
       </c>
       <c r="P77" s="58">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77" s="58">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="58">
         <f t="shared" si="146"/>
@@ -18544,7 +18832,7 @@
     <row r="78" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G78" s="58">
         <f>+SUM(H78:BP78)</f>
-        <v>33.75</v>
+        <v>45.75</v>
       </c>
       <c r="H78" s="58">
         <f t="shared" ref="H78:BP78" si="150">H21*H$6</f>
@@ -18580,51 +18868,51 @@
       </c>
       <c r="P78" s="58">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="58">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="58">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" s="58">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T78" s="58">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="U78" s="58">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78" s="58">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W78" s="58">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X78" s="58">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78" s="58">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z78" s="58">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA78" s="58">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB78" s="58">
         <f t="shared" si="150"/>
@@ -18788,7 +19076,7 @@
       </c>
       <c r="BP78" s="58">
         <f t="shared" si="150"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:68" x14ac:dyDescent="0.25">
@@ -22023,14 +22311,14 @@
     <row r="1" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="20"/>
       <c r="C1" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="88"/>
       <c r="F1" s="87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="97"/>
       <c r="H1" s="97"/>
@@ -22063,7 +22351,7 @@
       <c r="AI1" s="98"/>
       <c r="AJ1" s="99"/>
       <c r="AK1" s="94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AL1" s="95"/>
       <c r="AM1" s="95"/>
@@ -22072,7 +22360,7 @@
       <c r="AP1" s="95"/>
       <c r="AQ1" s="96"/>
       <c r="AR1" s="87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AS1" s="88"/>
     </row>
@@ -22107,7 +22395,7 @@
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
       <c r="AC2" s="104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD2" s="108"/>
       <c r="AE2" s="104" t="s">
@@ -22115,7 +22403,7 @@
       </c>
       <c r="AF2" s="108"/>
       <c r="AG2" s="104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH2" s="105"/>
       <c r="AI2" s="108"/>
@@ -22123,7 +22411,7 @@
         <v>7</v>
       </c>
       <c r="AK2" s="104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL2" s="105"/>
       <c r="AM2" s="108"/>
@@ -22132,10 +22420,10 @@
       <c r="AP2" s="23"/>
       <c r="AQ2" s="35"/>
       <c r="AR2" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS2" s="102" t="s">
         <v>50</v>
-      </c>
-      <c r="AS2" s="102" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
@@ -22147,10 +22435,10 @@
         <v>17</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="97"/>
       <c r="H3" s="97"/>
@@ -22158,22 +22446,22 @@
       <c r="J3" s="97"/>
       <c r="K3" s="88"/>
       <c r="L3" s="87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="97"/>
       <c r="N3" s="97"/>
       <c r="O3" s="88"/>
       <c r="P3" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="23" t="s">
-        <v>30</v>
-      </c>
       <c r="R3" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S3" s="104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T3" s="105"/>
       <c r="U3" s="105"/>
@@ -22181,25 +22469,25 @@
       <c r="W3" s="105"/>
       <c r="X3" s="108"/>
       <c r="Y3" s="104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z3" s="105"/>
       <c r="AA3" s="105"/>
       <c r="AB3" s="105"/>
       <c r="AC3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="28" t="s">
-        <v>40</v>
-      </c>
       <c r="AE3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="28" t="s">
-        <v>33</v>
-      </c>
       <c r="AG3" s="93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH3" s="91"/>
       <c r="AI3" s="90"/>
@@ -22207,22 +22495,22 @@
         <v>8</v>
       </c>
       <c r="AK3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AL3" s="18" t="s">
+      <c r="AM3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AM3" s="28" t="s">
-        <v>44</v>
-      </c>
       <c r="AN3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AO3" s="24" t="s">
+      <c r="AP3" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="AP3" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="AQ3" s="37" t="s">
         <v>9</v>
@@ -22236,82 +22524,82 @@
       <c r="D4" s="93"/>
       <c r="E4" s="90"/>
       <c r="F4" s="93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="91" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="91" t="s">
+      <c r="J4" s="91" t="s">
         <v>56</v>
-      </c>
-      <c r="J4" s="91" t="s">
-        <v>57</v>
       </c>
       <c r="K4" s="90"/>
       <c r="L4" s="93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4" s="91" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="90" t="s">
-        <v>56</v>
-      </c>
       <c r="P4" s="89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R4" s="89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S4" s="93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T4" s="91" t="s">
         <v>12</v>
       </c>
       <c r="U4" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="W4" s="109" t="s">
         <v>56</v>
-      </c>
-      <c r="W4" s="109" t="s">
-        <v>57</v>
       </c>
       <c r="X4" s="90"/>
       <c r="Y4" s="93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z4" s="91" t="s">
         <v>12</v>
       </c>
       <c r="AA4" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="92" t="s">
         <v>55</v>
-      </c>
-      <c r="AB4" s="92" t="s">
-        <v>56</v>
       </c>
       <c r="AC4" s="27"/>
       <c r="AD4" s="28"/>
       <c r="AE4" s="27"/>
       <c r="AF4" s="28"/>
       <c r="AG4" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AH4" s="18" t="s">
+      <c r="AI4" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="AI4" s="28" t="s">
-        <v>65</v>
       </c>
       <c r="AJ4" s="24"/>
       <c r="AK4" s="27"/>
@@ -22334,10 +22622,10 @@
       <c r="H5" s="91"/>
       <c r="I5" s="91"/>
       <c r="J5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>59</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="L5" s="93"/>
       <c r="M5" s="91"/>
@@ -22351,10 +22639,10 @@
       <c r="U5" s="91"/>
       <c r="V5" s="91"/>
       <c r="W5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" s="28" t="s">
         <v>61</v>
-      </c>
-      <c r="X5" s="28" t="s">
-        <v>62</v>
       </c>
       <c r="Y5" s="93"/>
       <c r="Z5" s="91"/>
@@ -22472,7 +22760,7 @@
     </row>
     <row r="8" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="29"/>
@@ -22520,7 +22808,7 @@
     </row>
     <row r="9" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="29"/>
@@ -22568,7 +22856,7 @@
     </row>
     <row r="10" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="29"/>
@@ -22616,7 +22904,7 @@
     </row>
     <row r="11" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="29"/>
@@ -22664,7 +22952,7 @@
     </row>
     <row r="12" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="29"/>
@@ -22712,7 +23000,7 @@
     </row>
     <row r="13" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="29"/>

--- a/BaremeJavaBaseTest1_KL16.xlsx
+++ b/BaremeJavaBaseTest1_KL16.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603A8C7B-3043-4720-AF2F-E4BEA3344BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0F366D-B9C5-4A6C-94EC-E3A1E2ECA799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3694,9 +3694,9 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1545" ySplit="3975" topLeftCell="P8" activePane="bottomRight"/>
       <selection activeCell="B1" sqref="B1:C1048576"/>
-      <selection pane="topRight" activeCell="T4" sqref="T4"/>
+      <selection pane="topRight" activeCell="X5" sqref="X5"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
-      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
+      <selection pane="bottomRight" activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="D3" s="10" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G5,")")</f>
-        <v>Note/20 ( sur 186)</v>
+        <v>Note/20 ( sur 182)</v>
       </c>
       <c r="E3" s="11" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="G3" s="6" t="str">
         <f>CONCATENATE("Note/",G5)</f>
-        <v>Note/186</v>
+        <v>Note/182</v>
       </c>
       <c r="H3" s="131"/>
       <c r="I3" s="162"/>
@@ -4202,7 +4202,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6">
         <f>SUM(H5:BI5)</f>
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H5" s="159">
         <v>1</v>
@@ -4250,7 +4250,7 @@
         <v>8</v>
       </c>
       <c r="W5" s="62">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X5" s="62">
         <v>8</v>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="D8" s="15">
         <f>G8/$G$5*20+BJ8*$BJ$5</f>
-        <v>23.010752688172044</v>
+        <v>22.967032967032967</v>
       </c>
       <c r="E8" s="15">
         <f>F8/$G$6*20+BJ8*$BJ$6</f>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="G8" s="8">
         <f>G39</f>
-        <v>167.5</v>
+        <v>163.5</v>
       </c>
       <c r="H8" s="59">
         <v>1</v>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="D9" s="15">
         <f>G9/$G$5*20+BJ9*$BJ$5</f>
-        <v>0.10752688172043012</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="E9" s="15">
         <f>F9/$G$6*20+BJ9*$BJ$6</f>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="D10" s="15">
         <f>G10/$G$5*20+BJ10*$BJ$5</f>
-        <v>12.526881720430108</v>
+        <v>12.362637362637363</v>
       </c>
       <c r="E10" s="15">
         <f>F10/$G$6*20+BJ10*$BJ$6</f>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="G10" s="8">
         <f t="shared" si="5"/>
-        <v>93.25</v>
+        <v>89.75</v>
       </c>
       <c r="H10" s="59">
         <v>1</v>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="D11" s="15">
         <f>G11/$G$5*20+BJ11*$BJ$5</f>
-        <v>19.050537634408606</v>
+        <v>19.35934065934066</v>
       </c>
       <c r="E11" s="15">
         <f>F11/$G$6*20+BJ11*$BJ$6</f>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="D12" s="15">
         <f>G12/$G$5*20+BJ12*$BJ$5</f>
-        <v>21.538978494623656</v>
+        <v>21.47664835164835</v>
       </c>
       <c r="E12" s="15">
         <f>F12/$G$6*20+BJ12*$BJ$6</f>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="G12" s="8">
         <f t="shared" si="5"/>
-        <v>159.625</v>
+        <v>155.625</v>
       </c>
       <c r="H12" s="59">
         <v>1</v>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="D13" s="15">
         <f>G13/$G$5*20+BJ13*$BJ$5</f>
-        <v>11.075268817204302</v>
+        <v>11.263736263736263</v>
       </c>
       <c r="E13" s="15">
         <f>F13/$G$6*20+BJ13*$BJ$6</f>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="D14" s="15">
         <f>G14/$G$5*20+BJ14*$BJ$5</f>
-        <v>21.364247311827956</v>
+        <v>21.298076923076923</v>
       </c>
       <c r="E14" s="15">
         <f>F14/$G$6*20+BJ14*$BJ$6</f>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="G14" s="8">
         <f t="shared" si="5"/>
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H14" s="59">
         <v>1</v>
@@ -6003,7 +6003,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="15">
         <f>G15/$G$5*20+BJ15*$BJ$5</f>
-        <v>8.4677419354838719</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="E15" s="15">
         <f>F15/$G$6*20+BJ15*$BJ$6</f>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="G15" s="8">
         <f t="shared" si="5"/>
-        <v>67.125</v>
+        <v>66.625</v>
       </c>
       <c r="H15" s="59">
         <v>1</v>
@@ -6198,7 +6198,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="15">
         <f>G16/$G$5*20+BJ16*$BJ$5</f>
-        <v>15.168010752688172</v>
+        <v>15.405219780219781</v>
       </c>
       <c r="E16" s="15">
         <f>F16/$G$6*20+BJ16*$BJ$6</f>
@@ -6396,7 +6396,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="15">
         <f>G17/$G$5*20+BJ17*$BJ$5</f>
-        <v>17.258064516129032</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="E17" s="15">
         <f>F17/$G$6*20+BJ17*$BJ$6</f>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="G17" s="8">
         <f t="shared" si="5"/>
-        <v>137.25</v>
+        <v>133.25</v>
       </c>
       <c r="H17" s="59">
         <v>0</v>
@@ -6589,7 +6589,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="15">
         <f>G18/$G$5*20+BJ18*$BJ$5</f>
-        <v>15.51747311827957</v>
+        <v>15.707417582417582</v>
       </c>
       <c r="E18" s="15">
         <f>F18/$G$6*20+BJ18*$BJ$6</f>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="G18" s="8">
         <f t="shared" si="5"/>
-        <v>103.625</v>
+        <v>103.125</v>
       </c>
       <c r="H18" s="59">
         <v>1</v>
@@ -6784,7 +6784,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="15">
         <f>G19/$G$5*20+BJ19*$BJ$5</f>
-        <v>2.620967741935484</v>
+        <v>2.6785714285714284</v>
       </c>
       <c r="E19" s="15">
         <f>F19/$G$6*20+BJ19*$BJ$6</f>
@@ -6985,7 +6985,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="15">
         <f>G20/$G$5*20+BJ20*$BJ$5</f>
-        <v>11.868279569892472</v>
+        <v>12.046703296703297</v>
       </c>
       <c r="E20" s="15">
         <f>F20/$G$6*20+BJ20*$BJ$6</f>
@@ -7178,7 +7178,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="15">
         <f>G21/$G$5*20+BJ21*$BJ$5</f>
-        <v>22.446236559139784</v>
+        <v>22.390109890109891</v>
       </c>
       <c r="E21" s="15">
         <f>F21/$G$6*20+BJ21*$BJ$6</f>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="G21" s="8">
         <f t="shared" si="5"/>
-        <v>162.25</v>
+        <v>158.25</v>
       </c>
       <c r="H21" s="59">
         <v>0</v>
@@ -7376,19 +7376,19 @@
       <c r="C22" s="4"/>
       <c r="D22" s="15">
         <f>G22/$G$5*20+BJ22*$BJ$5</f>
-        <v>10.920698924731182</v>
+        <v>12.603021978021978</v>
       </c>
       <c r="E22" s="15">
         <f>F22/$G$6*20+BJ22*$BJ$6</f>
-        <v>10.625</v>
+        <v>12.225</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="4"/>
-        <v>24.375</v>
+        <v>28.375</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="5"/>
-        <v>60.875</v>
+        <v>74.875</v>
       </c>
       <c r="H22" s="59">
         <v>1</v>
@@ -7408,18 +7408,42 @@
       </c>
       <c r="N22" s="56"/>
       <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
+      <c r="P22" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="59">
+        <v>1</v>
+      </c>
+      <c r="R22" s="59">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <v>1</v>
+      </c>
+      <c r="X22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>0</v>
+      </c>
       <c r="AB22" s="59">
         <v>1</v>
       </c>
@@ -7545,19 +7569,19 @@
       <c r="C23" s="4"/>
       <c r="D23" s="15">
         <f>G23/$G$5*20+BJ23*$BJ$5</f>
-        <v>13.138440860215054</v>
+        <v>19.77335164835165</v>
       </c>
       <c r="E23" s="15">
         <f>F23/$G$6*20+BJ23*$BJ$6</f>
-        <v>12.274999999999999</v>
+        <v>16.925000000000001</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="4"/>
-        <v>28.5</v>
+        <v>40.125</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="5"/>
-        <v>81.5</v>
+        <v>140.125</v>
       </c>
       <c r="H23" s="59">
         <v>1</v>
@@ -7577,18 +7601,42 @@
       </c>
       <c r="N23" s="56"/>
       <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
+      <c r="P23" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="59">
+        <v>1</v>
+      </c>
+      <c r="R23" s="59">
+        <v>1</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="U23" s="9">
+        <v>1</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="W23" s="9">
+        <v>1</v>
+      </c>
+      <c r="X23" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>1</v>
+      </c>
       <c r="AB23" s="59">
         <v>1</v>
       </c>
@@ -7717,19 +7765,19 @@
       <c r="C24" s="4"/>
       <c r="D24" s="15">
         <f>G24/$G$5*20+BJ24*$BJ$5</f>
-        <v>11.48521505376344</v>
+        <v>17.135989010989011</v>
       </c>
       <c r="E24" s="15">
         <f>F24/$G$6*20+BJ24*$BJ$6</f>
-        <v>10.175000000000001</v>
+        <v>13.975000000000001</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" si="4"/>
-        <v>23.25</v>
+        <v>32.75</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="5"/>
-        <v>66.125</v>
+        <v>116.125</v>
       </c>
       <c r="H24" s="59">
         <v>1</v>
@@ -7749,18 +7797,42 @@
       </c>
       <c r="N24" s="56"/>
       <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
+      <c r="P24" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="59">
+        <v>1</v>
+      </c>
+      <c r="R24" s="59">
+        <v>1</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>1</v>
+      </c>
+      <c r="U24" s="9">
+        <v>0</v>
+      </c>
+      <c r="V24" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W24" s="9">
+        <v>1</v>
+      </c>
+      <c r="X24" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>1</v>
+      </c>
       <c r="AB24" s="59">
         <v>1</v>
       </c>
@@ -7886,19 +7958,19 @@
       <c r="C25" s="5"/>
       <c r="D25" s="15">
         <f>G25/$G$5*20+BJ25*$BJ$5</f>
-        <v>11.638924731182795</v>
+        <v>16.75736263736264</v>
       </c>
       <c r="E25" s="15">
         <f>F25/$G$6*20+BJ25*$BJ$6</f>
-        <v>11.6492</v>
+        <v>14.949199999999999</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="4"/>
-        <v>27.873000000000001</v>
+        <v>36.122999999999998</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="5"/>
-        <v>84.992000000000004</v>
+        <v>129.74200000000002</v>
       </c>
       <c r="H25" s="59">
         <v>0</v>
@@ -7918,18 +7990,42 @@
       </c>
       <c r="N25" s="56"/>
       <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
+      <c r="P25" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="59">
+        <v>1</v>
+      </c>
+      <c r="R25" s="59">
+        <v>0.125</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="U25" s="9">
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="W25" s="9">
+        <v>1</v>
+      </c>
+      <c r="X25" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>1</v>
+      </c>
       <c r="AB25" s="59">
         <v>1</v>
       </c>
@@ -8055,19 +8151,19 @@
       <c r="C26" s="5"/>
       <c r="D26" s="15">
         <f>G26/$G$5*20+BJ26*$BJ$5</f>
-        <v>3.897849462365591</v>
+        <v>5.5219780219780219</v>
       </c>
       <c r="E26" s="15">
         <f>F26/$G$6*20+BJ26*$BJ$6</f>
-        <v>6.6000000000000005</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" si="4"/>
-        <v>16.5</v>
+        <v>21.375</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="5"/>
-        <v>36.25</v>
+        <v>50.25</v>
       </c>
       <c r="H26" s="59">
         <v>1</v>
@@ -8087,18 +8183,42 @@
       </c>
       <c r="N26" s="56"/>
       <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
+      <c r="P26" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="59">
+        <v>1</v>
+      </c>
+      <c r="R26" s="59">
+        <v>1</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="U26" s="9">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="W26" s="9">
+        <v>1</v>
+      </c>
+      <c r="X26" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>0</v>
+      </c>
       <c r="AB26" s="59">
         <v>1</v>
       </c>
@@ -8224,19 +8344,19 @@
       <c r="C27" s="5"/>
       <c r="D27" s="15">
         <f>G27/$G$5*20+BJ27*$BJ$5</f>
-        <v>7.1706989247311821</v>
+        <v>7.4244505494505493</v>
       </c>
       <c r="E27" s="15">
         <f>F27/$G$6*20+BJ27*$BJ$6</f>
-        <v>10.125</v>
+        <v>10.525</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="5"/>
-        <v>60.875</v>
+        <v>61.875</v>
       </c>
       <c r="H27" s="59">
         <v>1</v>
@@ -8256,18 +8376,42 @@
       </c>
       <c r="N27" s="56"/>
       <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
+      <c r="P27" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="59">
+        <v>0</v>
+      </c>
+      <c r="R27" s="59">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
+      <c r="U27" s="9">
+        <v>0</v>
+      </c>
+      <c r="V27" s="9">
+        <v>0</v>
+      </c>
+      <c r="W27" s="9">
+        <v>0</v>
+      </c>
+      <c r="X27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>0</v>
+      </c>
       <c r="AB27" s="59">
         <v>1</v>
       </c>
@@ -8763,7 +8907,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="15">
         <f>G32/$G$5*20+BJ32*$BJ$5</f>
-        <v>53.225806451612897</v>
+        <v>54.395604395604394</v>
       </c>
       <c r="E32" s="15">
         <f>F32/$G$6*20+BJ32*$BJ$6</f>
@@ -8893,52 +9037,52 @@
         <v>0.75</v>
       </c>
       <c r="P33" s="58">
-        <f>AVERAGE(P8:P24)</f>
-        <v>0.88461538461538458</v>
+        <f>AVERAGE(P8:P27)</f>
+        <v>0.92105263157894735</v>
       </c>
       <c r="Q33" s="58">
-        <f>AVERAGE(Q8:Q24)</f>
-        <v>0.73076923076923073</v>
+        <f>AVERAGE(Q8:Q27)</f>
+        <v>0.76315789473684215</v>
       </c>
       <c r="R33" s="58">
-        <f>AVERAGE(R8:R24)</f>
-        <v>0.53846153846153844</v>
+        <f>AVERAGE(R8:R27)</f>
+        <v>0.53289473684210531</v>
       </c>
       <c r="S33" s="58">
-        <f>AVERAGE(S8:S24)</f>
-        <v>0.34615384615384615</v>
+        <f>AVERAGE(S8:S27)</f>
+        <v>0.32236842105263158</v>
       </c>
       <c r="T33" s="58">
-        <f>AVERAGE(T8:T24)</f>
-        <v>0.40384615384615385</v>
+        <f>AVERAGE(T8:T27)</f>
+        <v>0.40789473684210525</v>
       </c>
       <c r="U33" s="58">
-        <f>AVERAGE(U8:U24)</f>
-        <v>0.38461538461538464</v>
+        <f>AVERAGE(U8:U27)</f>
+        <v>0.31578947368421051</v>
       </c>
       <c r="V33" s="58">
-        <f>AVERAGE(V8:V24)</f>
-        <v>0.45192307692307693</v>
+        <f>AVERAGE(V8:V27)</f>
+        <v>0.40789473684210525</v>
       </c>
       <c r="W33" s="58">
-        <f>AVERAGE(W8:W24)</f>
-        <v>0.47115384615384615</v>
+        <f>AVERAGE(W8:W27)</f>
+        <v>0.58552631578947367</v>
       </c>
       <c r="X33" s="58">
-        <f>AVERAGE(X8:X24)</f>
-        <v>0.45192307692307693</v>
+        <f>AVERAGE(X8:X27)</f>
+        <v>0.47368421052631576</v>
       </c>
       <c r="Y33" s="58">
-        <f>AVERAGE(Y8:Y24)</f>
-        <v>0.375</v>
+        <f>AVERAGE(Y8:Y27)</f>
+        <v>0.41447368421052633</v>
       </c>
       <c r="Z33" s="58">
-        <f>AVERAGE(Z8:Z24)</f>
-        <v>0.51846153846153853</v>
+        <f>AVERAGE(Z8:Z27)</f>
+        <v>0.5652631578947368</v>
       </c>
       <c r="AA33" s="58">
-        <f>AVERAGE(AA8:AA24)</f>
-        <v>0.34615384615384615</v>
+        <f>AVERAGE(AA8:AA27)</f>
+        <v>0.39473684210526316</v>
       </c>
       <c r="AB33" s="58">
         <f>AVERAGE(AB8:AB27)</f>
@@ -9166,7 +9310,7 @@
     <row r="39" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G39" s="2">
         <f>+SUM(H39:BP39)</f>
-        <v>167.5</v>
+        <v>163.5</v>
       </c>
       <c r="H39" s="58">
         <f>H8*H$5</f>
@@ -9230,7 +9374,7 @@
       </c>
       <c r="W39" s="58">
         <f>W8*W$5</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X39" s="58">
         <f>X8*X$5</f>
@@ -9666,7 +9810,7 @@
     <row r="41" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G41" s="58">
         <f>+SUM(H41:BP41)</f>
-        <v>93.25</v>
+        <v>89.75</v>
       </c>
       <c r="H41" s="58">
         <f t="shared" ref="H41:BP41" si="10">H10*H$5</f>
@@ -9730,7 +9874,7 @@
       </c>
       <c r="W41" s="58">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="X41" s="58">
         <f t="shared" si="10"/>
@@ -10166,7 +10310,7 @@
     <row r="43" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G43" s="58">
         <f>+SUM(H43:BP43)</f>
-        <v>159.625</v>
+        <v>155.625</v>
       </c>
       <c r="H43" s="58">
         <f t="shared" ref="H43:BP43" si="18">H12*H$5</f>
@@ -10230,7 +10374,7 @@
       </c>
       <c r="W43" s="58">
         <f t="shared" si="18"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X43" s="58">
         <f t="shared" si="18"/>
@@ -10672,7 +10816,7 @@
     <row r="45" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G45" s="58">
         <f>+SUM(H45:BP45)</f>
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H45" s="58">
         <f t="shared" ref="H45:BP45" si="26">H14*H$5</f>
@@ -10736,7 +10880,7 @@
       </c>
       <c r="W45" s="58">
         <f t="shared" si="26"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X45" s="58">
         <f t="shared" si="26"/>
@@ -10922,7 +11066,7 @@
     <row r="46" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G46" s="58">
         <f>+SUM(H46:BP46)</f>
-        <v>67.125</v>
+        <v>66.625</v>
       </c>
       <c r="H46" s="58">
         <f t="shared" ref="H46:BP46" si="30">H15*H$5</f>
@@ -10986,7 +11130,7 @@
       </c>
       <c r="W46" s="58">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X46" s="58">
         <f t="shared" si="30"/>
@@ -11422,7 +11566,7 @@
     <row r="48" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G48" s="58">
         <f>+SUM(H48:BP48)</f>
-        <v>137.25</v>
+        <v>133.25</v>
       </c>
       <c r="H48" s="58">
         <f t="shared" ref="H48:BP48" si="38">H17*H$5</f>
@@ -11486,7 +11630,7 @@
       </c>
       <c r="W48" s="58">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X48" s="58">
         <f t="shared" si="38"/>
@@ -11672,7 +11816,7 @@
     <row r="49" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G49" s="58">
         <f>+SUM(H49:BP49)</f>
-        <v>103.625</v>
+        <v>103.125</v>
       </c>
       <c r="H49" s="58">
         <f t="shared" ref="H49:BP49" si="42">H18*H$5</f>
@@ -11736,7 +11880,7 @@
       </c>
       <c r="W49" s="58">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X49" s="58">
         <f t="shared" si="42"/>
@@ -12430,7 +12574,7 @@
       <c r="F52" s="46"/>
       <c r="G52" s="58">
         <f>+SUM(H52:BP52)</f>
-        <v>162.25</v>
+        <v>158.25</v>
       </c>
       <c r="H52" s="58">
         <f t="shared" ref="H52:BP52" si="54">H21*H$5</f>
@@ -12494,7 +12638,7 @@
       </c>
       <c r="W52" s="58">
         <f t="shared" si="54"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X52" s="58">
         <f t="shared" si="54"/>
@@ -12684,7 +12828,7 @@
       <c r="F53" s="46"/>
       <c r="G53" s="58">
         <f>+SUM(H53:BP53)</f>
-        <v>60.875</v>
+        <v>74.875</v>
       </c>
       <c r="H53" s="58">
         <f t="shared" ref="H53:BP53" si="58">H22*H$5</f>
@@ -12720,11 +12864,11 @@
       </c>
       <c r="P53" s="58">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="58">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="58">
         <f t="shared" si="58"/>
@@ -12748,7 +12892,7 @@
       </c>
       <c r="W53" s="58">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X53" s="58">
         <f t="shared" si="58"/>
@@ -12760,7 +12904,7 @@
       </c>
       <c r="Z53" s="58">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA53" s="58">
         <f t="shared" si="58"/>
@@ -12938,7 +13082,7 @@
       <c r="F54" s="58"/>
       <c r="G54" s="58">
         <f>+SUM(H54:BP54)</f>
-        <v>81.5</v>
+        <v>140.125</v>
       </c>
       <c r="H54" s="58">
         <f t="shared" ref="H54:BP54" si="62">H23*H$5</f>
@@ -12974,51 +13118,51 @@
       </c>
       <c r="P54" s="58">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="58">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="58">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S54" s="58">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>4.375</v>
       </c>
       <c r="T54" s="58">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="U54" s="58">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V54" s="58">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W54" s="58">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X54" s="58">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y54" s="58">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z54" s="58">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA54" s="58">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB54" s="58">
         <f t="shared" si="62"/>
@@ -13192,7 +13336,7 @@
       <c r="F55" s="58"/>
       <c r="G55" s="58">
         <f>+SUM(H55:BP55)</f>
-        <v>66.125</v>
+        <v>116.125</v>
       </c>
       <c r="H55" s="58">
         <f t="shared" ref="H55:BP55" si="66">H24*H$5</f>
@@ -13228,15 +13372,15 @@
       </c>
       <c r="P55" s="58">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="58">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="58">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S55" s="58">
         <f t="shared" si="66"/>
@@ -13244,7 +13388,7 @@
       </c>
       <c r="T55" s="58">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U55" s="58">
         <f t="shared" si="66"/>
@@ -13252,27 +13396,27 @@
       </c>
       <c r="V55" s="58">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W55" s="58">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X55" s="58">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y55" s="58">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z55" s="58">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA55" s="58">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB55" s="58">
         <f t="shared" si="66"/>
@@ -13446,7 +13590,7 @@
       <c r="F56" s="58"/>
       <c r="G56" s="58">
         <f>+SUM(H56:BP56)</f>
-        <v>84.992000000000004</v>
+        <v>129.74200000000002</v>
       </c>
       <c r="H56" s="58">
         <f t="shared" ref="H56:BP56" si="70">H25*H$5</f>
@@ -13482,23 +13626,23 @@
       </c>
       <c r="P56" s="58">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="58">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="58">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S56" s="58">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T56" s="58">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="U56" s="58">
         <f t="shared" si="70"/>
@@ -13506,27 +13650,27 @@
       </c>
       <c r="V56" s="58">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W56" s="58">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X56" s="58">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y56" s="58">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z56" s="58">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA56" s="58">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB56" s="58">
         <f t="shared" si="70"/>
@@ -13698,7 +13842,7 @@
       <c r="E57" s="12"/>
       <c r="G57" s="58">
         <f>+SUM(H57:BP57)</f>
-        <v>36.25</v>
+        <v>50.25</v>
       </c>
       <c r="H57" s="58">
         <f t="shared" ref="H57:BP57" si="74">H26*H$5</f>
@@ -13734,15 +13878,15 @@
       </c>
       <c r="P57" s="58">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="58">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="58">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S57" s="58">
         <f t="shared" si="74"/>
@@ -13750,7 +13894,7 @@
       </c>
       <c r="T57" s="58">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U57" s="58">
         <f t="shared" si="74"/>
@@ -13758,15 +13902,15 @@
       </c>
       <c r="V57" s="58">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W57" s="58">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X57" s="58">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57" s="58">
         <f t="shared" si="74"/>
@@ -13950,7 +14094,7 @@
       <c r="E58" s="12"/>
       <c r="G58" s="58">
         <f>+SUM(H58:BP58)</f>
-        <v>60.875</v>
+        <v>61.875</v>
       </c>
       <c r="H58" s="58">
         <f t="shared" ref="H58:BP58" si="78">H27*H$5</f>
@@ -13986,7 +14130,7 @@
       </c>
       <c r="P58" s="58">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="58">
         <f t="shared" si="78"/>
@@ -19082,7 +19226,7 @@
     <row r="79" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G79" s="58">
         <f>+SUM(H79:BP79)</f>
-        <v>24.375</v>
+        <v>28.375</v>
       </c>
       <c r="H79" s="58">
         <f t="shared" ref="H79:BP79" si="154">H22*H$6</f>
@@ -19118,11 +19262,11 @@
       </c>
       <c r="P79" s="58">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79" s="58">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" s="58">
         <f t="shared" si="154"/>
@@ -19146,7 +19290,7 @@
       </c>
       <c r="W79" s="58">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X79" s="58">
         <f t="shared" si="154"/>
@@ -19158,7 +19302,7 @@
       </c>
       <c r="Z79" s="58">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA79" s="58">
         <f t="shared" si="154"/>
@@ -19332,7 +19476,7 @@
     <row r="80" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G80" s="58">
         <f>+SUM(H80:BP80)</f>
-        <v>28.5</v>
+        <v>40.125</v>
       </c>
       <c r="H80" s="58">
         <f t="shared" ref="H80:BP80" si="158">H23*H$6</f>
@@ -19368,51 +19512,51 @@
       </c>
       <c r="P80" s="58">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" s="58">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" s="58">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S80" s="58">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="T80" s="58">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="U80" s="58">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80" s="58">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="W80" s="58">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X80" s="58">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y80" s="58">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z80" s="58">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA80" s="58">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB80" s="58">
         <f t="shared" si="158"/>
@@ -19582,7 +19726,7 @@
     <row r="81" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G81" s="58">
         <f>+SUM(H81:BP81)</f>
-        <v>23.25</v>
+        <v>32.75</v>
       </c>
       <c r="H81" s="58">
         <f t="shared" ref="H81:BP81" si="162">H24*H$6</f>
@@ -19618,15 +19762,15 @@
       </c>
       <c r="P81" s="58">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" s="58">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" s="58">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" s="58">
         <f t="shared" si="162"/>
@@ -19634,7 +19778,7 @@
       </c>
       <c r="T81" s="58">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U81" s="58">
         <f t="shared" si="162"/>
@@ -19642,27 +19786,27 @@
       </c>
       <c r="V81" s="58">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W81" s="58">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X81" s="58">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y81" s="58">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z81" s="58">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA81" s="58">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB81" s="58">
         <f t="shared" si="162"/>
@@ -19832,7 +19976,7 @@
     <row r="82" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G82" s="58">
         <f>+SUM(H82:BP82)</f>
-        <v>27.873000000000001</v>
+        <v>36.122999999999998</v>
       </c>
       <c r="H82" s="58">
         <f t="shared" ref="H82:BP82" si="166">H25*H$6</f>
@@ -19868,23 +20012,23 @@
       </c>
       <c r="P82" s="58">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82" s="58">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" s="58">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="S82" s="58">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T82" s="58">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="U82" s="58">
         <f t="shared" si="166"/>
@@ -19892,27 +20036,27 @@
       </c>
       <c r="V82" s="58">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W82" s="58">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X82" s="58">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y82" s="58">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z82" s="58">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA82" s="58">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB82" s="58">
         <f t="shared" si="166"/>
@@ -20082,7 +20226,7 @@
     <row r="83" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G83" s="58">
         <f>+SUM(H83:BP83)</f>
-        <v>16.5</v>
+        <v>21.375</v>
       </c>
       <c r="H83" s="58">
         <f t="shared" ref="H83:BP83" si="170">H26*H$6</f>
@@ -20118,15 +20262,15 @@
       </c>
       <c r="P83" s="58">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" s="58">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83" s="58">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" s="58">
         <f t="shared" si="170"/>
@@ -20134,7 +20278,7 @@
       </c>
       <c r="T83" s="58">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U83" s="58">
         <f t="shared" si="170"/>
@@ -20142,15 +20286,15 @@
       </c>
       <c r="V83" s="58">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W83" s="58">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X83" s="58">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="Y83" s="58">
         <f t="shared" si="170"/>
@@ -20332,7 +20476,7 @@
     <row r="84" spans="1:68" x14ac:dyDescent="0.25">
       <c r="G84" s="58">
         <f>+SUM(H84:BP84)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H84" s="58">
         <f t="shared" ref="H84:BP84" si="174">H27*H$6</f>
@@ -20368,7 +20512,7 @@
       </c>
       <c r="P84" s="58">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84" s="58">
         <f t="shared" si="174"/>

--- a/BaremeJavaBaseTest1_KL16.xlsx
+++ b/BaremeJavaBaseTest1_KL16.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F9708C-92C7-4F1D-9EA8-1A8E3E01BF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCC546F-3DF2-46DA-AED7-09FE11C3324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18375" yWindow="510" windowWidth="12600" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -3755,11 +3755,11 @@
   <dimension ref="A1:BT97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2205" ySplit="3975" topLeftCell="AX8" activePane="topRight"/>
+      <pane xSplit="2205" ySplit="3975" topLeftCell="G8" activePane="bottomRight"/>
       <selection activeCell="B1" sqref="B1:C1048576"/>
       <selection pane="topRight" activeCell="BI5" sqref="BI5"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
-      <selection pane="bottomRight" activeCell="BI27" sqref="BI27"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -7757,7 +7757,9 @@
       <c r="J22" s="49">
         <v>99</v>
       </c>
-      <c r="K22" s="59"/>
+      <c r="K22" s="59">
+        <v>0</v>
+      </c>
       <c r="L22" s="49">
         <v>99</v>
       </c>
@@ -9526,7 +9528,7 @@
       </c>
       <c r="K33" s="58">
         <f>AVERAGE(K8:K27)</f>
-        <v>0.34027777777777779</v>
+        <v>0.32236842105263158</v>
       </c>
       <c r="L33" s="89">
         <f>AVERAGE(L8:L24)</f>
